--- a/templates/ERC000041/metadata_template_ERC000041.xlsx
+++ b/templates/ERC000041/metadata_template_ERC000041.xlsx
@@ -19,11 +19,11 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$287</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="598">
   <si>
     <t>alias</t>
   </si>
@@ -450,6 +450,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -549,6 +561,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -666,6 +696,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -673,6 +706,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -2329,10 +2365,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2373,10 +2409,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2403,7 +2439,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2423,7 +2459,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -2440,7 +2476,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -2457,7 +2493,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -2474,7 +2510,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -2491,7 +2527,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -2508,7 +2544,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -2525,7 +2561,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -2542,7 +2578,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -2559,7 +2595,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -2573,7 +2609,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -2587,7 +2623,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -2601,7 +2637,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -2615,7 +2651,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -2625,8 +2661,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -2636,8 +2675,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -2647,8 +2689,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -2658,8 +2703,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -2670,7 +2718,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -2681,7 +2729,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -2692,7 +2740,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -2703,7 +2751,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -2714,7 +2762,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -2725,7 +2773,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -2736,7 +2784,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -2747,7 +2795,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -2758,7 +2806,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -2769,7 +2817,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -2780,7 +2828,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -2791,7 +2839,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -2802,7 +2850,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -2813,7 +2861,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -2821,7 +2869,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -2829,7 +2877,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -2837,7 +2885,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -2845,7 +2893,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -2853,7 +2901,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -2861,7 +2909,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -2869,7 +2917,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -2877,7 +2925,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -2885,7 +2933,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -2893,176 +2941,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3087,27 +3175,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3130,122 +3218,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3272,162 +3360,162 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -3450,1437 +3538,1437 @@
   <sheetData>
     <row r="1" spans="13:13">
       <c r="M1" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="13:13">
       <c r="M2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="13:13">
       <c r="M3" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="13:13">
       <c r="M4" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="13:13">
       <c r="M5" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="13:13">
       <c r="M6" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="13:13">
       <c r="M7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="13:13">
       <c r="M8" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="13:13">
       <c r="M9" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="13:13">
       <c r="M10" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="13:13">
       <c r="M11" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="13:13">
       <c r="M12" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="13:13">
       <c r="M13" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="13:13">
       <c r="M14" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="13:13">
       <c r="M15" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="13:13">
       <c r="M16" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="13:13">
       <c r="M17" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="13:13">
       <c r="M18" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="13:13">
       <c r="M19" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="13:13">
       <c r="M20" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="13:13">
       <c r="M21" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="13:13">
       <c r="M22" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="13:13">
       <c r="M23" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="13:13">
       <c r="M24" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="13:13">
       <c r="M25" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="13:13">
       <c r="M26" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="13:13">
       <c r="M27" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="13:13">
       <c r="M28" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="13:13">
       <c r="M29" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="13:13">
       <c r="M30" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="13:13">
       <c r="M31" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" spans="13:13">
       <c r="M32" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" spans="13:13">
       <c r="M33" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="13:13">
       <c r="M34" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="13:13">
       <c r="M35" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="13:13">
       <c r="M36" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="13:13">
       <c r="M37" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="13:13">
       <c r="M38" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="13:13">
       <c r="M39" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40" spans="13:13">
       <c r="M40" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="13:13">
       <c r="M41" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="13:13">
       <c r="M42" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="13:13">
       <c r="M43" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" spans="13:13">
       <c r="M44" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="13:13">
       <c r="M45" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="13:13">
       <c r="M46" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="13:13">
       <c r="M47" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="13:13">
       <c r="M48" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49" spans="13:13">
       <c r="M49" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="13:13">
       <c r="M50" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" spans="13:13">
       <c r="M51" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="52" spans="13:13">
       <c r="M52" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" spans="13:13">
       <c r="M53" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54" spans="13:13">
       <c r="M54" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55" spans="13:13">
       <c r="M55" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="56" spans="13:13">
       <c r="M56" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="57" spans="13:13">
       <c r="M57" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58" spans="13:13">
       <c r="M58" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" spans="13:13">
       <c r="M59" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="60" spans="13:13">
       <c r="M60" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="61" spans="13:13">
       <c r="M61" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="62" spans="13:13">
       <c r="M62" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="63" spans="13:13">
       <c r="M63" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="64" spans="13:13">
       <c r="M64" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="65" spans="13:13">
       <c r="M65" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="66" spans="13:13">
       <c r="M66" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="67" spans="13:13">
       <c r="M67" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="68" spans="13:13">
       <c r="M68" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69" spans="13:13">
       <c r="M69" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="70" spans="13:13">
       <c r="M70" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71" spans="13:13">
       <c r="M71" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="72" spans="13:13">
       <c r="M72" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="73" spans="13:13">
       <c r="M73" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="74" spans="13:13">
       <c r="M74" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75" spans="13:13">
       <c r="M75" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
     </row>
     <row r="76" spans="13:13">
       <c r="M76" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="77" spans="13:13">
       <c r="M77" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="78" spans="13:13">
       <c r="M78" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="79" spans="13:13">
       <c r="M79" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="80" spans="13:13">
       <c r="M80" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="81" spans="13:13">
       <c r="M81" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="82" spans="13:13">
       <c r="M82" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="83" spans="13:13">
       <c r="M83" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="84" spans="13:13">
       <c r="M84" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="85" spans="13:13">
       <c r="M85" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="86" spans="13:13">
       <c r="M86" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="87" spans="13:13">
       <c r="M87" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="88" spans="13:13">
       <c r="M88" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="89" spans="13:13">
       <c r="M89" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="90" spans="13:13">
       <c r="M90" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="91" spans="13:13">
       <c r="M91" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="92" spans="13:13">
       <c r="M92" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="93" spans="13:13">
       <c r="M93" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="94" spans="13:13">
       <c r="M94" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="95" spans="13:13">
       <c r="M95" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="96" spans="13:13">
       <c r="M96" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="97" spans="13:13">
       <c r="M97" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="98" spans="13:13">
       <c r="M98" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="99" spans="13:13">
       <c r="M99" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="100" spans="13:13">
       <c r="M100" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="101" spans="13:13">
       <c r="M101" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="102" spans="13:13">
       <c r="M102" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103" spans="13:13">
       <c r="M103" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="104" spans="13:13">
       <c r="M104" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="105" spans="13:13">
       <c r="M105" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="106" spans="13:13">
       <c r="M106" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="107" spans="13:13">
       <c r="M107" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="108" spans="13:13">
       <c r="M108" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="109" spans="13:13">
       <c r="M109" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="110" spans="13:13">
       <c r="M110" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="111" spans="13:13">
       <c r="M111" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="112" spans="13:13">
       <c r="M112" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="113" spans="13:13">
       <c r="M113" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="114" spans="13:13">
       <c r="M114" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="115" spans="13:13">
       <c r="M115" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="116" spans="13:13">
       <c r="M116" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="117" spans="13:13">
       <c r="M117" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="118" spans="13:13">
       <c r="M118" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="119" spans="13:13">
       <c r="M119" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="120" spans="13:13">
       <c r="M120" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="121" spans="13:13">
       <c r="M121" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="122" spans="13:13">
       <c r="M122" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="123" spans="13:13">
       <c r="M123" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="124" spans="13:13">
       <c r="M124" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="125" spans="13:13">
       <c r="M125" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="126" spans="13:13">
       <c r="M126" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="127" spans="13:13">
       <c r="M127" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="128" spans="13:13">
       <c r="M128" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="129" spans="13:13">
       <c r="M129" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="130" spans="13:13">
       <c r="M130" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="131" spans="13:13">
       <c r="M131" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="132" spans="13:13">
       <c r="M132" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="133" spans="13:13">
       <c r="M133" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="134" spans="13:13">
       <c r="M134" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="135" spans="13:13">
       <c r="M135" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="136" spans="13:13">
       <c r="M136" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="137" spans="13:13">
       <c r="M137" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="138" spans="13:13">
       <c r="M138" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="139" spans="13:13">
       <c r="M139" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="140" spans="13:13">
       <c r="M140" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="141" spans="13:13">
       <c r="M141" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="142" spans="13:13">
       <c r="M142" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="143" spans="13:13">
       <c r="M143" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="144" spans="13:13">
       <c r="M144" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="145" spans="13:13">
       <c r="M145" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="146" spans="13:13">
       <c r="M146" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="147" spans="13:13">
       <c r="M147" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="148" spans="13:13">
       <c r="M148" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="149" spans="13:13">
       <c r="M149" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="150" spans="13:13">
       <c r="M150" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="151" spans="13:13">
       <c r="M151" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="152" spans="13:13">
       <c r="M152" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="153" spans="13:13">
       <c r="M153" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="154" spans="13:13">
       <c r="M154" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="155" spans="13:13">
       <c r="M155" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="156" spans="13:13">
       <c r="M156" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="157" spans="13:13">
       <c r="M157" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="158" spans="13:13">
       <c r="M158" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="159" spans="13:13">
       <c r="M159" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="160" spans="13:13">
       <c r="M160" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="161" spans="13:13">
       <c r="M161" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="162" spans="13:13">
       <c r="M162" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="163" spans="13:13">
       <c r="M163" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="164" spans="13:13">
       <c r="M164" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="165" spans="13:13">
       <c r="M165" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="166" spans="13:13">
       <c r="M166" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="167" spans="13:13">
       <c r="M167" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="168" spans="13:13">
       <c r="M168" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="169" spans="13:13">
       <c r="M169" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="170" spans="13:13">
       <c r="M170" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="171" spans="13:13">
       <c r="M171" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="172" spans="13:13">
       <c r="M172" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="173" spans="13:13">
       <c r="M173" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="174" spans="13:13">
       <c r="M174" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="175" spans="13:13">
       <c r="M175" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="176" spans="13:13">
       <c r="M176" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="177" spans="13:13">
       <c r="M177" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="178" spans="13:13">
       <c r="M178" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="179" spans="13:13">
       <c r="M179" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="180" spans="13:13">
       <c r="M180" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="181" spans="13:13">
       <c r="M181" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="182" spans="13:13">
       <c r="M182" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="183" spans="13:13">
       <c r="M183" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="184" spans="13:13">
       <c r="M184" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="185" spans="13:13">
       <c r="M185" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="186" spans="13:13">
       <c r="M186" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="187" spans="13:13">
       <c r="M187" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="188" spans="13:13">
       <c r="M188" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="189" spans="13:13">
       <c r="M189" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="190" spans="13:13">
       <c r="M190" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="191" spans="13:13">
       <c r="M191" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="192" spans="13:13">
       <c r="M192" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="193" spans="13:13">
       <c r="M193" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="194" spans="13:13">
       <c r="M194" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="195" spans="13:13">
       <c r="M195" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="196" spans="13:13">
       <c r="M196" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="197" spans="13:13">
       <c r="M197" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="198" spans="13:13">
       <c r="M198" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="199" spans="13:13">
       <c r="M199" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="200" spans="13:13">
       <c r="M200" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="201" spans="13:13">
       <c r="M201" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="202" spans="13:13">
       <c r="M202" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="203" spans="13:13">
       <c r="M203" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="204" spans="13:13">
       <c r="M204" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="205" spans="13:13">
       <c r="M205" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="206" spans="13:13">
       <c r="M206" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="207" spans="13:13">
       <c r="M207" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="208" spans="13:13">
       <c r="M208" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="209" spans="13:13">
       <c r="M209" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="210" spans="13:13">
       <c r="M210" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="211" spans="13:13">
       <c r="M211" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="212" spans="13:13">
       <c r="M212" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="213" spans="13:13">
       <c r="M213" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="214" spans="13:13">
       <c r="M214" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="215" spans="13:13">
       <c r="M215" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="216" spans="13:13">
       <c r="M216" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="217" spans="13:13">
       <c r="M217" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="218" spans="13:13">
       <c r="M218" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="219" spans="13:13">
       <c r="M219" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="220" spans="13:13">
       <c r="M220" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="221" spans="13:13">
       <c r="M221" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="222" spans="13:13">
       <c r="M222" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="223" spans="13:13">
       <c r="M223" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="224" spans="13:13">
       <c r="M224" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="225" spans="13:13">
       <c r="M225" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="226" spans="13:13">
       <c r="M226" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="227" spans="13:13">
       <c r="M227" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="228" spans="13:13">
       <c r="M228" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="229" spans="13:13">
       <c r="M229" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="230" spans="13:13">
       <c r="M230" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="231" spans="13:13">
       <c r="M231" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="232" spans="13:13">
       <c r="M232" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="233" spans="13:13">
       <c r="M233" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="234" spans="13:13">
       <c r="M234" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="235" spans="13:13">
       <c r="M235" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="236" spans="13:13">
       <c r="M236" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="237" spans="13:13">
       <c r="M237" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="238" spans="13:13">
       <c r="M238" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="239" spans="13:13">
       <c r="M239" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="240" spans="13:13">
       <c r="M240" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="241" spans="13:13">
       <c r="M241" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="242" spans="13:13">
       <c r="M242" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="243" spans="13:13">
       <c r="M243" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="244" spans="13:13">
       <c r="M244" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="245" spans="13:13">
       <c r="M245" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="246" spans="13:13">
       <c r="M246" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="247" spans="13:13">
       <c r="M247" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="248" spans="13:13">
       <c r="M248" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="249" spans="13:13">
       <c r="M249" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="250" spans="13:13">
       <c r="M250" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="251" spans="13:13">
       <c r="M251" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="252" spans="13:13">
       <c r="M252" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="253" spans="13:13">
       <c r="M253" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="254" spans="13:13">
       <c r="M254" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="255" spans="13:13">
       <c r="M255" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="256" spans="13:13">
       <c r="M256" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="257" spans="13:13">
       <c r="M257" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="258" spans="13:13">
       <c r="M258" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="259" spans="13:13">
       <c r="M259" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="260" spans="13:13">
       <c r="M260" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="261" spans="13:13">
       <c r="M261" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="262" spans="13:13">
       <c r="M262" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="263" spans="13:13">
       <c r="M263" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="264" spans="13:13">
       <c r="M264" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="265" spans="13:13">
       <c r="M265" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="266" spans="13:13">
       <c r="M266" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="267" spans="13:13">
       <c r="M267" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="268" spans="13:13">
       <c r="M268" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="269" spans="13:13">
       <c r="M269" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="270" spans="13:13">
       <c r="M270" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="271" spans="13:13">
       <c r="M271" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="272" spans="13:13">
       <c r="M272" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="273" spans="13:13">
       <c r="M273" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="274" spans="13:13">
       <c r="M274" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="275" spans="13:13">
       <c r="M275" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="276" spans="13:13">
       <c r="M276" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="277" spans="13:13">
       <c r="M277" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="278" spans="13:13">
       <c r="M278" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="279" spans="13:13">
       <c r="M279" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="280" spans="13:13">
       <c r="M280" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="281" spans="13:13">
       <c r="M281" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="282" spans="13:13">
       <c r="M282" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="283" spans="13:13">
       <c r="M283" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="284" spans="13:13">
       <c r="M284" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="285" spans="13:13">
       <c r="M285" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="286" spans="13:13">
       <c r="M286" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="287" spans="13:13">
       <c r="M287" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000041/metadata_template_ERC000041.xlsx
+++ b/templates/ERC000041/metadata_template_ERC000041.xlsx
@@ -861,8 +861,7 @@
     <t>DNA concentration</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Dna concentration used for sequencing in ng/µl Units: 
-                    </t>
+    <t>(Optional) Dna concentration used for sequencing in ng/µl (Units: ng/µl)</t>
   </si>
   <si>
     <t>isolation_source</t>
@@ -1753,22 +1752,19 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. Units: 
-                    </t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
   </si>
   <si>
     <t>sample storage duration</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Duration for which sample was stored Units: 
-                    </t>
+    <t>(Optional) Duration for which sample was stored (Units: years)</t>
   </si>
   <si>
     <t>sample storage temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Temperature at which sample was stored, e.g. -80 Units: 
-                    </t>
+    <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
     <t>sample storage location</t>
@@ -1786,8 +1782,7 @@
     <t>sample transportation temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Transportation temperature from sample site to storage Units: 
-                    </t>
+    <t>(Optional) Transportation temperature from sample site to storage (Units: °C)</t>
   </si>
   <si>
     <t>sample transportation date</t>

--- a/templates/ERC000041/metadata_template_ERC000041.xlsx
+++ b/templates/ERC000041/metadata_template_ERC000041.xlsx
@@ -99,7 +99,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000041/metadata_template_ERC000041.xlsx
+++ b/templates/ERC000041/metadata_template_ERC000041.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$287</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$O$1:$O$288</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="599">
   <si>
     <t>alias</t>
   </si>
@@ -828,6 +828,990 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
+    <t>sample transportation date</t>
+  </si>
+  <si>
+    <t>(Optional) Transportation/shipping date of the sample. format:yyyy-mm-dd</t>
+  </si>
+  <si>
+    <t>sample transportation temperature</t>
+  </si>
+  <si>
+    <t>(Optional) Temperature at which sample was transported, e.g. -20 or 4 degree celsius. (Units: °C)</t>
+  </si>
+  <si>
+    <t>sample transportation time</t>
+  </si>
+  <si>
+    <t>(Optional) Transportation time from sample site to storage</t>
+  </si>
+  <si>
+    <t>sample storage temperature</t>
+  </si>
+  <si>
+    <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
+  </si>
+  <si>
+    <t>sample storage location</t>
+  </si>
+  <si>
+    <t>(Optional) Location at which sample was stored, usually name of a specific freezer/room. indicate the location name.</t>
+  </si>
+  <si>
+    <t>instrument for DNA concentration measurement</t>
+  </si>
+  <si>
+    <t>(Optional) Name/type of instrument used to measure the dna concentration (ng/µl) prior to library preparation</t>
+  </si>
+  <si>
+    <t>read quality filter</t>
+  </si>
+  <si>
+    <t>(Optional) Programme used to filter reads quality before conducting the analysis</t>
+  </si>
+  <si>
+    <t>DNA concentration</t>
+  </si>
+  <si>
+    <t>(Optional) Dna concentration used for sequencing in ng/µl (Units: ng/µl)</t>
+  </si>
+  <si>
+    <t>isolation_source</t>
+  </si>
+  <si>
+    <t>(Optional) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived</t>
+  </si>
+  <si>
+    <t>collection date</t>
+  </si>
+  <si>
+    <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Arctic Ocean</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Ashmore and Cartier Islands</t>
+  </si>
+  <si>
+    <t>Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Baker Island</t>
+  </si>
+  <si>
+    <t>Baltic Sea</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Bassas da India</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Borneo</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Clipperton Island</t>
+  </si>
+  <si>
+    <t>Cocos Islands</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Coral Sea Islands</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>East Timor</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Europa Island</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Islas Malvinas)</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>French Southern and Antarctic Lands</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Gaza Strip</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Glorioso Islands</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Howland Island</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indian Ocean</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Jan Mayen</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jarvis Island</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Johnston Atoll</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Juan de Nova Island</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kerguelen Archipelago</t>
+  </si>
+  <si>
+    <t>Kingman Reef</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Mediterranean Sea</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Midway Islands</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Navassa Island</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>North Sea</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pacific Ocean</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Palmyra Atoll</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paracel Islands</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Pitcairn Islands</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Ross Sea</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Sint Maarten</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Southern Ocean</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Spratly Islands</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Svalbard</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Tasman Sea</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tromelin Island</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>West Bank</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>missing: control sample</t>
+  </si>
+  <si>
+    <t>missing: data agreement established pre-2023</t>
+  </si>
+  <si>
+    <t>missing: endangered species</t>
+  </si>
+  <si>
+    <t>missing: human-identifiable</t>
+  </si>
+  <si>
+    <t>missing: lab stock</t>
+  </si>
+  <si>
+    <t>missing: sample group</t>
+  </si>
+  <si>
+    <t>missing: synthetic construct</t>
+  </si>
+  <si>
+    <t>missing: third party data</t>
+  </si>
+  <si>
+    <t>not applicable</t>
+  </si>
+  <si>
+    <t>not collected</t>
+  </si>
+  <si>
+    <t>not provided</t>
+  </si>
+  <si>
+    <t>restricted access</t>
+  </si>
+  <si>
+    <t>geographic location (country and/or sea)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
+  </si>
+  <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Recommended) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>sampling time point</t>
+  </si>
+  <si>
+    <t>(Optional) Time point at which a sample or observation is made or taken from a biomaterial as measured from some reference point. indicate the timepoint written in iso 8601 format.</t>
+  </si>
+  <si>
+    <t>sample storage duration</t>
+  </si>
+  <si>
+    <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
+  </si>
+  <si>
+    <t>receipt date</t>
+  </si>
+  <si>
+    <t>(Recommended) Date on which the sample was received. format:yyyy-mm-dd. please provide the highest precision possible. if the sample was received by the institution and not collected, the 'receipt date' must be provided instead. either the 'collection date' or 'receipt date' must be provided. if available, provide both dates.</t>
+  </si>
+  <si>
+    <t>links to additional analysis</t>
+  </si>
+  <si>
+    <t>(Recommended) Link to additional analysis results performed on the sample</t>
+  </si>
+  <si>
+    <t>isolate</t>
+  </si>
+  <si>
+    <t>(Mandatory) Individual isolate from which the sample was obtained</t>
+  </si>
+  <si>
+    <t>sub_species</t>
+  </si>
+  <si>
+    <t>(Recommended) Name of sub-species of organism from which sample was obtained</t>
+  </si>
+  <si>
+    <t>Further Details</t>
+  </si>
+  <si>
+    <t>(Recommended) Reference details related to a sample in form of an uri.</t>
+  </si>
+  <si>
     <t>nucleic acid extraction</t>
   </si>
   <si>
@@ -844,987 +1828,6 @@
   </si>
   <si>
     <t>(Recommended) The laboratory method used to reveal the presence of the sample sequenced in the experiment.</t>
-  </si>
-  <si>
-    <t>instrument for DNA concentration measurement</t>
-  </si>
-  <si>
-    <t>(Optional) Name/type of instrument used to measure the dna concentration (ng/µl) prior to library preparation</t>
-  </si>
-  <si>
-    <t>read quality filter</t>
-  </si>
-  <si>
-    <t>(Optional) Programme used to filter reads quality before conducting the analysis</t>
-  </si>
-  <si>
-    <t>DNA concentration</t>
-  </si>
-  <si>
-    <t>(Optional) Dna concentration used for sequencing in ng/µl (Units: ng/µl)</t>
-  </si>
-  <si>
-    <t>isolation_source</t>
-  </si>
-  <si>
-    <t>(Optional) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived</t>
-  </si>
-  <si>
-    <t>collection date</t>
-  </si>
-  <si>
-    <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
-    <t>Antarctica</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>Arctic Ocean</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Aruba</t>
-  </si>
-  <si>
-    <t>Ashmore and Cartier Islands</t>
-  </si>
-  <si>
-    <t>Atlantic Ocean</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Baker Island</t>
-  </si>
-  <si>
-    <t>Baltic Sea</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>Bassas da India</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Borneo</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Bouvet Island</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>British Virgin Islands</t>
-  </si>
-  <si>
-    <t>Brunei</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Christmas Island</t>
-  </si>
-  <si>
-    <t>Clipperton Island</t>
-  </si>
-  <si>
-    <t>Cocos Islands</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
-    <t>Coral Sea Islands</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Cote d'Ivoire</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Curacao</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Democratic Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>East Timor</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Europa Island</t>
-  </si>
-  <si>
-    <t>Falkland Islands (Islas Malvinas)</t>
-  </si>
-  <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>French Guiana</t>
-  </si>
-  <si>
-    <t>French Polynesia</t>
-  </si>
-  <si>
-    <t>French Southern and Antarctic Lands</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Gaza Strip</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Glorioso Islands</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Greenland</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
-    <t>Guam</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guernsey</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Heard Island and McDonald Islands</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Howland Island</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indian Ocean</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Isle of Man</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Jan Mayen</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Jarvis Island</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
-    <t>Johnston Atoll</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Juan de Nova Island</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Kerguelen Archipelago</t>
-  </si>
-  <si>
-    <t>Kingman Reef</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Kosovo</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Macau</t>
-  </si>
-  <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>Mediterranean Sea</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Micronesia</t>
-  </si>
-  <si>
-    <t>Midway Islands</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>Navassa Island</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Niue</t>
-  </si>
-  <si>
-    <t>Norfolk Island</t>
-  </si>
-  <si>
-    <t>North Korea</t>
-  </si>
-  <si>
-    <t>North Sea</t>
-  </si>
-  <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Pacific Ocean</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Palmyra Atoll</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Paracel Islands</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Pitcairn Islands</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Reunion</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Ross Sea</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Saint Helena</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>Saint Pierre and Miquelon</t>
-  </si>
-  <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Sint Maarten</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>South Georgia and the South Sandwich Islands</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Southern Ocean</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Spratly Islands</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Svalbard</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Syria</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Tasman Sea</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Tokelau</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Tromelin Island</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
-    <t>Wallis and Futuna</t>
-  </si>
-  <si>
-    <t>West Bank</t>
-  </si>
-  <si>
-    <t>Western Sahara</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>missing: control sample</t>
-  </si>
-  <si>
-    <t>missing: data agreement established pre-2023</t>
-  </si>
-  <si>
-    <t>missing: endangered species</t>
-  </si>
-  <si>
-    <t>missing: human-identifiable</t>
-  </si>
-  <si>
-    <t>missing: lab stock</t>
-  </si>
-  <si>
-    <t>missing: sample group</t>
-  </si>
-  <si>
-    <t>missing: synthetic construct</t>
-  </si>
-  <si>
-    <t>missing: third party data</t>
-  </si>
-  <si>
-    <t>not applicable</t>
-  </si>
-  <si>
-    <t>not collected</t>
-  </si>
-  <si>
-    <t>not provided</t>
-  </si>
-  <si>
-    <t>restricted access</t>
-  </si>
-  <si>
-    <t>geographic location (country and/or sea)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The location the sample was collected from with the intention of sequencing, as defined by the country or sea. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Recommended) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>sample storage duration</t>
-  </si>
-  <si>
-    <t>(Optional) Duration for which sample was stored (Units: years)</t>
-  </si>
-  <si>
-    <t>sample storage temperature</t>
-  </si>
-  <si>
-    <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
-  </si>
-  <si>
-    <t>sample storage location</t>
-  </si>
-  <si>
-    <t>(Optional) Location at which sample was stored, usually name of a specific freezer/room</t>
-  </si>
-  <si>
-    <t>sampling time point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Optional) </t>
-  </si>
-  <si>
-    <t>sample transportation temperature</t>
-  </si>
-  <si>
-    <t>(Optional) Transportation temperature from sample site to storage (Units: °C)</t>
-  </si>
-  <si>
-    <t>sample transportation date</t>
-  </si>
-  <si>
-    <t>(Optional) Transportation/shipping date of the sample. format:yyyy-mm-dd</t>
-  </si>
-  <si>
-    <t>sample transportation time</t>
-  </si>
-  <si>
-    <t>(Optional) Transportation time from sample site to storage</t>
-  </si>
-  <si>
-    <t>receipt date</t>
-  </si>
-  <si>
-    <t>(Recommended) Date on which the sample was received. format:yyyy-mm-dd. please provide the highest precision possible. if the sample was received by the institution and not collected, the 'receipt date' must be provided instead. either the 'collection date' or 'receipt date' must be provided. if available, provide both dates.</t>
-  </si>
-  <si>
-    <t>links to additional analysis</t>
-  </si>
-  <si>
-    <t>(Recommended) Link to additional analysis results performed on the sample</t>
-  </si>
-  <si>
-    <t>isolate</t>
-  </si>
-  <si>
-    <t>(Mandatory) Individual isolate from which the sample was obtained</t>
-  </si>
-  <si>
-    <t>sub_species</t>
-  </si>
-  <si>
-    <t>(Recommended) Name of sub-species of organism from which sample was obtained</t>
-  </si>
-  <si>
-    <t>Further Details</t>
-  </si>
-  <si>
-    <t>(Recommended) Reference details related to a sample in form of an uri.</t>
   </si>
 </sst>
 </file>
@@ -3385,49 +3388,49 @@
         <v>279</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>568</v>
+        <v>281</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>570</v>
+        <v>283</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="150" customHeight="1">
@@ -3468,54 +3471,54 @@
         <v>280</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>569</v>
+        <v>282</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>571</v>
+        <v>284</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
   </dataValidations>
@@ -3525,1445 +3528,1450 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="M1:M287"/>
+  <dimension ref="O1:O288"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="13:13">
-      <c r="M1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="2" spans="13:13">
-      <c r="M2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="3" spans="13:13">
-      <c r="M3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="13:13">
-      <c r="M4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="5" spans="13:13">
-      <c r="M5" t="s">
+    <row r="1" spans="15:15">
+      <c r="O1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="6" spans="13:13">
-      <c r="M6" t="s">
+    <row r="2" spans="15:15">
+      <c r="O2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="7" spans="13:13">
-      <c r="M7" t="s">
+    <row r="3" spans="15:15">
+      <c r="O3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="8" spans="13:13">
-      <c r="M8" t="s">
+    <row r="4" spans="15:15">
+      <c r="O4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="13:13">
-      <c r="M9" t="s">
+    <row r="5" spans="15:15">
+      <c r="O5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="13:13">
-      <c r="M10" t="s">
+    <row r="6" spans="15:15">
+      <c r="O6" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="13:13">
-      <c r="M11" t="s">
+    <row r="7" spans="15:15">
+      <c r="O7" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="13:13">
-      <c r="M12" t="s">
+    <row r="8" spans="15:15">
+      <c r="O8" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="13:13">
-      <c r="M13" t="s">
+    <row r="9" spans="15:15">
+      <c r="O9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="13:13">
-      <c r="M14" t="s">
+    <row r="10" spans="15:15">
+      <c r="O10" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="15" spans="13:13">
-      <c r="M15" t="s">
+    <row r="11" spans="15:15">
+      <c r="O11" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="16" spans="13:13">
-      <c r="M16" t="s">
+    <row r="12" spans="15:15">
+      <c r="O12" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="13:13">
-      <c r="M17" t="s">
+    <row r="13" spans="15:15">
+      <c r="O13" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="18" spans="13:13">
-      <c r="M18" t="s">
+    <row r="14" spans="15:15">
+      <c r="O14" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="19" spans="13:13">
-      <c r="M19" t="s">
+    <row r="15" spans="15:15">
+      <c r="O15" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="20" spans="13:13">
-      <c r="M20" t="s">
+    <row r="16" spans="15:15">
+      <c r="O16" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="13:13">
-      <c r="M21" t="s">
+    <row r="17" spans="15:15">
+      <c r="O17" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="22" spans="13:13">
-      <c r="M22" t="s">
+    <row r="18" spans="15:15">
+      <c r="O18" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="23" spans="13:13">
-      <c r="M23" t="s">
+    <row r="19" spans="15:15">
+      <c r="O19" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="24" spans="13:13">
-      <c r="M24" t="s">
+    <row r="20" spans="15:15">
+      <c r="O20" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="25" spans="13:13">
-      <c r="M25" t="s">
+    <row r="21" spans="15:15">
+      <c r="O21" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="26" spans="13:13">
-      <c r="M26" t="s">
+    <row r="22" spans="15:15">
+      <c r="O22" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="27" spans="13:13">
-      <c r="M27" t="s">
+    <row r="23" spans="15:15">
+      <c r="O23" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="28" spans="13:13">
-      <c r="M28" t="s">
+    <row r="24" spans="15:15">
+      <c r="O24" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="29" spans="13:13">
-      <c r="M29" t="s">
+    <row r="25" spans="15:15">
+      <c r="O25" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="30" spans="13:13">
-      <c r="M30" t="s">
+    <row r="26" spans="15:15">
+      <c r="O26" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="31" spans="13:13">
-      <c r="M31" t="s">
+    <row r="27" spans="15:15">
+      <c r="O27" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="32" spans="13:13">
-      <c r="M32" t="s">
+    <row r="28" spans="15:15">
+      <c r="O28" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="33" spans="13:13">
-      <c r="M33" t="s">
+    <row r="29" spans="15:15">
+      <c r="O29" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="34" spans="13:13">
-      <c r="M34" t="s">
+    <row r="30" spans="15:15">
+      <c r="O30" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="35" spans="13:13">
-      <c r="M35" t="s">
+    <row r="31" spans="15:15">
+      <c r="O31" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="36" spans="13:13">
-      <c r="M36" t="s">
+    <row r="32" spans="15:15">
+      <c r="O32" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="37" spans="13:13">
-      <c r="M37" t="s">
+    <row r="33" spans="15:15">
+      <c r="O33" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="38" spans="13:13">
-      <c r="M38" t="s">
+    <row r="34" spans="15:15">
+      <c r="O34" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="39" spans="13:13">
-      <c r="M39" t="s">
+    <row r="35" spans="15:15">
+      <c r="O35" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="40" spans="13:13">
-      <c r="M40" t="s">
+    <row r="36" spans="15:15">
+      <c r="O36" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="41" spans="13:13">
-      <c r="M41" t="s">
+    <row r="37" spans="15:15">
+      <c r="O37" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="42" spans="13:13">
-      <c r="M42" t="s">
+    <row r="38" spans="15:15">
+      <c r="O38" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="43" spans="13:13">
-      <c r="M43" t="s">
+    <row r="39" spans="15:15">
+      <c r="O39" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="44" spans="13:13">
-      <c r="M44" t="s">
+    <row r="40" spans="15:15">
+      <c r="O40" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="45" spans="13:13">
-      <c r="M45" t="s">
+    <row r="41" spans="15:15">
+      <c r="O41" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="46" spans="13:13">
-      <c r="M46" t="s">
+    <row r="42" spans="15:15">
+      <c r="O42" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="47" spans="13:13">
-      <c r="M47" t="s">
+    <row r="43" spans="15:15">
+      <c r="O43" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="48" spans="13:13">
-      <c r="M48" t="s">
+    <row r="44" spans="15:15">
+      <c r="O44" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="49" spans="13:13">
-      <c r="M49" t="s">
+    <row r="45" spans="15:15">
+      <c r="O45" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="50" spans="13:13">
-      <c r="M50" t="s">
+    <row r="46" spans="15:15">
+      <c r="O46" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="51" spans="13:13">
-      <c r="M51" t="s">
+    <row r="47" spans="15:15">
+      <c r="O47" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="52" spans="13:13">
-      <c r="M52" t="s">
+    <row r="48" spans="15:15">
+      <c r="O48" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="53" spans="13:13">
-      <c r="M53" t="s">
+    <row r="49" spans="15:15">
+      <c r="O49" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="54" spans="13:13">
-      <c r="M54" t="s">
+    <row r="50" spans="15:15">
+      <c r="O50" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="55" spans="13:13">
-      <c r="M55" t="s">
+    <row r="51" spans="15:15">
+      <c r="O51" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="56" spans="13:13">
-      <c r="M56" t="s">
+    <row r="52" spans="15:15">
+      <c r="O52" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="57" spans="13:13">
-      <c r="M57" t="s">
+    <row r="53" spans="15:15">
+      <c r="O53" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="58" spans="13:13">
-      <c r="M58" t="s">
+    <row r="54" spans="15:15">
+      <c r="O54" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="59" spans="13:13">
-      <c r="M59" t="s">
+    <row r="55" spans="15:15">
+      <c r="O55" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="60" spans="13:13">
-      <c r="M60" t="s">
+    <row r="56" spans="15:15">
+      <c r="O56" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="61" spans="13:13">
-      <c r="M61" t="s">
+    <row r="57" spans="15:15">
+      <c r="O57" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="62" spans="13:13">
-      <c r="M62" t="s">
+    <row r="58" spans="15:15">
+      <c r="O58" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="63" spans="13:13">
-      <c r="M63" t="s">
+    <row r="59" spans="15:15">
+      <c r="O59" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="64" spans="13:13">
-      <c r="M64" t="s">
+    <row r="60" spans="15:15">
+      <c r="O60" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="65" spans="13:13">
-      <c r="M65" t="s">
+    <row r="61" spans="15:15">
+      <c r="O61" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="66" spans="13:13">
-      <c r="M66" t="s">
+    <row r="62" spans="15:15">
+      <c r="O62" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="67" spans="13:13">
-      <c r="M67" t="s">
+    <row r="63" spans="15:15">
+      <c r="O63" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="68" spans="13:13">
-      <c r="M68" t="s">
+    <row r="64" spans="15:15">
+      <c r="O64" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="69" spans="13:13">
-      <c r="M69" t="s">
+    <row r="65" spans="15:15">
+      <c r="O65" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="70" spans="13:13">
-      <c r="M70" t="s">
+    <row r="66" spans="15:15">
+      <c r="O66" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="71" spans="13:13">
-      <c r="M71" t="s">
+    <row r="67" spans="15:15">
+      <c r="O67" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="72" spans="13:13">
-      <c r="M72" t="s">
+    <row r="68" spans="15:15">
+      <c r="O68" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="73" spans="13:13">
-      <c r="M73" t="s">
+    <row r="69" spans="15:15">
+      <c r="O69" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="74" spans="13:13">
-      <c r="M74" t="s">
+    <row r="70" spans="15:15">
+      <c r="O70" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="75" spans="13:13">
-      <c r="M75" t="s">
+    <row r="71" spans="15:15">
+      <c r="O71" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="76" spans="13:13">
-      <c r="M76" t="s">
+    <row r="72" spans="15:15">
+      <c r="O72" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="77" spans="13:13">
-      <c r="M77" t="s">
+    <row r="73" spans="15:15">
+      <c r="O73" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="78" spans="13:13">
-      <c r="M78" t="s">
+    <row r="74" spans="15:15">
+      <c r="O74" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="79" spans="13:13">
-      <c r="M79" t="s">
+    <row r="75" spans="15:15">
+      <c r="O75" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="80" spans="13:13">
-      <c r="M80" t="s">
+    <row r="76" spans="15:15">
+      <c r="O76" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="81" spans="13:13">
-      <c r="M81" t="s">
+    <row r="77" spans="15:15">
+      <c r="O77" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="82" spans="13:13">
-      <c r="M82" t="s">
+    <row r="78" spans="15:15">
+      <c r="O78" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="83" spans="13:13">
-      <c r="M83" t="s">
+    <row r="79" spans="15:15">
+      <c r="O79" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="84" spans="13:13">
-      <c r="M84" t="s">
+    <row r="80" spans="15:15">
+      <c r="O80" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="85" spans="13:13">
-      <c r="M85" t="s">
+    <row r="81" spans="15:15">
+      <c r="O81" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="86" spans="13:13">
-      <c r="M86" t="s">
+    <row r="82" spans="15:15">
+      <c r="O82" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="87" spans="13:13">
-      <c r="M87" t="s">
+    <row r="83" spans="15:15">
+      <c r="O83" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="88" spans="13:13">
-      <c r="M88" t="s">
+    <row r="84" spans="15:15">
+      <c r="O84" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="89" spans="13:13">
-      <c r="M89" t="s">
+    <row r="85" spans="15:15">
+      <c r="O85" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="90" spans="13:13">
-      <c r="M90" t="s">
+    <row r="86" spans="15:15">
+      <c r="O86" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="91" spans="13:13">
-      <c r="M91" t="s">
+    <row r="87" spans="15:15">
+      <c r="O87" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="92" spans="13:13">
-      <c r="M92" t="s">
+    <row r="88" spans="15:15">
+      <c r="O88" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="93" spans="13:13">
-      <c r="M93" t="s">
+    <row r="89" spans="15:15">
+      <c r="O89" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="94" spans="13:13">
-      <c r="M94" t="s">
+    <row r="90" spans="15:15">
+      <c r="O90" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="95" spans="13:13">
-      <c r="M95" t="s">
+    <row r="91" spans="15:15">
+      <c r="O91" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="96" spans="13:13">
-      <c r="M96" t="s">
+    <row r="92" spans="15:15">
+      <c r="O92" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="97" spans="13:13">
-      <c r="M97" t="s">
+    <row r="93" spans="15:15">
+      <c r="O93" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="98" spans="13:13">
-      <c r="M98" t="s">
+    <row r="94" spans="15:15">
+      <c r="O94" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="99" spans="13:13">
-      <c r="M99" t="s">
+    <row r="95" spans="15:15">
+      <c r="O95" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="100" spans="13:13">
-      <c r="M100" t="s">
+    <row r="96" spans="15:15">
+      <c r="O96" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="101" spans="13:13">
-      <c r="M101" t="s">
+    <row r="97" spans="15:15">
+      <c r="O97" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="102" spans="13:13">
-      <c r="M102" t="s">
+    <row r="98" spans="15:15">
+      <c r="O98" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="103" spans="13:13">
-      <c r="M103" t="s">
+    <row r="99" spans="15:15">
+      <c r="O99" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="104" spans="13:13">
-      <c r="M104" t="s">
+    <row r="100" spans="15:15">
+      <c r="O100" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="105" spans="13:13">
-      <c r="M105" t="s">
+    <row r="101" spans="15:15">
+      <c r="O101" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="106" spans="13:13">
-      <c r="M106" t="s">
+    <row r="102" spans="15:15">
+      <c r="O102" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="107" spans="13:13">
-      <c r="M107" t="s">
+    <row r="103" spans="15:15">
+      <c r="O103" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="108" spans="13:13">
-      <c r="M108" t="s">
+    <row r="104" spans="15:15">
+      <c r="O104" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="109" spans="13:13">
-      <c r="M109" t="s">
+    <row r="105" spans="15:15">
+      <c r="O105" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="110" spans="13:13">
-      <c r="M110" t="s">
+    <row r="106" spans="15:15">
+      <c r="O106" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="111" spans="13:13">
-      <c r="M111" t="s">
+    <row r="107" spans="15:15">
+      <c r="O107" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="112" spans="13:13">
-      <c r="M112" t="s">
+    <row r="108" spans="15:15">
+      <c r="O108" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="113" spans="13:13">
-      <c r="M113" t="s">
+    <row r="109" spans="15:15">
+      <c r="O109" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="114" spans="13:13">
-      <c r="M114" t="s">
+    <row r="110" spans="15:15">
+      <c r="O110" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="115" spans="13:13">
-      <c r="M115" t="s">
+    <row r="111" spans="15:15">
+      <c r="O111" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="116" spans="13:13">
-      <c r="M116" t="s">
+    <row r="112" spans="15:15">
+      <c r="O112" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="117" spans="13:13">
-      <c r="M117" t="s">
+    <row r="113" spans="15:15">
+      <c r="O113" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="118" spans="13:13">
-      <c r="M118" t="s">
+    <row r="114" spans="15:15">
+      <c r="O114" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="119" spans="13:13">
-      <c r="M119" t="s">
+    <row r="115" spans="15:15">
+      <c r="O115" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="120" spans="13:13">
-      <c r="M120" t="s">
+    <row r="116" spans="15:15">
+      <c r="O116" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="121" spans="13:13">
-      <c r="M121" t="s">
+    <row r="117" spans="15:15">
+      <c r="O117" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="122" spans="13:13">
-      <c r="M122" t="s">
+    <row r="118" spans="15:15">
+      <c r="O118" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="123" spans="13:13">
-      <c r="M123" t="s">
+    <row r="119" spans="15:15">
+      <c r="O119" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="124" spans="13:13">
-      <c r="M124" t="s">
+    <row r="120" spans="15:15">
+      <c r="O120" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="125" spans="13:13">
-      <c r="M125" t="s">
+    <row r="121" spans="15:15">
+      <c r="O121" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="126" spans="13:13">
-      <c r="M126" t="s">
+    <row r="122" spans="15:15">
+      <c r="O122" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="127" spans="13:13">
-      <c r="M127" t="s">
+    <row r="123" spans="15:15">
+      <c r="O123" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="128" spans="13:13">
-      <c r="M128" t="s">
+    <row r="124" spans="15:15">
+      <c r="O124" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="129" spans="13:13">
-      <c r="M129" t="s">
+    <row r="125" spans="15:15">
+      <c r="O125" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="130" spans="13:13">
-      <c r="M130" t="s">
+    <row r="126" spans="15:15">
+      <c r="O126" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="131" spans="13:13">
-      <c r="M131" t="s">
+    <row r="127" spans="15:15">
+      <c r="O127" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="132" spans="13:13">
-      <c r="M132" t="s">
+    <row r="128" spans="15:15">
+      <c r="O128" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="133" spans="13:13">
-      <c r="M133" t="s">
+    <row r="129" spans="15:15">
+      <c r="O129" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="134" spans="13:13">
-      <c r="M134" t="s">
+    <row r="130" spans="15:15">
+      <c r="O130" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="135" spans="13:13">
-      <c r="M135" t="s">
+    <row r="131" spans="15:15">
+      <c r="O131" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="136" spans="13:13">
-      <c r="M136" t="s">
+    <row r="132" spans="15:15">
+      <c r="O132" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="137" spans="13:13">
-      <c r="M137" t="s">
+    <row r="133" spans="15:15">
+      <c r="O133" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="138" spans="13:13">
-      <c r="M138" t="s">
+    <row r="134" spans="15:15">
+      <c r="O134" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="139" spans="13:13">
-      <c r="M139" t="s">
+    <row r="135" spans="15:15">
+      <c r="O135" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="140" spans="13:13">
-      <c r="M140" t="s">
+    <row r="136" spans="15:15">
+      <c r="O136" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="141" spans="13:13">
-      <c r="M141" t="s">
+    <row r="137" spans="15:15">
+      <c r="O137" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="142" spans="13:13">
-      <c r="M142" t="s">
+    <row r="138" spans="15:15">
+      <c r="O138" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="143" spans="13:13">
-      <c r="M143" t="s">
+    <row r="139" spans="15:15">
+      <c r="O139" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="144" spans="13:13">
-      <c r="M144" t="s">
+    <row r="140" spans="15:15">
+      <c r="O140" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="145" spans="13:13">
-      <c r="M145" t="s">
+    <row r="141" spans="15:15">
+      <c r="O141" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="146" spans="13:13">
-      <c r="M146" t="s">
+    <row r="142" spans="15:15">
+      <c r="O142" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="147" spans="13:13">
-      <c r="M147" t="s">
+    <row r="143" spans="15:15">
+      <c r="O143" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="148" spans="13:13">
-      <c r="M148" t="s">
+    <row r="144" spans="15:15">
+      <c r="O144" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="149" spans="13:13">
-      <c r="M149" t="s">
+    <row r="145" spans="15:15">
+      <c r="O145" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="150" spans="13:13">
-      <c r="M150" t="s">
+    <row r="146" spans="15:15">
+      <c r="O146" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="151" spans="13:13">
-      <c r="M151" t="s">
+    <row r="147" spans="15:15">
+      <c r="O147" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="152" spans="13:13">
-      <c r="M152" t="s">
+    <row r="148" spans="15:15">
+      <c r="O148" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="153" spans="13:13">
-      <c r="M153" t="s">
+    <row r="149" spans="15:15">
+      <c r="O149" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="154" spans="13:13">
-      <c r="M154" t="s">
+    <row r="150" spans="15:15">
+      <c r="O150" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="155" spans="13:13">
-      <c r="M155" t="s">
+    <row r="151" spans="15:15">
+      <c r="O151" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="156" spans="13:13">
-      <c r="M156" t="s">
+    <row r="152" spans="15:15">
+      <c r="O152" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="157" spans="13:13">
-      <c r="M157" t="s">
+    <row r="153" spans="15:15">
+      <c r="O153" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="158" spans="13:13">
-      <c r="M158" t="s">
+    <row r="154" spans="15:15">
+      <c r="O154" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="159" spans="13:13">
-      <c r="M159" t="s">
+    <row r="155" spans="15:15">
+      <c r="O155" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="160" spans="13:13">
-      <c r="M160" t="s">
+    <row r="156" spans="15:15">
+      <c r="O156" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="161" spans="13:13">
-      <c r="M161" t="s">
+    <row r="157" spans="15:15">
+      <c r="O157" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="162" spans="13:13">
-      <c r="M162" t="s">
+    <row r="158" spans="15:15">
+      <c r="O158" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="163" spans="13:13">
-      <c r="M163" t="s">
+    <row r="159" spans="15:15">
+      <c r="O159" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="164" spans="13:13">
-      <c r="M164" t="s">
+    <row r="160" spans="15:15">
+      <c r="O160" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="165" spans="13:13">
-      <c r="M165" t="s">
+    <row r="161" spans="15:15">
+      <c r="O161" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="166" spans="13:13">
-      <c r="M166" t="s">
+    <row r="162" spans="15:15">
+      <c r="O162" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="167" spans="13:13">
-      <c r="M167" t="s">
+    <row r="163" spans="15:15">
+      <c r="O163" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="168" spans="13:13">
-      <c r="M168" t="s">
+    <row r="164" spans="15:15">
+      <c r="O164" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="169" spans="13:13">
-      <c r="M169" t="s">
+    <row r="165" spans="15:15">
+      <c r="O165" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="170" spans="13:13">
-      <c r="M170" t="s">
+    <row r="166" spans="15:15">
+      <c r="O166" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="171" spans="13:13">
-      <c r="M171" t="s">
+    <row r="167" spans="15:15">
+      <c r="O167" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="172" spans="13:13">
-      <c r="M172" t="s">
+    <row r="168" spans="15:15">
+      <c r="O168" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="173" spans="13:13">
-      <c r="M173" t="s">
+    <row r="169" spans="15:15">
+      <c r="O169" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="174" spans="13:13">
-      <c r="M174" t="s">
+    <row r="170" spans="15:15">
+      <c r="O170" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="175" spans="13:13">
-      <c r="M175" t="s">
+    <row r="171" spans="15:15">
+      <c r="O171" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="176" spans="13:13">
-      <c r="M176" t="s">
+    <row r="172" spans="15:15">
+      <c r="O172" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="177" spans="13:13">
-      <c r="M177" t="s">
+    <row r="173" spans="15:15">
+      <c r="O173" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="178" spans="13:13">
-      <c r="M178" t="s">
+    <row r="174" spans="15:15">
+      <c r="O174" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="179" spans="13:13">
-      <c r="M179" t="s">
+    <row r="175" spans="15:15">
+      <c r="O175" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="180" spans="13:13">
-      <c r="M180" t="s">
+    <row r="176" spans="15:15">
+      <c r="O176" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="181" spans="13:13">
-      <c r="M181" t="s">
+    <row r="177" spans="15:15">
+      <c r="O177" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="182" spans="13:13">
-      <c r="M182" t="s">
+    <row r="178" spans="15:15">
+      <c r="O178" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="183" spans="13:13">
-      <c r="M183" t="s">
+    <row r="179" spans="15:15">
+      <c r="O179" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="184" spans="13:13">
-      <c r="M184" t="s">
+    <row r="180" spans="15:15">
+      <c r="O180" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="185" spans="13:13">
-      <c r="M185" t="s">
+    <row r="181" spans="15:15">
+      <c r="O181" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="186" spans="13:13">
-      <c r="M186" t="s">
+    <row r="182" spans="15:15">
+      <c r="O182" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="187" spans="13:13">
-      <c r="M187" t="s">
+    <row r="183" spans="15:15">
+      <c r="O183" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="188" spans="13:13">
-      <c r="M188" t="s">
+    <row r="184" spans="15:15">
+      <c r="O184" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="189" spans="13:13">
-      <c r="M189" t="s">
+    <row r="185" spans="15:15">
+      <c r="O185" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="190" spans="13:13">
-      <c r="M190" t="s">
+    <row r="186" spans="15:15">
+      <c r="O186" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="191" spans="13:13">
-      <c r="M191" t="s">
+    <row r="187" spans="15:15">
+      <c r="O187" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="192" spans="13:13">
-      <c r="M192" t="s">
+    <row r="188" spans="15:15">
+      <c r="O188" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="193" spans="13:13">
-      <c r="M193" t="s">
+    <row r="189" spans="15:15">
+      <c r="O189" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="194" spans="13:13">
-      <c r="M194" t="s">
+    <row r="190" spans="15:15">
+      <c r="O190" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="195" spans="13:13">
-      <c r="M195" t="s">
+    <row r="191" spans="15:15">
+      <c r="O191" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="196" spans="13:13">
-      <c r="M196" t="s">
+    <row r="192" spans="15:15">
+      <c r="O192" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="197" spans="13:13">
-      <c r="M197" t="s">
+    <row r="193" spans="15:15">
+      <c r="O193" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="198" spans="13:13">
-      <c r="M198" t="s">
+    <row r="194" spans="15:15">
+      <c r="O194" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="199" spans="13:13">
-      <c r="M199" t="s">
+    <row r="195" spans="15:15">
+      <c r="O195" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="200" spans="13:13">
-      <c r="M200" t="s">
+    <row r="196" spans="15:15">
+      <c r="O196" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="201" spans="13:13">
-      <c r="M201" t="s">
+    <row r="197" spans="15:15">
+      <c r="O197" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="202" spans="13:13">
-      <c r="M202" t="s">
+    <row r="198" spans="15:15">
+      <c r="O198" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="203" spans="13:13">
-      <c r="M203" t="s">
+    <row r="199" spans="15:15">
+      <c r="O199" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="204" spans="13:13">
-      <c r="M204" t="s">
+    <row r="200" spans="15:15">
+      <c r="O200" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="205" spans="13:13">
-      <c r="M205" t="s">
+    <row r="201" spans="15:15">
+      <c r="O201" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="206" spans="13:13">
-      <c r="M206" t="s">
+    <row r="202" spans="15:15">
+      <c r="O202" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="207" spans="13:13">
-      <c r="M207" t="s">
+    <row r="203" spans="15:15">
+      <c r="O203" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="208" spans="13:13">
-      <c r="M208" t="s">
+    <row r="204" spans="15:15">
+      <c r="O204" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="209" spans="13:13">
-      <c r="M209" t="s">
+    <row r="205" spans="15:15">
+      <c r="O205" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="210" spans="13:13">
-      <c r="M210" t="s">
+    <row r="206" spans="15:15">
+      <c r="O206" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="211" spans="13:13">
-      <c r="M211" t="s">
+    <row r="207" spans="15:15">
+      <c r="O207" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="212" spans="13:13">
-      <c r="M212" t="s">
+    <row r="208" spans="15:15">
+      <c r="O208" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="213" spans="13:13">
-      <c r="M213" t="s">
+    <row r="209" spans="15:15">
+      <c r="O209" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="214" spans="13:13">
-      <c r="M214" t="s">
+    <row r="210" spans="15:15">
+      <c r="O210" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="215" spans="13:13">
-      <c r="M215" t="s">
+    <row r="211" spans="15:15">
+      <c r="O211" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="216" spans="13:13">
-      <c r="M216" t="s">
+    <row r="212" spans="15:15">
+      <c r="O212" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="217" spans="13:13">
-      <c r="M217" t="s">
+    <row r="213" spans="15:15">
+      <c r="O213" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="218" spans="13:13">
-      <c r="M218" t="s">
+    <row r="214" spans="15:15">
+      <c r="O214" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="219" spans="13:13">
-      <c r="M219" t="s">
+    <row r="215" spans="15:15">
+      <c r="O215" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="220" spans="13:13">
-      <c r="M220" t="s">
+    <row r="216" spans="15:15">
+      <c r="O216" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="221" spans="13:13">
-      <c r="M221" t="s">
+    <row r="217" spans="15:15">
+      <c r="O217" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="222" spans="13:13">
-      <c r="M222" t="s">
+    <row r="218" spans="15:15">
+      <c r="O218" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="223" spans="13:13">
-      <c r="M223" t="s">
+    <row r="219" spans="15:15">
+      <c r="O219" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="224" spans="13:13">
-      <c r="M224" t="s">
+    <row r="220" spans="15:15">
+      <c r="O220" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="225" spans="13:13">
-      <c r="M225" t="s">
+    <row r="221" spans="15:15">
+      <c r="O221" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="226" spans="13:13">
-      <c r="M226" t="s">
+    <row r="222" spans="15:15">
+      <c r="O222" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="227" spans="13:13">
-      <c r="M227" t="s">
+    <row r="223" spans="15:15">
+      <c r="O223" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="228" spans="13:13">
-      <c r="M228" t="s">
+    <row r="224" spans="15:15">
+      <c r="O224" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="229" spans="13:13">
-      <c r="M229" t="s">
+    <row r="225" spans="15:15">
+      <c r="O225" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="230" spans="13:13">
-      <c r="M230" t="s">
+    <row r="226" spans="15:15">
+      <c r="O226" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="231" spans="13:13">
-      <c r="M231" t="s">
+    <row r="227" spans="15:15">
+      <c r="O227" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="232" spans="13:13">
-      <c r="M232" t="s">
+    <row r="228" spans="15:15">
+      <c r="O228" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="233" spans="13:13">
-      <c r="M233" t="s">
+    <row r="229" spans="15:15">
+      <c r="O229" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="234" spans="13:13">
-      <c r="M234" t="s">
+    <row r="230" spans="15:15">
+      <c r="O230" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="235" spans="13:13">
-      <c r="M235" t="s">
+    <row r="231" spans="15:15">
+      <c r="O231" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="236" spans="13:13">
-      <c r="M236" t="s">
+    <row r="232" spans="15:15">
+      <c r="O232" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="237" spans="13:13">
-      <c r="M237" t="s">
+    <row r="233" spans="15:15">
+      <c r="O233" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="238" spans="13:13">
-      <c r="M238" t="s">
+    <row r="234" spans="15:15">
+      <c r="O234" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="239" spans="13:13">
-      <c r="M239" t="s">
+    <row r="235" spans="15:15">
+      <c r="O235" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="240" spans="13:13">
-      <c r="M240" t="s">
+    <row r="236" spans="15:15">
+      <c r="O236" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="241" spans="13:13">
-      <c r="M241" t="s">
+    <row r="237" spans="15:15">
+      <c r="O237" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="242" spans="13:13">
-      <c r="M242" t="s">
+    <row r="238" spans="15:15">
+      <c r="O238" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="243" spans="13:13">
-      <c r="M243" t="s">
+    <row r="239" spans="15:15">
+      <c r="O239" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="244" spans="13:13">
-      <c r="M244" t="s">
+    <row r="240" spans="15:15">
+      <c r="O240" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="245" spans="13:13">
-      <c r="M245" t="s">
+    <row r="241" spans="15:15">
+      <c r="O241" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="246" spans="13:13">
-      <c r="M246" t="s">
+    <row r="242" spans="15:15">
+      <c r="O242" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="247" spans="13:13">
-      <c r="M247" t="s">
+    <row r="243" spans="15:15">
+      <c r="O243" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="248" spans="13:13">
-      <c r="M248" t="s">
+    <row r="244" spans="15:15">
+      <c r="O244" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="249" spans="13:13">
-      <c r="M249" t="s">
+    <row r="245" spans="15:15">
+      <c r="O245" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="250" spans="13:13">
-      <c r="M250" t="s">
+    <row r="246" spans="15:15">
+      <c r="O246" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="251" spans="13:13">
-      <c r="M251" t="s">
+    <row r="247" spans="15:15">
+      <c r="O247" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="252" spans="13:13">
-      <c r="M252" t="s">
+    <row r="248" spans="15:15">
+      <c r="O248" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="253" spans="13:13">
-      <c r="M253" t="s">
+    <row r="249" spans="15:15">
+      <c r="O249" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="254" spans="13:13">
-      <c r="M254" t="s">
+    <row r="250" spans="15:15">
+      <c r="O250" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="255" spans="13:13">
-      <c r="M255" t="s">
+    <row r="251" spans="15:15">
+      <c r="O251" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="256" spans="13:13">
-      <c r="M256" t="s">
+    <row r="252" spans="15:15">
+      <c r="O252" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="257" spans="13:13">
-      <c r="M257" t="s">
+    <row r="253" spans="15:15">
+      <c r="O253" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="258" spans="13:13">
-      <c r="M258" t="s">
+    <row r="254" spans="15:15">
+      <c r="O254" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="259" spans="13:13">
-      <c r="M259" t="s">
+    <row r="255" spans="15:15">
+      <c r="O255" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="260" spans="13:13">
-      <c r="M260" t="s">
+    <row r="256" spans="15:15">
+      <c r="O256" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="261" spans="13:13">
-      <c r="M261" t="s">
+    <row r="257" spans="15:15">
+      <c r="O257" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="262" spans="13:13">
-      <c r="M262" t="s">
+    <row r="258" spans="15:15">
+      <c r="O258" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="263" spans="13:13">
-      <c r="M263" t="s">
+    <row r="259" spans="15:15">
+      <c r="O259" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="264" spans="13:13">
-      <c r="M264" t="s">
+    <row r="260" spans="15:15">
+      <c r="O260" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="265" spans="13:13">
-      <c r="M265" t="s">
+    <row r="261" spans="15:15">
+      <c r="O261" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="266" spans="13:13">
-      <c r="M266" t="s">
+    <row r="262" spans="15:15">
+      <c r="O262" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="267" spans="13:13">
-      <c r="M267" t="s">
+    <row r="263" spans="15:15">
+      <c r="O263" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="268" spans="13:13">
-      <c r="M268" t="s">
+    <row r="264" spans="15:15">
+      <c r="O264" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="269" spans="13:13">
-      <c r="M269" t="s">
+    <row r="265" spans="15:15">
+      <c r="O265" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="270" spans="13:13">
-      <c r="M270" t="s">
+    <row r="266" spans="15:15">
+      <c r="O266" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="271" spans="13:13">
-      <c r="M271" t="s">
+    <row r="267" spans="15:15">
+      <c r="O267" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="272" spans="13:13">
-      <c r="M272" t="s">
+    <row r="268" spans="15:15">
+      <c r="O268" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="273" spans="13:13">
-      <c r="M273" t="s">
+    <row r="269" spans="15:15">
+      <c r="O269" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="274" spans="13:13">
-      <c r="M274" t="s">
+    <row r="270" spans="15:15">
+      <c r="O270" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="275" spans="13:13">
-      <c r="M275" t="s">
+    <row r="271" spans="15:15">
+      <c r="O271" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="276" spans="13:13">
-      <c r="M276" t="s">
+    <row r="272" spans="15:15">
+      <c r="O272" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="277" spans="13:13">
-      <c r="M277" t="s">
+    <row r="273" spans="15:15">
+      <c r="O273" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="278" spans="13:13">
-      <c r="M278" t="s">
+    <row r="274" spans="15:15">
+      <c r="O274" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="279" spans="13:13">
-      <c r="M279" t="s">
+    <row r="275" spans="15:15">
+      <c r="O275" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="280" spans="13:13">
-      <c r="M280" t="s">
+    <row r="276" spans="15:15">
+      <c r="O276" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="281" spans="13:13">
-      <c r="M281" t="s">
+    <row r="277" spans="15:15">
+      <c r="O277" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="282" spans="13:13">
-      <c r="M282" t="s">
+    <row r="278" spans="15:15">
+      <c r="O278" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="283" spans="13:13">
-      <c r="M283" t="s">
+    <row r="279" spans="15:15">
+      <c r="O279" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="284" spans="13:13">
-      <c r="M284" t="s">
+    <row r="280" spans="15:15">
+      <c r="O280" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="285" spans="13:13">
-      <c r="M285" t="s">
+    <row r="281" spans="15:15">
+      <c r="O281" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="286" spans="13:13">
-      <c r="M286" t="s">
+    <row r="282" spans="15:15">
+      <c r="O282" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="287" spans="13:13">
-      <c r="M287" t="s">
+    <row r="283" spans="15:15">
+      <c r="O283" t="s">
         <v>567</v>
+      </c>
+    </row>
+    <row r="284" spans="15:15">
+      <c r="O284" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="285" spans="15:15">
+      <c r="O285" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="286" spans="15:15">
+      <c r="O286" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="287" spans="15:15">
+      <c r="O287" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="288" spans="15:15">
+      <c r="O288" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000041/metadata_template_ERC000041.xlsx
+++ b/templates/ERC000041/metadata_template_ERC000041.xlsx
@@ -1080,10 +1080,10 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Czechia</t>
   </si>
   <si>
     <t>Democratic Republic of the Congo</t>

--- a/templates/ERC000041/metadata_template_ERC000041.xlsx
+++ b/templates/ERC000041/metadata_template_ERC000041.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="600">
   <si>
     <t>alias</t>
   </si>
@@ -811,6 +811,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -3358,162 +3361,162 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -3536,1442 +3539,1442 @@
   <sheetData>
     <row r="1" spans="15:15">
       <c r="O1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="15:15">
       <c r="O2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="15:15">
       <c r="O3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="15:15">
       <c r="O4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="15:15">
       <c r="O5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="15:15">
       <c r="O6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="15:15">
       <c r="O7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="15:15">
       <c r="O8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="15:15">
       <c r="O9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="15:15">
       <c r="O10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="15:15">
       <c r="O11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="15:15">
       <c r="O12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="15:15">
       <c r="O13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="15:15">
       <c r="O14" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="15:15">
       <c r="O15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="15:15">
       <c r="O16" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="15:15">
       <c r="O17" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="15:15">
       <c r="O18" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="15:15">
       <c r="O19" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="15:15">
       <c r="O20" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="15:15">
       <c r="O21" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="15:15">
       <c r="O22" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="15:15">
       <c r="O23" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="15:15">
       <c r="O24" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="15:15">
       <c r="O25" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="15:15">
       <c r="O26" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="15:15">
       <c r="O27" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="15:15">
       <c r="O28" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="15:15">
       <c r="O29" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="15:15">
       <c r="O30" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="15:15">
       <c r="O31" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="15:15">
       <c r="O32" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="15:15">
       <c r="O33" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="15:15">
       <c r="O34" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="15:15">
       <c r="O35" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="15:15">
       <c r="O36" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="15:15">
       <c r="O37" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" spans="15:15">
       <c r="O38" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39" spans="15:15">
       <c r="O39" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" spans="15:15">
       <c r="O40" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" spans="15:15">
       <c r="O41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="15:15">
       <c r="O42" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="15:15">
       <c r="O43" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44" spans="15:15">
       <c r="O44" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" spans="15:15">
       <c r="O45" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="15:15">
       <c r="O46" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="15:15">
       <c r="O47" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="15:15">
       <c r="O48" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49" spans="15:15">
       <c r="O49" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="50" spans="15:15">
       <c r="O50" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" spans="15:15">
       <c r="O51" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="52" spans="15:15">
       <c r="O52" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="53" spans="15:15">
       <c r="O53" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="54" spans="15:15">
       <c r="O54" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="55" spans="15:15">
       <c r="O55" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="56" spans="15:15">
       <c r="O56" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="57" spans="15:15">
       <c r="O57" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="58" spans="15:15">
       <c r="O58" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="59" spans="15:15">
       <c r="O59" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60" spans="15:15">
       <c r="O60" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="61" spans="15:15">
       <c r="O61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="62" spans="15:15">
       <c r="O62" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="63" spans="15:15">
       <c r="O63" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="64" spans="15:15">
       <c r="O64" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="65" spans="15:15">
       <c r="O65" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="66" spans="15:15">
       <c r="O66" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="67" spans="15:15">
       <c r="O67" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="68" spans="15:15">
       <c r="O68" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="69" spans="15:15">
       <c r="O69" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="70" spans="15:15">
       <c r="O70" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="71" spans="15:15">
       <c r="O71" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="72" spans="15:15">
       <c r="O72" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="73" spans="15:15">
       <c r="O73" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="74" spans="15:15">
       <c r="O74" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="75" spans="15:15">
       <c r="O75" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="76" spans="15:15">
       <c r="O76" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="77" spans="15:15">
       <c r="O77" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="78" spans="15:15">
       <c r="O78" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="79" spans="15:15">
       <c r="O79" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="80" spans="15:15">
       <c r="O80" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="81" spans="15:15">
       <c r="O81" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="82" spans="15:15">
       <c r="O82" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="83" spans="15:15">
       <c r="O83" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="84" spans="15:15">
       <c r="O84" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="85" spans="15:15">
       <c r="O85" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="86" spans="15:15">
       <c r="O86" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="87" spans="15:15">
       <c r="O87" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="88" spans="15:15">
       <c r="O88" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="89" spans="15:15">
       <c r="O89" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="90" spans="15:15">
       <c r="O90" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="91" spans="15:15">
       <c r="O91" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="92" spans="15:15">
       <c r="O92" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="93" spans="15:15">
       <c r="O93" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="94" spans="15:15">
       <c r="O94" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="95" spans="15:15">
       <c r="O95" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="96" spans="15:15">
       <c r="O96" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="97" spans="15:15">
       <c r="O97" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="98" spans="15:15">
       <c r="O98" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="99" spans="15:15">
       <c r="O99" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="100" spans="15:15">
       <c r="O100" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="101" spans="15:15">
       <c r="O101" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="102" spans="15:15">
       <c r="O102" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="103" spans="15:15">
       <c r="O103" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="104" spans="15:15">
       <c r="O104" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="105" spans="15:15">
       <c r="O105" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="106" spans="15:15">
       <c r="O106" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="107" spans="15:15">
       <c r="O107" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="108" spans="15:15">
       <c r="O108" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="109" spans="15:15">
       <c r="O109" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="110" spans="15:15">
       <c r="O110" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="111" spans="15:15">
       <c r="O111" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="112" spans="15:15">
       <c r="O112" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="113" spans="15:15">
       <c r="O113" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="114" spans="15:15">
       <c r="O114" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="115" spans="15:15">
       <c r="O115" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="116" spans="15:15">
       <c r="O116" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="117" spans="15:15">
       <c r="O117" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="118" spans="15:15">
       <c r="O118" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="119" spans="15:15">
       <c r="O119" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="120" spans="15:15">
       <c r="O120" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="121" spans="15:15">
       <c r="O121" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="122" spans="15:15">
       <c r="O122" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="123" spans="15:15">
       <c r="O123" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="124" spans="15:15">
       <c r="O124" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="125" spans="15:15">
       <c r="O125" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="126" spans="15:15">
       <c r="O126" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="127" spans="15:15">
       <c r="O127" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="128" spans="15:15">
       <c r="O128" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="129" spans="15:15">
       <c r="O129" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="130" spans="15:15">
       <c r="O130" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="131" spans="15:15">
       <c r="O131" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="132" spans="15:15">
       <c r="O132" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="133" spans="15:15">
       <c r="O133" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="134" spans="15:15">
       <c r="O134" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="135" spans="15:15">
       <c r="O135" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="136" spans="15:15">
       <c r="O136" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="137" spans="15:15">
       <c r="O137" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="138" spans="15:15">
       <c r="O138" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="139" spans="15:15">
       <c r="O139" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="140" spans="15:15">
       <c r="O140" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="141" spans="15:15">
       <c r="O141" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="142" spans="15:15">
       <c r="O142" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="143" spans="15:15">
       <c r="O143" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="144" spans="15:15">
       <c r="O144" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="145" spans="15:15">
       <c r="O145" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="146" spans="15:15">
       <c r="O146" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="147" spans="15:15">
       <c r="O147" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="148" spans="15:15">
       <c r="O148" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="149" spans="15:15">
       <c r="O149" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="150" spans="15:15">
       <c r="O150" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="151" spans="15:15">
       <c r="O151" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="152" spans="15:15">
       <c r="O152" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="153" spans="15:15">
       <c r="O153" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="154" spans="15:15">
       <c r="O154" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="155" spans="15:15">
       <c r="O155" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="156" spans="15:15">
       <c r="O156" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="157" spans="15:15">
       <c r="O157" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="158" spans="15:15">
       <c r="O158" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="159" spans="15:15">
       <c r="O159" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="160" spans="15:15">
       <c r="O160" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="161" spans="15:15">
       <c r="O161" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="162" spans="15:15">
       <c r="O162" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="163" spans="15:15">
       <c r="O163" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="164" spans="15:15">
       <c r="O164" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="165" spans="15:15">
       <c r="O165" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="166" spans="15:15">
       <c r="O166" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="167" spans="15:15">
       <c r="O167" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="168" spans="15:15">
       <c r="O168" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="169" spans="15:15">
       <c r="O169" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="170" spans="15:15">
       <c r="O170" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="171" spans="15:15">
       <c r="O171" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="172" spans="15:15">
       <c r="O172" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="173" spans="15:15">
       <c r="O173" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="174" spans="15:15">
       <c r="O174" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="175" spans="15:15">
       <c r="O175" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="176" spans="15:15">
       <c r="O176" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="177" spans="15:15">
       <c r="O177" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="178" spans="15:15">
       <c r="O178" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="179" spans="15:15">
       <c r="O179" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="180" spans="15:15">
       <c r="O180" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="181" spans="15:15">
       <c r="O181" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="182" spans="15:15">
       <c r="O182" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="183" spans="15:15">
       <c r="O183" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="184" spans="15:15">
       <c r="O184" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="185" spans="15:15">
       <c r="O185" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="186" spans="15:15">
       <c r="O186" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="187" spans="15:15">
       <c r="O187" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="188" spans="15:15">
       <c r="O188" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="189" spans="15:15">
       <c r="O189" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="190" spans="15:15">
       <c r="O190" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="191" spans="15:15">
       <c r="O191" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="192" spans="15:15">
       <c r="O192" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="193" spans="15:15">
       <c r="O193" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="194" spans="15:15">
       <c r="O194" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="195" spans="15:15">
       <c r="O195" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="196" spans="15:15">
       <c r="O196" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="197" spans="15:15">
       <c r="O197" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="198" spans="15:15">
       <c r="O198" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="199" spans="15:15">
       <c r="O199" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="200" spans="15:15">
       <c r="O200" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="201" spans="15:15">
       <c r="O201" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="202" spans="15:15">
       <c r="O202" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="203" spans="15:15">
       <c r="O203" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="204" spans="15:15">
       <c r="O204" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="205" spans="15:15">
       <c r="O205" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="206" spans="15:15">
       <c r="O206" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="207" spans="15:15">
       <c r="O207" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="208" spans="15:15">
       <c r="O208" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="209" spans="15:15">
       <c r="O209" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="210" spans="15:15">
       <c r="O210" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="211" spans="15:15">
       <c r="O211" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="212" spans="15:15">
       <c r="O212" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="213" spans="15:15">
       <c r="O213" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="214" spans="15:15">
       <c r="O214" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="215" spans="15:15">
       <c r="O215" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="216" spans="15:15">
       <c r="O216" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="217" spans="15:15">
       <c r="O217" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="218" spans="15:15">
       <c r="O218" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="219" spans="15:15">
       <c r="O219" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="220" spans="15:15">
       <c r="O220" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="221" spans="15:15">
       <c r="O221" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="222" spans="15:15">
       <c r="O222" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="223" spans="15:15">
       <c r="O223" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="224" spans="15:15">
       <c r="O224" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="225" spans="15:15">
       <c r="O225" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="226" spans="15:15">
       <c r="O226" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="227" spans="15:15">
       <c r="O227" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="228" spans="15:15">
       <c r="O228" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="229" spans="15:15">
       <c r="O229" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="230" spans="15:15">
       <c r="O230" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="231" spans="15:15">
       <c r="O231" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="232" spans="15:15">
       <c r="O232" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="233" spans="15:15">
       <c r="O233" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="234" spans="15:15">
       <c r="O234" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="235" spans="15:15">
       <c r="O235" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="236" spans="15:15">
       <c r="O236" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="237" spans="15:15">
       <c r="O237" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="238" spans="15:15">
       <c r="O238" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="239" spans="15:15">
       <c r="O239" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="240" spans="15:15">
       <c r="O240" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="241" spans="15:15">
       <c r="O241" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="242" spans="15:15">
       <c r="O242" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="243" spans="15:15">
       <c r="O243" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="244" spans="15:15">
       <c r="O244" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="245" spans="15:15">
       <c r="O245" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="246" spans="15:15">
       <c r="O246" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="247" spans="15:15">
       <c r="O247" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="248" spans="15:15">
       <c r="O248" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="249" spans="15:15">
       <c r="O249" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="250" spans="15:15">
       <c r="O250" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="251" spans="15:15">
       <c r="O251" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="252" spans="15:15">
       <c r="O252" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="253" spans="15:15">
       <c r="O253" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="254" spans="15:15">
       <c r="O254" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="255" spans="15:15">
       <c r="O255" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="256" spans="15:15">
       <c r="O256" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="257" spans="15:15">
       <c r="O257" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="258" spans="15:15">
       <c r="O258" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="259" spans="15:15">
       <c r="O259" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="260" spans="15:15">
       <c r="O260" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="261" spans="15:15">
       <c r="O261" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="262" spans="15:15">
       <c r="O262" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="263" spans="15:15">
       <c r="O263" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="264" spans="15:15">
       <c r="O264" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="265" spans="15:15">
       <c r="O265" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="266" spans="15:15">
       <c r="O266" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="267" spans="15:15">
       <c r="O267" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="268" spans="15:15">
       <c r="O268" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="269" spans="15:15">
       <c r="O269" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="270" spans="15:15">
       <c r="O270" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="271" spans="15:15">
       <c r="O271" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="272" spans="15:15">
       <c r="O272" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="273" spans="15:15">
       <c r="O273" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="274" spans="15:15">
       <c r="O274" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="275" spans="15:15">
       <c r="O275" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="276" spans="15:15">
       <c r="O276" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="277" spans="15:15">
       <c r="O277" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="278" spans="15:15">
       <c r="O278" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="279" spans="15:15">
       <c r="O279" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="280" spans="15:15">
       <c r="O280" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="281" spans="15:15">
       <c r="O281" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="282" spans="15:15">
       <c r="O282" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="283" spans="15:15">
       <c r="O283" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="284" spans="15:15">
       <c r="O284" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="285" spans="15:15">
       <c r="O285" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="286" spans="15:15">
       <c r="O286" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="287" spans="15:15">
       <c r="O287" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="288" spans="15:15">
       <c r="O288" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000041/metadata_template_ERC000041.xlsx
+++ b/templates/ERC000041/metadata_template_ERC000041.xlsx
@@ -111,7 +111,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -129,7 +129,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000041/metadata_template_ERC000041.xlsx
+++ b/templates/ERC000041/metadata_template_ERC000041.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$O$1:$O$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$S$1:$S$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="601">
   <si>
     <t>alias</t>
   </si>
@@ -891,6 +891,30 @@
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Recommended) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>sampling time point</t>
+  </si>
+  <si>
+    <t>(Optional) Time point at which a sample or observation is made or taken from a biomaterial as measured from some reference point. indicate the timepoint written in iso 8601 format.</t>
+  </si>
+  <si>
+    <t>sample storage duration</t>
+  </si>
+  <si>
+    <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -1719,6 +1743,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -1759,30 +1786,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Recommended) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>sampling time point</t>
-  </si>
-  <si>
-    <t>(Optional) Time point at which a sample or observation is made or taken from a biomaterial as measured from some reference point. indicate the timepoint written in iso 8601 format.</t>
-  </si>
-  <si>
-    <t>sample storage duration</t>
-  </si>
-  <si>
-    <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
   </si>
   <si>
     <t>receipt date</t>
@@ -3397,43 +3400,43 @@
         <v>284</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>574</v>
+        <v>286</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>576</v>
+        <v>288</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>578</v>
+        <v>290</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>580</v>
+        <v>292</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="150" customHeight="1">
@@ -3480,48 +3483,48 @@
         <v>285</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>575</v>
+        <v>287</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>577</v>
+        <v>289</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>579</v>
+        <v>291</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>581</v>
+        <v>293</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
   </dataValidations>
@@ -3531,1450 +3534,1455 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="O1:O288"/>
+  <dimension ref="S1:S289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="15:15">
-      <c r="O1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="15:15">
-      <c r="O2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="15:15">
-      <c r="O3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="4" spans="15:15">
-      <c r="O4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="15:15">
-      <c r="O5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6" spans="15:15">
-      <c r="O6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="7" spans="15:15">
-      <c r="O7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="8" spans="15:15">
-      <c r="O8" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="9" spans="15:15">
-      <c r="O9" t="s">
+    <row r="1" spans="19:19">
+      <c r="S1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="10" spans="15:15">
-      <c r="O10" t="s">
+    <row r="2" spans="19:19">
+      <c r="S2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="15:15">
-      <c r="O11" t="s">
+    <row r="3" spans="19:19">
+      <c r="S3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="15:15">
-      <c r="O12" t="s">
+    <row r="4" spans="19:19">
+      <c r="S4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="13" spans="15:15">
-      <c r="O13" t="s">
+    <row r="5" spans="19:19">
+      <c r="S5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="14" spans="15:15">
-      <c r="O14" t="s">
+    <row r="6" spans="19:19">
+      <c r="S6" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="15" spans="15:15">
-      <c r="O15" t="s">
+    <row r="7" spans="19:19">
+      <c r="S7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="15:15">
-      <c r="O16" t="s">
+    <row r="8" spans="19:19">
+      <c r="S8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="17" spans="15:15">
-      <c r="O17" t="s">
+    <row r="9" spans="19:19">
+      <c r="S9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="18" spans="15:15">
-      <c r="O18" t="s">
+    <row r="10" spans="19:19">
+      <c r="S10" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="19" spans="15:15">
-      <c r="O19" t="s">
+    <row r="11" spans="19:19">
+      <c r="S11" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="20" spans="15:15">
-      <c r="O20" t="s">
+    <row r="12" spans="19:19">
+      <c r="S12" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="15:15">
-      <c r="O21" t="s">
+    <row r="13" spans="19:19">
+      <c r="S13" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="15:15">
-      <c r="O22" t="s">
+    <row r="14" spans="19:19">
+      <c r="S14" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="23" spans="15:15">
-      <c r="O23" t="s">
+    <row r="15" spans="19:19">
+      <c r="S15" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="24" spans="15:15">
-      <c r="O24" t="s">
+    <row r="16" spans="19:19">
+      <c r="S16" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="25" spans="15:15">
-      <c r="O25" t="s">
+    <row r="17" spans="19:19">
+      <c r="S17" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="15:15">
-      <c r="O26" t="s">
+    <row r="18" spans="19:19">
+      <c r="S18" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="27" spans="15:15">
-      <c r="O27" t="s">
+    <row r="19" spans="19:19">
+      <c r="S19" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="28" spans="15:15">
-      <c r="O28" t="s">
+    <row r="20" spans="19:19">
+      <c r="S20" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="29" spans="15:15">
-      <c r="O29" t="s">
+    <row r="21" spans="19:19">
+      <c r="S21" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="30" spans="15:15">
-      <c r="O30" t="s">
+    <row r="22" spans="19:19">
+      <c r="S22" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="31" spans="15:15">
-      <c r="O31" t="s">
+    <row r="23" spans="19:19">
+      <c r="S23" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="32" spans="15:15">
-      <c r="O32" t="s">
+    <row r="24" spans="19:19">
+      <c r="S24" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="33" spans="15:15">
-      <c r="O33" t="s">
+    <row r="25" spans="19:19">
+      <c r="S25" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="34" spans="15:15">
-      <c r="O34" t="s">
+    <row r="26" spans="19:19">
+      <c r="S26" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="35" spans="15:15">
-      <c r="O35" t="s">
+    <row r="27" spans="19:19">
+      <c r="S27" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="36" spans="15:15">
-      <c r="O36" t="s">
+    <row r="28" spans="19:19">
+      <c r="S28" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="37" spans="15:15">
-      <c r="O37" t="s">
+    <row r="29" spans="19:19">
+      <c r="S29" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="38" spans="15:15">
-      <c r="O38" t="s">
+    <row r="30" spans="19:19">
+      <c r="S30" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="39" spans="15:15">
-      <c r="O39" t="s">
+    <row r="31" spans="19:19">
+      <c r="S31" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="40" spans="15:15">
-      <c r="O40" t="s">
+    <row r="32" spans="19:19">
+      <c r="S32" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="41" spans="15:15">
-      <c r="O41" t="s">
+    <row r="33" spans="19:19">
+      <c r="S33" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="42" spans="15:15">
-      <c r="O42" t="s">
+    <row r="34" spans="19:19">
+      <c r="S34" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="43" spans="15:15">
-      <c r="O43" t="s">
+    <row r="35" spans="19:19">
+      <c r="S35" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="44" spans="15:15">
-      <c r="O44" t="s">
+    <row r="36" spans="19:19">
+      <c r="S36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="45" spans="15:15">
-      <c r="O45" t="s">
+    <row r="37" spans="19:19">
+      <c r="S37" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="46" spans="15:15">
-      <c r="O46" t="s">
+    <row r="38" spans="19:19">
+      <c r="S38" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="47" spans="15:15">
-      <c r="O47" t="s">
+    <row r="39" spans="19:19">
+      <c r="S39" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="48" spans="15:15">
-      <c r="O48" t="s">
+    <row r="40" spans="19:19">
+      <c r="S40" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="49" spans="15:15">
-      <c r="O49" t="s">
+    <row r="41" spans="19:19">
+      <c r="S41" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="50" spans="15:15">
-      <c r="O50" t="s">
+    <row r="42" spans="19:19">
+      <c r="S42" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="51" spans="15:15">
-      <c r="O51" t="s">
+    <row r="43" spans="19:19">
+      <c r="S43" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="52" spans="15:15">
-      <c r="O52" t="s">
+    <row r="44" spans="19:19">
+      <c r="S44" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="53" spans="15:15">
-      <c r="O53" t="s">
+    <row r="45" spans="19:19">
+      <c r="S45" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="54" spans="15:15">
-      <c r="O54" t="s">
+    <row r="46" spans="19:19">
+      <c r="S46" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="55" spans="15:15">
-      <c r="O55" t="s">
+    <row r="47" spans="19:19">
+      <c r="S47" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="56" spans="15:15">
-      <c r="O56" t="s">
+    <row r="48" spans="19:19">
+      <c r="S48" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="57" spans="15:15">
-      <c r="O57" t="s">
+    <row r="49" spans="19:19">
+      <c r="S49" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="58" spans="15:15">
-      <c r="O58" t="s">
+    <row r="50" spans="19:19">
+      <c r="S50" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="59" spans="15:15">
-      <c r="O59" t="s">
+    <row r="51" spans="19:19">
+      <c r="S51" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="60" spans="15:15">
-      <c r="O60" t="s">
+    <row r="52" spans="19:19">
+      <c r="S52" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="61" spans="15:15">
-      <c r="O61" t="s">
+    <row r="53" spans="19:19">
+      <c r="S53" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="62" spans="15:15">
-      <c r="O62" t="s">
+    <row r="54" spans="19:19">
+      <c r="S54" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="63" spans="15:15">
-      <c r="O63" t="s">
+    <row r="55" spans="19:19">
+      <c r="S55" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="64" spans="15:15">
-      <c r="O64" t="s">
+    <row r="56" spans="19:19">
+      <c r="S56" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="65" spans="15:15">
-      <c r="O65" t="s">
+    <row r="57" spans="19:19">
+      <c r="S57" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="66" spans="15:15">
-      <c r="O66" t="s">
+    <row r="58" spans="19:19">
+      <c r="S58" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="67" spans="15:15">
-      <c r="O67" t="s">
+    <row r="59" spans="19:19">
+      <c r="S59" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="68" spans="15:15">
-      <c r="O68" t="s">
+    <row r="60" spans="19:19">
+      <c r="S60" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="69" spans="15:15">
-      <c r="O69" t="s">
+    <row r="61" spans="19:19">
+      <c r="S61" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="70" spans="15:15">
-      <c r="O70" t="s">
+    <row r="62" spans="19:19">
+      <c r="S62" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="71" spans="15:15">
-      <c r="O71" t="s">
+    <row r="63" spans="19:19">
+      <c r="S63" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="72" spans="15:15">
-      <c r="O72" t="s">
+    <row r="64" spans="19:19">
+      <c r="S64" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="73" spans="15:15">
-      <c r="O73" t="s">
+    <row r="65" spans="19:19">
+      <c r="S65" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="74" spans="15:15">
-      <c r="O74" t="s">
+    <row r="66" spans="19:19">
+      <c r="S66" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="75" spans="15:15">
-      <c r="O75" t="s">
+    <row r="67" spans="19:19">
+      <c r="S67" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="76" spans="15:15">
-      <c r="O76" t="s">
+    <row r="68" spans="19:19">
+      <c r="S68" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="77" spans="15:15">
-      <c r="O77" t="s">
+    <row r="69" spans="19:19">
+      <c r="S69" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="78" spans="15:15">
-      <c r="O78" t="s">
+    <row r="70" spans="19:19">
+      <c r="S70" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="79" spans="15:15">
-      <c r="O79" t="s">
+    <row r="71" spans="19:19">
+      <c r="S71" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="80" spans="15:15">
-      <c r="O80" t="s">
+    <row r="72" spans="19:19">
+      <c r="S72" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="81" spans="15:15">
-      <c r="O81" t="s">
+    <row r="73" spans="19:19">
+      <c r="S73" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="82" spans="15:15">
-      <c r="O82" t="s">
+    <row r="74" spans="19:19">
+      <c r="S74" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="83" spans="15:15">
-      <c r="O83" t="s">
+    <row r="75" spans="19:19">
+      <c r="S75" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="84" spans="15:15">
-      <c r="O84" t="s">
+    <row r="76" spans="19:19">
+      <c r="S76" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="85" spans="15:15">
-      <c r="O85" t="s">
+    <row r="77" spans="19:19">
+      <c r="S77" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="86" spans="15:15">
-      <c r="O86" t="s">
+    <row r="78" spans="19:19">
+      <c r="S78" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="87" spans="15:15">
-      <c r="O87" t="s">
+    <row r="79" spans="19:19">
+      <c r="S79" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="88" spans="15:15">
-      <c r="O88" t="s">
+    <row r="80" spans="19:19">
+      <c r="S80" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="89" spans="15:15">
-      <c r="O89" t="s">
+    <row r="81" spans="19:19">
+      <c r="S81" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="90" spans="15:15">
-      <c r="O90" t="s">
+    <row r="82" spans="19:19">
+      <c r="S82" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="91" spans="15:15">
-      <c r="O91" t="s">
+    <row r="83" spans="19:19">
+      <c r="S83" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="92" spans="15:15">
-      <c r="O92" t="s">
+    <row r="84" spans="19:19">
+      <c r="S84" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="93" spans="15:15">
-      <c r="O93" t="s">
+    <row r="85" spans="19:19">
+      <c r="S85" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="94" spans="15:15">
-      <c r="O94" t="s">
+    <row r="86" spans="19:19">
+      <c r="S86" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="95" spans="15:15">
-      <c r="O95" t="s">
+    <row r="87" spans="19:19">
+      <c r="S87" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="96" spans="15:15">
-      <c r="O96" t="s">
+    <row r="88" spans="19:19">
+      <c r="S88" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="97" spans="15:15">
-      <c r="O97" t="s">
+    <row r="89" spans="19:19">
+      <c r="S89" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="98" spans="15:15">
-      <c r="O98" t="s">
+    <row r="90" spans="19:19">
+      <c r="S90" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="99" spans="15:15">
-      <c r="O99" t="s">
+    <row r="91" spans="19:19">
+      <c r="S91" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="100" spans="15:15">
-      <c r="O100" t="s">
+    <row r="92" spans="19:19">
+      <c r="S92" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="101" spans="15:15">
-      <c r="O101" t="s">
+    <row r="93" spans="19:19">
+      <c r="S93" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="102" spans="15:15">
-      <c r="O102" t="s">
+    <row r="94" spans="19:19">
+      <c r="S94" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="103" spans="15:15">
-      <c r="O103" t="s">
+    <row r="95" spans="19:19">
+      <c r="S95" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="104" spans="15:15">
-      <c r="O104" t="s">
+    <row r="96" spans="19:19">
+      <c r="S96" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="105" spans="15:15">
-      <c r="O105" t="s">
+    <row r="97" spans="19:19">
+      <c r="S97" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="106" spans="15:15">
-      <c r="O106" t="s">
+    <row r="98" spans="19:19">
+      <c r="S98" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="107" spans="15:15">
-      <c r="O107" t="s">
+    <row r="99" spans="19:19">
+      <c r="S99" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="108" spans="15:15">
-      <c r="O108" t="s">
+    <row r="100" spans="19:19">
+      <c r="S100" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="109" spans="15:15">
-      <c r="O109" t="s">
+    <row r="101" spans="19:19">
+      <c r="S101" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="110" spans="15:15">
-      <c r="O110" t="s">
+    <row r="102" spans="19:19">
+      <c r="S102" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="111" spans="15:15">
-      <c r="O111" t="s">
+    <row r="103" spans="19:19">
+      <c r="S103" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="112" spans="15:15">
-      <c r="O112" t="s">
+    <row r="104" spans="19:19">
+      <c r="S104" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="113" spans="15:15">
-      <c r="O113" t="s">
+    <row r="105" spans="19:19">
+      <c r="S105" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="114" spans="15:15">
-      <c r="O114" t="s">
+    <row r="106" spans="19:19">
+      <c r="S106" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="115" spans="15:15">
-      <c r="O115" t="s">
+    <row r="107" spans="19:19">
+      <c r="S107" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="116" spans="15:15">
-      <c r="O116" t="s">
+    <row r="108" spans="19:19">
+      <c r="S108" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="117" spans="15:15">
-      <c r="O117" t="s">
+    <row r="109" spans="19:19">
+      <c r="S109" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="118" spans="15:15">
-      <c r="O118" t="s">
+    <row r="110" spans="19:19">
+      <c r="S110" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="119" spans="15:15">
-      <c r="O119" t="s">
+    <row r="111" spans="19:19">
+      <c r="S111" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="120" spans="15:15">
-      <c r="O120" t="s">
+    <row r="112" spans="19:19">
+      <c r="S112" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="121" spans="15:15">
-      <c r="O121" t="s">
+    <row r="113" spans="19:19">
+      <c r="S113" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="122" spans="15:15">
-      <c r="O122" t="s">
+    <row r="114" spans="19:19">
+      <c r="S114" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="123" spans="15:15">
-      <c r="O123" t="s">
+    <row r="115" spans="19:19">
+      <c r="S115" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="124" spans="15:15">
-      <c r="O124" t="s">
+    <row r="116" spans="19:19">
+      <c r="S116" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="125" spans="15:15">
-      <c r="O125" t="s">
+    <row r="117" spans="19:19">
+      <c r="S117" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="126" spans="15:15">
-      <c r="O126" t="s">
+    <row r="118" spans="19:19">
+      <c r="S118" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="127" spans="15:15">
-      <c r="O127" t="s">
+    <row r="119" spans="19:19">
+      <c r="S119" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="128" spans="15:15">
-      <c r="O128" t="s">
+    <row r="120" spans="19:19">
+      <c r="S120" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="129" spans="15:15">
-      <c r="O129" t="s">
+    <row r="121" spans="19:19">
+      <c r="S121" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="130" spans="15:15">
-      <c r="O130" t="s">
+    <row r="122" spans="19:19">
+      <c r="S122" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="131" spans="15:15">
-      <c r="O131" t="s">
+    <row r="123" spans="19:19">
+      <c r="S123" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="132" spans="15:15">
-      <c r="O132" t="s">
+    <row r="124" spans="19:19">
+      <c r="S124" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="133" spans="15:15">
-      <c r="O133" t="s">
+    <row r="125" spans="19:19">
+      <c r="S125" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="134" spans="15:15">
-      <c r="O134" t="s">
+    <row r="126" spans="19:19">
+      <c r="S126" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="135" spans="15:15">
-      <c r="O135" t="s">
+    <row r="127" spans="19:19">
+      <c r="S127" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="136" spans="15:15">
-      <c r="O136" t="s">
+    <row r="128" spans="19:19">
+      <c r="S128" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="137" spans="15:15">
-      <c r="O137" t="s">
+    <row r="129" spans="19:19">
+      <c r="S129" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="138" spans="15:15">
-      <c r="O138" t="s">
+    <row r="130" spans="19:19">
+      <c r="S130" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="139" spans="15:15">
-      <c r="O139" t="s">
+    <row r="131" spans="19:19">
+      <c r="S131" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="140" spans="15:15">
-      <c r="O140" t="s">
+    <row r="132" spans="19:19">
+      <c r="S132" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="141" spans="15:15">
-      <c r="O141" t="s">
+    <row r="133" spans="19:19">
+      <c r="S133" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="142" spans="15:15">
-      <c r="O142" t="s">
+    <row r="134" spans="19:19">
+      <c r="S134" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="143" spans="15:15">
-      <c r="O143" t="s">
+    <row r="135" spans="19:19">
+      <c r="S135" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="144" spans="15:15">
-      <c r="O144" t="s">
+    <row r="136" spans="19:19">
+      <c r="S136" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="145" spans="15:15">
-      <c r="O145" t="s">
+    <row r="137" spans="19:19">
+      <c r="S137" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="146" spans="15:15">
-      <c r="O146" t="s">
+    <row r="138" spans="19:19">
+      <c r="S138" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="147" spans="15:15">
-      <c r="O147" t="s">
+    <row r="139" spans="19:19">
+      <c r="S139" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="148" spans="15:15">
-      <c r="O148" t="s">
+    <row r="140" spans="19:19">
+      <c r="S140" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="149" spans="15:15">
-      <c r="O149" t="s">
+    <row r="141" spans="19:19">
+      <c r="S141" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="150" spans="15:15">
-      <c r="O150" t="s">
+    <row r="142" spans="19:19">
+      <c r="S142" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="151" spans="15:15">
-      <c r="O151" t="s">
+    <row r="143" spans="19:19">
+      <c r="S143" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="152" spans="15:15">
-      <c r="O152" t="s">
+    <row r="144" spans="19:19">
+      <c r="S144" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="153" spans="15:15">
-      <c r="O153" t="s">
+    <row r="145" spans="19:19">
+      <c r="S145" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="154" spans="15:15">
-      <c r="O154" t="s">
+    <row r="146" spans="19:19">
+      <c r="S146" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="155" spans="15:15">
-      <c r="O155" t="s">
+    <row r="147" spans="19:19">
+      <c r="S147" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="156" spans="15:15">
-      <c r="O156" t="s">
+    <row r="148" spans="19:19">
+      <c r="S148" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="157" spans="15:15">
-      <c r="O157" t="s">
+    <row r="149" spans="19:19">
+      <c r="S149" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="158" spans="15:15">
-      <c r="O158" t="s">
+    <row r="150" spans="19:19">
+      <c r="S150" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="159" spans="15:15">
-      <c r="O159" t="s">
+    <row r="151" spans="19:19">
+      <c r="S151" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="160" spans="15:15">
-      <c r="O160" t="s">
+    <row r="152" spans="19:19">
+      <c r="S152" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="161" spans="15:15">
-      <c r="O161" t="s">
+    <row r="153" spans="19:19">
+      <c r="S153" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="162" spans="15:15">
-      <c r="O162" t="s">
+    <row r="154" spans="19:19">
+      <c r="S154" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="163" spans="15:15">
-      <c r="O163" t="s">
+    <row r="155" spans="19:19">
+      <c r="S155" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="164" spans="15:15">
-      <c r="O164" t="s">
+    <row r="156" spans="19:19">
+      <c r="S156" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="165" spans="15:15">
-      <c r="O165" t="s">
+    <row r="157" spans="19:19">
+      <c r="S157" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="166" spans="15:15">
-      <c r="O166" t="s">
+    <row r="158" spans="19:19">
+      <c r="S158" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="167" spans="15:15">
-      <c r="O167" t="s">
+    <row r="159" spans="19:19">
+      <c r="S159" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="168" spans="15:15">
-      <c r="O168" t="s">
+    <row r="160" spans="19:19">
+      <c r="S160" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="169" spans="15:15">
-      <c r="O169" t="s">
+    <row r="161" spans="19:19">
+      <c r="S161" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="170" spans="15:15">
-      <c r="O170" t="s">
+    <row r="162" spans="19:19">
+      <c r="S162" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="171" spans="15:15">
-      <c r="O171" t="s">
+    <row r="163" spans="19:19">
+      <c r="S163" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="172" spans="15:15">
-      <c r="O172" t="s">
+    <row r="164" spans="19:19">
+      <c r="S164" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="173" spans="15:15">
-      <c r="O173" t="s">
+    <row r="165" spans="19:19">
+      <c r="S165" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="174" spans="15:15">
-      <c r="O174" t="s">
+    <row r="166" spans="19:19">
+      <c r="S166" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="175" spans="15:15">
-      <c r="O175" t="s">
+    <row r="167" spans="19:19">
+      <c r="S167" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="176" spans="15:15">
-      <c r="O176" t="s">
+    <row r="168" spans="19:19">
+      <c r="S168" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="177" spans="15:15">
-      <c r="O177" t="s">
+    <row r="169" spans="19:19">
+      <c r="S169" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="178" spans="15:15">
-      <c r="O178" t="s">
+    <row r="170" spans="19:19">
+      <c r="S170" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="179" spans="15:15">
-      <c r="O179" t="s">
+    <row r="171" spans="19:19">
+      <c r="S171" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="180" spans="15:15">
-      <c r="O180" t="s">
+    <row r="172" spans="19:19">
+      <c r="S172" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="181" spans="15:15">
-      <c r="O181" t="s">
+    <row r="173" spans="19:19">
+      <c r="S173" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="182" spans="15:15">
-      <c r="O182" t="s">
+    <row r="174" spans="19:19">
+      <c r="S174" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="183" spans="15:15">
-      <c r="O183" t="s">
+    <row r="175" spans="19:19">
+      <c r="S175" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="184" spans="15:15">
-      <c r="O184" t="s">
+    <row r="176" spans="19:19">
+      <c r="S176" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="185" spans="15:15">
-      <c r="O185" t="s">
+    <row r="177" spans="19:19">
+      <c r="S177" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="186" spans="15:15">
-      <c r="O186" t="s">
+    <row r="178" spans="19:19">
+      <c r="S178" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="187" spans="15:15">
-      <c r="O187" t="s">
+    <row r="179" spans="19:19">
+      <c r="S179" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="188" spans="15:15">
-      <c r="O188" t="s">
+    <row r="180" spans="19:19">
+      <c r="S180" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="189" spans="15:15">
-      <c r="O189" t="s">
+    <row r="181" spans="19:19">
+      <c r="S181" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="190" spans="15:15">
-      <c r="O190" t="s">
+    <row r="182" spans="19:19">
+      <c r="S182" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="191" spans="15:15">
-      <c r="O191" t="s">
+    <row r="183" spans="19:19">
+      <c r="S183" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="192" spans="15:15">
-      <c r="O192" t="s">
+    <row r="184" spans="19:19">
+      <c r="S184" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="193" spans="15:15">
-      <c r="O193" t="s">
+    <row r="185" spans="19:19">
+      <c r="S185" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="194" spans="15:15">
-      <c r="O194" t="s">
+    <row r="186" spans="19:19">
+      <c r="S186" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="195" spans="15:15">
-      <c r="O195" t="s">
+    <row r="187" spans="19:19">
+      <c r="S187" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="196" spans="15:15">
-      <c r="O196" t="s">
+    <row r="188" spans="19:19">
+      <c r="S188" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="197" spans="15:15">
-      <c r="O197" t="s">
+    <row r="189" spans="19:19">
+      <c r="S189" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="198" spans="15:15">
-      <c r="O198" t="s">
+    <row r="190" spans="19:19">
+      <c r="S190" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="199" spans="15:15">
-      <c r="O199" t="s">
+    <row r="191" spans="19:19">
+      <c r="S191" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="200" spans="15:15">
-      <c r="O200" t="s">
+    <row r="192" spans="19:19">
+      <c r="S192" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="201" spans="15:15">
-      <c r="O201" t="s">
+    <row r="193" spans="19:19">
+      <c r="S193" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="202" spans="15:15">
-      <c r="O202" t="s">
+    <row r="194" spans="19:19">
+      <c r="S194" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="203" spans="15:15">
-      <c r="O203" t="s">
+    <row r="195" spans="19:19">
+      <c r="S195" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="204" spans="15:15">
-      <c r="O204" t="s">
+    <row r="196" spans="19:19">
+      <c r="S196" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="205" spans="15:15">
-      <c r="O205" t="s">
+    <row r="197" spans="19:19">
+      <c r="S197" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="206" spans="15:15">
-      <c r="O206" t="s">
+    <row r="198" spans="19:19">
+      <c r="S198" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="207" spans="15:15">
-      <c r="O207" t="s">
+    <row r="199" spans="19:19">
+      <c r="S199" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="208" spans="15:15">
-      <c r="O208" t="s">
+    <row r="200" spans="19:19">
+      <c r="S200" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="209" spans="15:15">
-      <c r="O209" t="s">
+    <row r="201" spans="19:19">
+      <c r="S201" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="210" spans="15:15">
-      <c r="O210" t="s">
+    <row r="202" spans="19:19">
+      <c r="S202" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="211" spans="15:15">
-      <c r="O211" t="s">
+    <row r="203" spans="19:19">
+      <c r="S203" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="212" spans="15:15">
-      <c r="O212" t="s">
+    <row r="204" spans="19:19">
+      <c r="S204" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="213" spans="15:15">
-      <c r="O213" t="s">
+    <row r="205" spans="19:19">
+      <c r="S205" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="214" spans="15:15">
-      <c r="O214" t="s">
+    <row r="206" spans="19:19">
+      <c r="S206" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="215" spans="15:15">
-      <c r="O215" t="s">
+    <row r="207" spans="19:19">
+      <c r="S207" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="216" spans="15:15">
-      <c r="O216" t="s">
+    <row r="208" spans="19:19">
+      <c r="S208" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="217" spans="15:15">
-      <c r="O217" t="s">
+    <row r="209" spans="19:19">
+      <c r="S209" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="218" spans="15:15">
-      <c r="O218" t="s">
+    <row r="210" spans="19:19">
+      <c r="S210" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="219" spans="15:15">
-      <c r="O219" t="s">
+    <row r="211" spans="19:19">
+      <c r="S211" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="220" spans="15:15">
-      <c r="O220" t="s">
+    <row r="212" spans="19:19">
+      <c r="S212" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="221" spans="15:15">
-      <c r="O221" t="s">
+    <row r="213" spans="19:19">
+      <c r="S213" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="222" spans="15:15">
-      <c r="O222" t="s">
+    <row r="214" spans="19:19">
+      <c r="S214" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="223" spans="15:15">
-      <c r="O223" t="s">
+    <row r="215" spans="19:19">
+      <c r="S215" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="224" spans="15:15">
-      <c r="O224" t="s">
+    <row r="216" spans="19:19">
+      <c r="S216" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="225" spans="15:15">
-      <c r="O225" t="s">
+    <row r="217" spans="19:19">
+      <c r="S217" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="226" spans="15:15">
-      <c r="O226" t="s">
+    <row r="218" spans="19:19">
+      <c r="S218" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="227" spans="15:15">
-      <c r="O227" t="s">
+    <row r="219" spans="19:19">
+      <c r="S219" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="228" spans="15:15">
-      <c r="O228" t="s">
+    <row r="220" spans="19:19">
+      <c r="S220" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="229" spans="15:15">
-      <c r="O229" t="s">
+    <row r="221" spans="19:19">
+      <c r="S221" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="230" spans="15:15">
-      <c r="O230" t="s">
+    <row r="222" spans="19:19">
+      <c r="S222" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="231" spans="15:15">
-      <c r="O231" t="s">
+    <row r="223" spans="19:19">
+      <c r="S223" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="232" spans="15:15">
-      <c r="O232" t="s">
+    <row r="224" spans="19:19">
+      <c r="S224" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="233" spans="15:15">
-      <c r="O233" t="s">
+    <row r="225" spans="19:19">
+      <c r="S225" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="234" spans="15:15">
-      <c r="O234" t="s">
+    <row r="226" spans="19:19">
+      <c r="S226" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="235" spans="15:15">
-      <c r="O235" t="s">
+    <row r="227" spans="19:19">
+      <c r="S227" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="236" spans="15:15">
-      <c r="O236" t="s">
+    <row r="228" spans="19:19">
+      <c r="S228" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="237" spans="15:15">
-      <c r="O237" t="s">
+    <row r="229" spans="19:19">
+      <c r="S229" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="238" spans="15:15">
-      <c r="O238" t="s">
+    <row r="230" spans="19:19">
+      <c r="S230" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="239" spans="15:15">
-      <c r="O239" t="s">
+    <row r="231" spans="19:19">
+      <c r="S231" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="240" spans="15:15">
-      <c r="O240" t="s">
+    <row r="232" spans="19:19">
+      <c r="S232" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="241" spans="15:15">
-      <c r="O241" t="s">
+    <row r="233" spans="19:19">
+      <c r="S233" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="242" spans="15:15">
-      <c r="O242" t="s">
+    <row r="234" spans="19:19">
+      <c r="S234" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="243" spans="15:15">
-      <c r="O243" t="s">
+    <row r="235" spans="19:19">
+      <c r="S235" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="244" spans="15:15">
-      <c r="O244" t="s">
+    <row r="236" spans="19:19">
+      <c r="S236" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="245" spans="15:15">
-      <c r="O245" t="s">
+    <row r="237" spans="19:19">
+      <c r="S237" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="246" spans="15:15">
-      <c r="O246" t="s">
+    <row r="238" spans="19:19">
+      <c r="S238" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="247" spans="15:15">
-      <c r="O247" t="s">
+    <row r="239" spans="19:19">
+      <c r="S239" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="248" spans="15:15">
-      <c r="O248" t="s">
+    <row r="240" spans="19:19">
+      <c r="S240" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="249" spans="15:15">
-      <c r="O249" t="s">
+    <row r="241" spans="19:19">
+      <c r="S241" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="250" spans="15:15">
-      <c r="O250" t="s">
+    <row r="242" spans="19:19">
+      <c r="S242" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="251" spans="15:15">
-      <c r="O251" t="s">
+    <row r="243" spans="19:19">
+      <c r="S243" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="252" spans="15:15">
-      <c r="O252" t="s">
+    <row r="244" spans="19:19">
+      <c r="S244" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="253" spans="15:15">
-      <c r="O253" t="s">
+    <row r="245" spans="19:19">
+      <c r="S245" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="254" spans="15:15">
-      <c r="O254" t="s">
+    <row r="246" spans="19:19">
+      <c r="S246" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="255" spans="15:15">
-      <c r="O255" t="s">
+    <row r="247" spans="19:19">
+      <c r="S247" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="256" spans="15:15">
-      <c r="O256" t="s">
+    <row r="248" spans="19:19">
+      <c r="S248" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="257" spans="15:15">
-      <c r="O257" t="s">
+    <row r="249" spans="19:19">
+      <c r="S249" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="258" spans="15:15">
-      <c r="O258" t="s">
+    <row r="250" spans="19:19">
+      <c r="S250" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="259" spans="15:15">
-      <c r="O259" t="s">
+    <row r="251" spans="19:19">
+      <c r="S251" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="260" spans="15:15">
-      <c r="O260" t="s">
+    <row r="252" spans="19:19">
+      <c r="S252" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="261" spans="15:15">
-      <c r="O261" t="s">
+    <row r="253" spans="19:19">
+      <c r="S253" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="262" spans="15:15">
-      <c r="O262" t="s">
+    <row r="254" spans="19:19">
+      <c r="S254" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="263" spans="15:15">
-      <c r="O263" t="s">
+    <row r="255" spans="19:19">
+      <c r="S255" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="264" spans="15:15">
-      <c r="O264" t="s">
+    <row r="256" spans="19:19">
+      <c r="S256" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="265" spans="15:15">
-      <c r="O265" t="s">
+    <row r="257" spans="19:19">
+      <c r="S257" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="266" spans="15:15">
-      <c r="O266" t="s">
+    <row r="258" spans="19:19">
+      <c r="S258" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="267" spans="15:15">
-      <c r="O267" t="s">
+    <row r="259" spans="19:19">
+      <c r="S259" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="268" spans="15:15">
-      <c r="O268" t="s">
+    <row r="260" spans="19:19">
+      <c r="S260" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="269" spans="15:15">
-      <c r="O269" t="s">
+    <row r="261" spans="19:19">
+      <c r="S261" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="270" spans="15:15">
-      <c r="O270" t="s">
+    <row r="262" spans="19:19">
+      <c r="S262" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="271" spans="15:15">
-      <c r="O271" t="s">
+    <row r="263" spans="19:19">
+      <c r="S263" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="272" spans="15:15">
-      <c r="O272" t="s">
+    <row r="264" spans="19:19">
+      <c r="S264" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="273" spans="15:15">
-      <c r="O273" t="s">
+    <row r="265" spans="19:19">
+      <c r="S265" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="274" spans="15:15">
-      <c r="O274" t="s">
+    <row r="266" spans="19:19">
+      <c r="S266" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="275" spans="15:15">
-      <c r="O275" t="s">
+    <row r="267" spans="19:19">
+      <c r="S267" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="276" spans="15:15">
-      <c r="O276" t="s">
+    <row r="268" spans="19:19">
+      <c r="S268" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="277" spans="15:15">
-      <c r="O277" t="s">
+    <row r="269" spans="19:19">
+      <c r="S269" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="278" spans="15:15">
-      <c r="O278" t="s">
+    <row r="270" spans="19:19">
+      <c r="S270" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="279" spans="15:15">
-      <c r="O279" t="s">
+    <row r="271" spans="19:19">
+      <c r="S271" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="280" spans="15:15">
-      <c r="O280" t="s">
+    <row r="272" spans="19:19">
+      <c r="S272" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="281" spans="15:15">
-      <c r="O281" t="s">
+    <row r="273" spans="19:19">
+      <c r="S273" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="282" spans="15:15">
-      <c r="O282" t="s">
+    <row r="274" spans="19:19">
+      <c r="S274" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="283" spans="15:15">
-      <c r="O283" t="s">
+    <row r="275" spans="19:19">
+      <c r="S275" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="284" spans="15:15">
-      <c r="O284" t="s">
+    <row r="276" spans="19:19">
+      <c r="S276" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="285" spans="15:15">
-      <c r="O285" t="s">
+    <row r="277" spans="19:19">
+      <c r="S277" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="286" spans="15:15">
-      <c r="O286" t="s">
+    <row r="278" spans="19:19">
+      <c r="S278" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="287" spans="15:15">
-      <c r="O287" t="s">
+    <row r="279" spans="19:19">
+      <c r="S279" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="288" spans="15:15">
-      <c r="O288" t="s">
+    <row r="280" spans="19:19">
+      <c r="S280" t="s">
         <v>573</v>
+      </c>
+    </row>
+    <row r="281" spans="19:19">
+      <c r="S281" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="282" spans="19:19">
+      <c r="S282" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="283" spans="19:19">
+      <c r="S283" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="284" spans="19:19">
+      <c r="S284" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="285" spans="19:19">
+      <c r="S285" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="286" spans="19:19">
+      <c r="S286" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="287" spans="19:19">
+      <c r="S287" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="288" spans="19:19">
+      <c r="S288" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="289" spans="19:19">
+      <c r="S289" t="s">
+        <v>582</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000041/metadata_template_ERC000041.xlsx
+++ b/templates/ERC000041/metadata_template_ERC000041.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$S$1:$S$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="602">
   <si>
     <t>alias</t>
   </si>
@@ -634,6 +634,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -2372,7 +2375,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2416,7 +2419,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2443,7 +2446,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3155,6 +3158,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3179,27 +3187,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3222,122 +3230,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3364,162 +3372,162 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -3542,1447 +3550,1447 @@
   <sheetData>
     <row r="1" spans="19:19">
       <c r="S1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="19:19">
       <c r="S2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="19:19">
       <c r="S3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="19:19">
       <c r="S4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="19:19">
       <c r="S5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="19:19">
       <c r="S6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="19:19">
       <c r="S7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="19:19">
       <c r="S8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="19:19">
       <c r="S9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="19:19">
       <c r="S10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="19:19">
       <c r="S11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="19:19">
       <c r="S12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="19:19">
       <c r="S13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="19:19">
       <c r="S14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="19:19">
       <c r="S15" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="19:19">
       <c r="S16" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="19:19">
       <c r="S17" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="19:19">
       <c r="S18" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="19:19">
       <c r="S19" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="19:19">
       <c r="S20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="19:19">
       <c r="S21" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="19:19">
       <c r="S22" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="19:19">
       <c r="S23" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="19:19">
       <c r="S24" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="19:19">
       <c r="S25" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="19:19">
       <c r="S26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="19:19">
       <c r="S27" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="19:19">
       <c r="S28" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="19:19">
       <c r="S29" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="19:19">
       <c r="S30" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="19:19">
       <c r="S31" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="19:19">
       <c r="S32" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="19:19">
       <c r="S33" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="19:19">
       <c r="S34" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="19:19">
       <c r="S35" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="19:19">
       <c r="S36" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" spans="19:19">
       <c r="S37" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="19:19">
       <c r="S38" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="19:19">
       <c r="S39" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="19:19">
       <c r="S40" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="19:19">
       <c r="S41" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42" spans="19:19">
       <c r="S42" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43" spans="19:19">
       <c r="S43" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44" spans="19:19">
       <c r="S44" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="45" spans="19:19">
       <c r="S45" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="46" spans="19:19">
       <c r="S46" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47" spans="19:19">
       <c r="S47" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="19:19">
       <c r="S48" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49" spans="19:19">
       <c r="S49" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50" spans="19:19">
       <c r="S50" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="19:19">
       <c r="S51" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52" spans="19:19">
       <c r="S52" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53" spans="19:19">
       <c r="S53" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54" spans="19:19">
       <c r="S54" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55" spans="19:19">
       <c r="S55" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="56" spans="19:19">
       <c r="S56" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="19:19">
       <c r="S57" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="58" spans="19:19">
       <c r="S58" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="59" spans="19:19">
       <c r="S59" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="60" spans="19:19">
       <c r="S60" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="61" spans="19:19">
       <c r="S61" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="19:19">
       <c r="S62" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="63" spans="19:19">
       <c r="S63" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="64" spans="19:19">
       <c r="S64" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="65" spans="19:19">
       <c r="S65" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="66" spans="19:19">
       <c r="S66" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="67" spans="19:19">
       <c r="S67" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="68" spans="19:19">
       <c r="S68" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="19:19">
       <c r="S69" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="70" spans="19:19">
       <c r="S70" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="71" spans="19:19">
       <c r="S71" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="72" spans="19:19">
       <c r="S72" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="73" spans="19:19">
       <c r="S73" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="74" spans="19:19">
       <c r="S74" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="75" spans="19:19">
       <c r="S75" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76" spans="19:19">
       <c r="S76" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="77" spans="19:19">
       <c r="S77" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="78" spans="19:19">
       <c r="S78" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="79" spans="19:19">
       <c r="S79" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="80" spans="19:19">
       <c r="S80" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="81" spans="19:19">
       <c r="S81" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="82" spans="19:19">
       <c r="S82" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="83" spans="19:19">
       <c r="S83" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="84" spans="19:19">
       <c r="S84" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="85" spans="19:19">
       <c r="S85" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="86" spans="19:19">
       <c r="S86" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="87" spans="19:19">
       <c r="S87" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="88" spans="19:19">
       <c r="S88" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="89" spans="19:19">
       <c r="S89" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="90" spans="19:19">
       <c r="S90" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="91" spans="19:19">
       <c r="S91" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="92" spans="19:19">
       <c r="S92" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="93" spans="19:19">
       <c r="S93" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="94" spans="19:19">
       <c r="S94" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="95" spans="19:19">
       <c r="S95" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="96" spans="19:19">
       <c r="S96" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="97" spans="19:19">
       <c r="S97" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="98" spans="19:19">
       <c r="S98" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="99" spans="19:19">
       <c r="S99" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="100" spans="19:19">
       <c r="S100" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="101" spans="19:19">
       <c r="S101" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="102" spans="19:19">
       <c r="S102" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="103" spans="19:19">
       <c r="S103" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="104" spans="19:19">
       <c r="S104" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="105" spans="19:19">
       <c r="S105" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="106" spans="19:19">
       <c r="S106" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="107" spans="19:19">
       <c r="S107" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="108" spans="19:19">
       <c r="S108" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="109" spans="19:19">
       <c r="S109" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="110" spans="19:19">
       <c r="S110" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="111" spans="19:19">
       <c r="S111" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="112" spans="19:19">
       <c r="S112" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="113" spans="19:19">
       <c r="S113" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="114" spans="19:19">
       <c r="S114" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="115" spans="19:19">
       <c r="S115" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="116" spans="19:19">
       <c r="S116" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="117" spans="19:19">
       <c r="S117" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="118" spans="19:19">
       <c r="S118" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="119" spans="19:19">
       <c r="S119" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="120" spans="19:19">
       <c r="S120" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="121" spans="19:19">
       <c r="S121" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="122" spans="19:19">
       <c r="S122" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="123" spans="19:19">
       <c r="S123" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="124" spans="19:19">
       <c r="S124" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="125" spans="19:19">
       <c r="S125" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="126" spans="19:19">
       <c r="S126" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="127" spans="19:19">
       <c r="S127" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="128" spans="19:19">
       <c r="S128" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="129" spans="19:19">
       <c r="S129" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="130" spans="19:19">
       <c r="S130" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="131" spans="19:19">
       <c r="S131" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="132" spans="19:19">
       <c r="S132" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="133" spans="19:19">
       <c r="S133" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="134" spans="19:19">
       <c r="S134" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="135" spans="19:19">
       <c r="S135" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="136" spans="19:19">
       <c r="S136" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="137" spans="19:19">
       <c r="S137" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="138" spans="19:19">
       <c r="S138" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="139" spans="19:19">
       <c r="S139" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="140" spans="19:19">
       <c r="S140" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="141" spans="19:19">
       <c r="S141" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="142" spans="19:19">
       <c r="S142" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="143" spans="19:19">
       <c r="S143" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="144" spans="19:19">
       <c r="S144" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="145" spans="19:19">
       <c r="S145" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="146" spans="19:19">
       <c r="S146" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="147" spans="19:19">
       <c r="S147" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="148" spans="19:19">
       <c r="S148" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="149" spans="19:19">
       <c r="S149" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="150" spans="19:19">
       <c r="S150" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="151" spans="19:19">
       <c r="S151" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="152" spans="19:19">
       <c r="S152" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="153" spans="19:19">
       <c r="S153" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="154" spans="19:19">
       <c r="S154" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="155" spans="19:19">
       <c r="S155" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="156" spans="19:19">
       <c r="S156" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="157" spans="19:19">
       <c r="S157" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="158" spans="19:19">
       <c r="S158" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="159" spans="19:19">
       <c r="S159" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="160" spans="19:19">
       <c r="S160" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="161" spans="19:19">
       <c r="S161" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="162" spans="19:19">
       <c r="S162" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="163" spans="19:19">
       <c r="S163" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="164" spans="19:19">
       <c r="S164" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="165" spans="19:19">
       <c r="S165" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="166" spans="19:19">
       <c r="S166" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="167" spans="19:19">
       <c r="S167" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="168" spans="19:19">
       <c r="S168" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="169" spans="19:19">
       <c r="S169" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="170" spans="19:19">
       <c r="S170" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="171" spans="19:19">
       <c r="S171" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="172" spans="19:19">
       <c r="S172" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="173" spans="19:19">
       <c r="S173" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="174" spans="19:19">
       <c r="S174" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="175" spans="19:19">
       <c r="S175" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="176" spans="19:19">
       <c r="S176" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="177" spans="19:19">
       <c r="S177" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="178" spans="19:19">
       <c r="S178" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="179" spans="19:19">
       <c r="S179" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="180" spans="19:19">
       <c r="S180" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="181" spans="19:19">
       <c r="S181" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="182" spans="19:19">
       <c r="S182" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="183" spans="19:19">
       <c r="S183" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="184" spans="19:19">
       <c r="S184" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="185" spans="19:19">
       <c r="S185" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="186" spans="19:19">
       <c r="S186" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="187" spans="19:19">
       <c r="S187" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="188" spans="19:19">
       <c r="S188" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="189" spans="19:19">
       <c r="S189" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="190" spans="19:19">
       <c r="S190" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="191" spans="19:19">
       <c r="S191" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="192" spans="19:19">
       <c r="S192" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="193" spans="19:19">
       <c r="S193" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="194" spans="19:19">
       <c r="S194" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="195" spans="19:19">
       <c r="S195" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="196" spans="19:19">
       <c r="S196" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="197" spans="19:19">
       <c r="S197" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="198" spans="19:19">
       <c r="S198" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="199" spans="19:19">
       <c r="S199" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="200" spans="19:19">
       <c r="S200" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="201" spans="19:19">
       <c r="S201" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="202" spans="19:19">
       <c r="S202" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="203" spans="19:19">
       <c r="S203" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="204" spans="19:19">
       <c r="S204" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="205" spans="19:19">
       <c r="S205" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="206" spans="19:19">
       <c r="S206" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="207" spans="19:19">
       <c r="S207" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="208" spans="19:19">
       <c r="S208" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="209" spans="19:19">
       <c r="S209" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="210" spans="19:19">
       <c r="S210" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="211" spans="19:19">
       <c r="S211" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="212" spans="19:19">
       <c r="S212" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="213" spans="19:19">
       <c r="S213" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="214" spans="19:19">
       <c r="S214" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="215" spans="19:19">
       <c r="S215" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="216" spans="19:19">
       <c r="S216" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="217" spans="19:19">
       <c r="S217" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="218" spans="19:19">
       <c r="S218" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="219" spans="19:19">
       <c r="S219" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="220" spans="19:19">
       <c r="S220" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="221" spans="19:19">
       <c r="S221" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="222" spans="19:19">
       <c r="S222" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="223" spans="19:19">
       <c r="S223" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="224" spans="19:19">
       <c r="S224" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="225" spans="19:19">
       <c r="S225" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="226" spans="19:19">
       <c r="S226" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="227" spans="19:19">
       <c r="S227" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="228" spans="19:19">
       <c r="S228" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="229" spans="19:19">
       <c r="S229" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="230" spans="19:19">
       <c r="S230" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="231" spans="19:19">
       <c r="S231" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="232" spans="19:19">
       <c r="S232" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="233" spans="19:19">
       <c r="S233" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="234" spans="19:19">
       <c r="S234" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="235" spans="19:19">
       <c r="S235" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="236" spans="19:19">
       <c r="S236" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="237" spans="19:19">
       <c r="S237" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="238" spans="19:19">
       <c r="S238" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="239" spans="19:19">
       <c r="S239" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="240" spans="19:19">
       <c r="S240" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="241" spans="19:19">
       <c r="S241" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="242" spans="19:19">
       <c r="S242" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="243" spans="19:19">
       <c r="S243" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="244" spans="19:19">
       <c r="S244" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="245" spans="19:19">
       <c r="S245" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="246" spans="19:19">
       <c r="S246" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="247" spans="19:19">
       <c r="S247" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="248" spans="19:19">
       <c r="S248" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="249" spans="19:19">
       <c r="S249" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="250" spans="19:19">
       <c r="S250" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="251" spans="19:19">
       <c r="S251" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="252" spans="19:19">
       <c r="S252" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="253" spans="19:19">
       <c r="S253" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="254" spans="19:19">
       <c r="S254" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="255" spans="19:19">
       <c r="S255" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="256" spans="19:19">
       <c r="S256" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="257" spans="19:19">
       <c r="S257" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="258" spans="19:19">
       <c r="S258" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="259" spans="19:19">
       <c r="S259" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="260" spans="19:19">
       <c r="S260" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="261" spans="19:19">
       <c r="S261" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="262" spans="19:19">
       <c r="S262" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="263" spans="19:19">
       <c r="S263" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="264" spans="19:19">
       <c r="S264" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="265" spans="19:19">
       <c r="S265" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="266" spans="19:19">
       <c r="S266" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="267" spans="19:19">
       <c r="S267" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="268" spans="19:19">
       <c r="S268" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="269" spans="19:19">
       <c r="S269" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="270" spans="19:19">
       <c r="S270" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="271" spans="19:19">
       <c r="S271" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="272" spans="19:19">
       <c r="S272" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="273" spans="19:19">
       <c r="S273" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="274" spans="19:19">
       <c r="S274" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="275" spans="19:19">
       <c r="S275" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="276" spans="19:19">
       <c r="S276" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="277" spans="19:19">
       <c r="S277" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="278" spans="19:19">
       <c r="S278" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="279" spans="19:19">
       <c r="S279" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="280" spans="19:19">
       <c r="S280" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="281" spans="19:19">
       <c r="S281" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="282" spans="19:19">
       <c r="S282" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="283" spans="19:19">
       <c r="S283" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="284" spans="19:19">
       <c r="S284" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="285" spans="19:19">
       <c r="S285" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="286" spans="19:19">
       <c r="S286" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="287" spans="19:19">
       <c r="S287" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="288" spans="19:19">
       <c r="S288" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="289" spans="19:19">
       <c r="S289" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000041/metadata_template_ERC000041.xlsx
+++ b/templates/ERC000041/metadata_template_ERC000041.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$S$1:$S$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="603">
   <si>
     <t>alias</t>
   </si>
@@ -553,6 +553,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -2375,7 +2378,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2419,7 +2422,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2446,7 +2449,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3163,6 +3166,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3187,27 +3195,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3230,122 +3238,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3372,162 +3380,162 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -3550,1447 +3558,1447 @@
   <sheetData>
     <row r="1" spans="19:19">
       <c r="S1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="19:19">
       <c r="S2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="19:19">
       <c r="S3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="19:19">
       <c r="S4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="19:19">
       <c r="S5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="19:19">
       <c r="S6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="19:19">
       <c r="S7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="19:19">
       <c r="S8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="19:19">
       <c r="S9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="19:19">
       <c r="S10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="19:19">
       <c r="S11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="19:19">
       <c r="S12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="19:19">
       <c r="S13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="19:19">
       <c r="S14" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="19:19">
       <c r="S15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="19:19">
       <c r="S16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="19:19">
       <c r="S17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="19:19">
       <c r="S18" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="19:19">
       <c r="S19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="19:19">
       <c r="S20" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="19:19">
       <c r="S21" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="19:19">
       <c r="S22" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="19:19">
       <c r="S23" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="19:19">
       <c r="S24" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="19:19">
       <c r="S25" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="19:19">
       <c r="S26" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="19:19">
       <c r="S27" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="19:19">
       <c r="S28" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="19:19">
       <c r="S29" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="19:19">
       <c r="S30" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="19:19">
       <c r="S31" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="19:19">
       <c r="S32" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="19:19">
       <c r="S33" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="19:19">
       <c r="S34" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="19:19">
       <c r="S35" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="19:19">
       <c r="S36" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="19:19">
       <c r="S37" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="19:19">
       <c r="S38" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="19:19">
       <c r="S39" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40" spans="19:19">
       <c r="S40" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="19:19">
       <c r="S41" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42" spans="19:19">
       <c r="S42" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="43" spans="19:19">
       <c r="S43" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="19:19">
       <c r="S44" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="19:19">
       <c r="S45" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="19:19">
       <c r="S46" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="19:19">
       <c r="S47" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="48" spans="19:19">
       <c r="S48" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="49" spans="19:19">
       <c r="S49" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50" spans="19:19">
       <c r="S50" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51" spans="19:19">
       <c r="S51" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="52" spans="19:19">
       <c r="S52" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="53" spans="19:19">
       <c r="S53" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="54" spans="19:19">
       <c r="S54" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="55" spans="19:19">
       <c r="S55" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="56" spans="19:19">
       <c r="S56" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57" spans="19:19">
       <c r="S57" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="58" spans="19:19">
       <c r="S58" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="59" spans="19:19">
       <c r="S59" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="60" spans="19:19">
       <c r="S60" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="61" spans="19:19">
       <c r="S61" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" spans="19:19">
       <c r="S62" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="63" spans="19:19">
       <c r="S63" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="64" spans="19:19">
       <c r="S64" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="65" spans="19:19">
       <c r="S65" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="66" spans="19:19">
       <c r="S66" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="67" spans="19:19">
       <c r="S67" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="68" spans="19:19">
       <c r="S68" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="69" spans="19:19">
       <c r="S69" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="70" spans="19:19">
       <c r="S70" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="71" spans="19:19">
       <c r="S71" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="72" spans="19:19">
       <c r="S72" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="73" spans="19:19">
       <c r="S73" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="74" spans="19:19">
       <c r="S74" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="75" spans="19:19">
       <c r="S75" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="76" spans="19:19">
       <c r="S76" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="77" spans="19:19">
       <c r="S77" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="78" spans="19:19">
       <c r="S78" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="79" spans="19:19">
       <c r="S79" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="80" spans="19:19">
       <c r="S80" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="81" spans="19:19">
       <c r="S81" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="82" spans="19:19">
       <c r="S82" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="83" spans="19:19">
       <c r="S83" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="84" spans="19:19">
       <c r="S84" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="85" spans="19:19">
       <c r="S85" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="86" spans="19:19">
       <c r="S86" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="87" spans="19:19">
       <c r="S87" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="88" spans="19:19">
       <c r="S88" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="89" spans="19:19">
       <c r="S89" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="90" spans="19:19">
       <c r="S90" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="91" spans="19:19">
       <c r="S91" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="92" spans="19:19">
       <c r="S92" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="93" spans="19:19">
       <c r="S93" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="94" spans="19:19">
       <c r="S94" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="95" spans="19:19">
       <c r="S95" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="96" spans="19:19">
       <c r="S96" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="97" spans="19:19">
       <c r="S97" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="98" spans="19:19">
       <c r="S98" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="99" spans="19:19">
       <c r="S99" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="100" spans="19:19">
       <c r="S100" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="101" spans="19:19">
       <c r="S101" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="102" spans="19:19">
       <c r="S102" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="103" spans="19:19">
       <c r="S103" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="104" spans="19:19">
       <c r="S104" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="105" spans="19:19">
       <c r="S105" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="106" spans="19:19">
       <c r="S106" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="107" spans="19:19">
       <c r="S107" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="108" spans="19:19">
       <c r="S108" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="109" spans="19:19">
       <c r="S109" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="110" spans="19:19">
       <c r="S110" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="111" spans="19:19">
       <c r="S111" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="112" spans="19:19">
       <c r="S112" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="113" spans="19:19">
       <c r="S113" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="114" spans="19:19">
       <c r="S114" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="115" spans="19:19">
       <c r="S115" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="116" spans="19:19">
       <c r="S116" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="117" spans="19:19">
       <c r="S117" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="118" spans="19:19">
       <c r="S118" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="119" spans="19:19">
       <c r="S119" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="120" spans="19:19">
       <c r="S120" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="121" spans="19:19">
       <c r="S121" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="122" spans="19:19">
       <c r="S122" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="123" spans="19:19">
       <c r="S123" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="124" spans="19:19">
       <c r="S124" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="125" spans="19:19">
       <c r="S125" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="126" spans="19:19">
       <c r="S126" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="127" spans="19:19">
       <c r="S127" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="128" spans="19:19">
       <c r="S128" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="129" spans="19:19">
       <c r="S129" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="130" spans="19:19">
       <c r="S130" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="131" spans="19:19">
       <c r="S131" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="132" spans="19:19">
       <c r="S132" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="133" spans="19:19">
       <c r="S133" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="134" spans="19:19">
       <c r="S134" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="135" spans="19:19">
       <c r="S135" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="136" spans="19:19">
       <c r="S136" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="137" spans="19:19">
       <c r="S137" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="138" spans="19:19">
       <c r="S138" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="139" spans="19:19">
       <c r="S139" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="140" spans="19:19">
       <c r="S140" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="141" spans="19:19">
       <c r="S141" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="142" spans="19:19">
       <c r="S142" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="143" spans="19:19">
       <c r="S143" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="144" spans="19:19">
       <c r="S144" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="145" spans="19:19">
       <c r="S145" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="146" spans="19:19">
       <c r="S146" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="147" spans="19:19">
       <c r="S147" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="148" spans="19:19">
       <c r="S148" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="149" spans="19:19">
       <c r="S149" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="150" spans="19:19">
       <c r="S150" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="151" spans="19:19">
       <c r="S151" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="152" spans="19:19">
       <c r="S152" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="153" spans="19:19">
       <c r="S153" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="154" spans="19:19">
       <c r="S154" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="155" spans="19:19">
       <c r="S155" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="156" spans="19:19">
       <c r="S156" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="157" spans="19:19">
       <c r="S157" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="158" spans="19:19">
       <c r="S158" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="159" spans="19:19">
       <c r="S159" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="160" spans="19:19">
       <c r="S160" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="161" spans="19:19">
       <c r="S161" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="162" spans="19:19">
       <c r="S162" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="163" spans="19:19">
       <c r="S163" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="164" spans="19:19">
       <c r="S164" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="165" spans="19:19">
       <c r="S165" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="166" spans="19:19">
       <c r="S166" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="167" spans="19:19">
       <c r="S167" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="168" spans="19:19">
       <c r="S168" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="169" spans="19:19">
       <c r="S169" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="170" spans="19:19">
       <c r="S170" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="171" spans="19:19">
       <c r="S171" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="172" spans="19:19">
       <c r="S172" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="173" spans="19:19">
       <c r="S173" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="174" spans="19:19">
       <c r="S174" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="175" spans="19:19">
       <c r="S175" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="176" spans="19:19">
       <c r="S176" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="177" spans="19:19">
       <c r="S177" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="178" spans="19:19">
       <c r="S178" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="179" spans="19:19">
       <c r="S179" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="180" spans="19:19">
       <c r="S180" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="181" spans="19:19">
       <c r="S181" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="182" spans="19:19">
       <c r="S182" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="183" spans="19:19">
       <c r="S183" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="184" spans="19:19">
       <c r="S184" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="185" spans="19:19">
       <c r="S185" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="186" spans="19:19">
       <c r="S186" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="187" spans="19:19">
       <c r="S187" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="188" spans="19:19">
       <c r="S188" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="189" spans="19:19">
       <c r="S189" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="190" spans="19:19">
       <c r="S190" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="191" spans="19:19">
       <c r="S191" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="192" spans="19:19">
       <c r="S192" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="193" spans="19:19">
       <c r="S193" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="194" spans="19:19">
       <c r="S194" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="195" spans="19:19">
       <c r="S195" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="196" spans="19:19">
       <c r="S196" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="197" spans="19:19">
       <c r="S197" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="198" spans="19:19">
       <c r="S198" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="199" spans="19:19">
       <c r="S199" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="200" spans="19:19">
       <c r="S200" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="201" spans="19:19">
       <c r="S201" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="202" spans="19:19">
       <c r="S202" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="203" spans="19:19">
       <c r="S203" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="204" spans="19:19">
       <c r="S204" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="205" spans="19:19">
       <c r="S205" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="206" spans="19:19">
       <c r="S206" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="207" spans="19:19">
       <c r="S207" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="208" spans="19:19">
       <c r="S208" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="209" spans="19:19">
       <c r="S209" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="210" spans="19:19">
       <c r="S210" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="211" spans="19:19">
       <c r="S211" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="212" spans="19:19">
       <c r="S212" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="213" spans="19:19">
       <c r="S213" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="214" spans="19:19">
       <c r="S214" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="215" spans="19:19">
       <c r="S215" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="216" spans="19:19">
       <c r="S216" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="217" spans="19:19">
       <c r="S217" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="218" spans="19:19">
       <c r="S218" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="219" spans="19:19">
       <c r="S219" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="220" spans="19:19">
       <c r="S220" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="221" spans="19:19">
       <c r="S221" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="222" spans="19:19">
       <c r="S222" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="223" spans="19:19">
       <c r="S223" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="224" spans="19:19">
       <c r="S224" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="225" spans="19:19">
       <c r="S225" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="226" spans="19:19">
       <c r="S226" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="227" spans="19:19">
       <c r="S227" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="228" spans="19:19">
       <c r="S228" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="229" spans="19:19">
       <c r="S229" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="230" spans="19:19">
       <c r="S230" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="231" spans="19:19">
       <c r="S231" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="232" spans="19:19">
       <c r="S232" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="233" spans="19:19">
       <c r="S233" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="234" spans="19:19">
       <c r="S234" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="235" spans="19:19">
       <c r="S235" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="236" spans="19:19">
       <c r="S236" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="237" spans="19:19">
       <c r="S237" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="238" spans="19:19">
       <c r="S238" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="239" spans="19:19">
       <c r="S239" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="240" spans="19:19">
       <c r="S240" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="241" spans="19:19">
       <c r="S241" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="242" spans="19:19">
       <c r="S242" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="243" spans="19:19">
       <c r="S243" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="244" spans="19:19">
       <c r="S244" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="245" spans="19:19">
       <c r="S245" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="246" spans="19:19">
       <c r="S246" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="247" spans="19:19">
       <c r="S247" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="248" spans="19:19">
       <c r="S248" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="249" spans="19:19">
       <c r="S249" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="250" spans="19:19">
       <c r="S250" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="251" spans="19:19">
       <c r="S251" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="252" spans="19:19">
       <c r="S252" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="253" spans="19:19">
       <c r="S253" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="254" spans="19:19">
       <c r="S254" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="255" spans="19:19">
       <c r="S255" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="256" spans="19:19">
       <c r="S256" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="257" spans="19:19">
       <c r="S257" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="258" spans="19:19">
       <c r="S258" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="259" spans="19:19">
       <c r="S259" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="260" spans="19:19">
       <c r="S260" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="261" spans="19:19">
       <c r="S261" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="262" spans="19:19">
       <c r="S262" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="263" spans="19:19">
       <c r="S263" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="264" spans="19:19">
       <c r="S264" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="265" spans="19:19">
       <c r="S265" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="266" spans="19:19">
       <c r="S266" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="267" spans="19:19">
       <c r="S267" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="268" spans="19:19">
       <c r="S268" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="269" spans="19:19">
       <c r="S269" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="270" spans="19:19">
       <c r="S270" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="271" spans="19:19">
       <c r="S271" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="272" spans="19:19">
       <c r="S272" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="273" spans="19:19">
       <c r="S273" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="274" spans="19:19">
       <c r="S274" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="275" spans="19:19">
       <c r="S275" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="276" spans="19:19">
       <c r="S276" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="277" spans="19:19">
       <c r="S277" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="278" spans="19:19">
       <c r="S278" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="279" spans="19:19">
       <c r="S279" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="280" spans="19:19">
       <c r="S280" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="281" spans="19:19">
       <c r="S281" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="282" spans="19:19">
       <c r="S282" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="283" spans="19:19">
       <c r="S283" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="284" spans="19:19">
       <c r="S284" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="285" spans="19:19">
       <c r="S285" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="286" spans="19:19">
       <c r="S286" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="287" spans="19:19">
       <c r="S287" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="288" spans="19:19">
       <c r="S288" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="289" spans="19:19">
       <c r="S289" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000041/metadata_template_ERC000041.xlsx
+++ b/templates/ERC000041/metadata_template_ERC000041.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$S$1:$S$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="604">
   <si>
     <t>alias</t>
   </si>
@@ -718,6 +718,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -2378,7 +2381,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2422,7 +2425,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2449,7 +2452,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3171,6 +3174,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3195,27 +3203,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3238,122 +3246,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3380,162 +3388,162 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -3558,1447 +3566,1447 @@
   <sheetData>
     <row r="1" spans="19:19">
       <c r="S1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="19:19">
       <c r="S2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="19:19">
       <c r="S3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="19:19">
       <c r="S4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="19:19">
       <c r="S5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="19:19">
       <c r="S6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="19:19">
       <c r="S7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="19:19">
       <c r="S8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="19:19">
       <c r="S9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="19:19">
       <c r="S10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="19:19">
       <c r="S11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="19:19">
       <c r="S12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="19:19">
       <c r="S13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="19:19">
       <c r="S14" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="19:19">
       <c r="S15" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="19:19">
       <c r="S16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="19:19">
       <c r="S17" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="19:19">
       <c r="S18" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="19:19">
       <c r="S19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="19:19">
       <c r="S20" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="19:19">
       <c r="S21" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="19:19">
       <c r="S22" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="19:19">
       <c r="S23" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="19:19">
       <c r="S24" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="19:19">
       <c r="S25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="19:19">
       <c r="S26" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="19:19">
       <c r="S27" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="19:19">
       <c r="S28" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="19:19">
       <c r="S29" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="19:19">
       <c r="S30" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="19:19">
       <c r="S31" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="19:19">
       <c r="S32" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="19:19">
       <c r="S33" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="19:19">
       <c r="S34" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="19:19">
       <c r="S35" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="19:19">
       <c r="S36" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="19:19">
       <c r="S37" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="19:19">
       <c r="S38" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="19:19">
       <c r="S39" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="19:19">
       <c r="S40" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="19:19">
       <c r="S41" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="19:19">
       <c r="S42" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="19:19">
       <c r="S43" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="19:19">
       <c r="S44" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="19:19">
       <c r="S45" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="19:19">
       <c r="S46" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="19:19">
       <c r="S47" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="19:19">
       <c r="S48" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="19:19">
       <c r="S49" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50" spans="19:19">
       <c r="S50" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="51" spans="19:19">
       <c r="S51" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52" spans="19:19">
       <c r="S52" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53" spans="19:19">
       <c r="S53" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54" spans="19:19">
       <c r="S54" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55" spans="19:19">
       <c r="S55" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56" spans="19:19">
       <c r="S56" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="57" spans="19:19">
       <c r="S57" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="58" spans="19:19">
       <c r="S58" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="59" spans="19:19">
       <c r="S59" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="60" spans="19:19">
       <c r="S60" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="61" spans="19:19">
       <c r="S61" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="62" spans="19:19">
       <c r="S62" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="63" spans="19:19">
       <c r="S63" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="64" spans="19:19">
       <c r="S64" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="65" spans="19:19">
       <c r="S65" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="66" spans="19:19">
       <c r="S66" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="67" spans="19:19">
       <c r="S67" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="68" spans="19:19">
       <c r="S68" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="69" spans="19:19">
       <c r="S69" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="70" spans="19:19">
       <c r="S70" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="71" spans="19:19">
       <c r="S71" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="72" spans="19:19">
       <c r="S72" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="73" spans="19:19">
       <c r="S73" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="74" spans="19:19">
       <c r="S74" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75" spans="19:19">
       <c r="S75" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="76" spans="19:19">
       <c r="S76" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="77" spans="19:19">
       <c r="S77" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="78" spans="19:19">
       <c r="S78" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="79" spans="19:19">
       <c r="S79" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="80" spans="19:19">
       <c r="S80" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="81" spans="19:19">
       <c r="S81" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="82" spans="19:19">
       <c r="S82" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="83" spans="19:19">
       <c r="S83" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="84" spans="19:19">
       <c r="S84" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="85" spans="19:19">
       <c r="S85" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="86" spans="19:19">
       <c r="S86" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="87" spans="19:19">
       <c r="S87" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="88" spans="19:19">
       <c r="S88" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="89" spans="19:19">
       <c r="S89" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="90" spans="19:19">
       <c r="S90" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="91" spans="19:19">
       <c r="S91" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92" spans="19:19">
       <c r="S92" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="93" spans="19:19">
       <c r="S93" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="94" spans="19:19">
       <c r="S94" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="95" spans="19:19">
       <c r="S95" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="96" spans="19:19">
       <c r="S96" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="97" spans="19:19">
       <c r="S97" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="98" spans="19:19">
       <c r="S98" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="99" spans="19:19">
       <c r="S99" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="100" spans="19:19">
       <c r="S100" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="101" spans="19:19">
       <c r="S101" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="102" spans="19:19">
       <c r="S102" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="103" spans="19:19">
       <c r="S103" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="104" spans="19:19">
       <c r="S104" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="105" spans="19:19">
       <c r="S105" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="106" spans="19:19">
       <c r="S106" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="107" spans="19:19">
       <c r="S107" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="108" spans="19:19">
       <c r="S108" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="109" spans="19:19">
       <c r="S109" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="110" spans="19:19">
       <c r="S110" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="111" spans="19:19">
       <c r="S111" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="112" spans="19:19">
       <c r="S112" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="113" spans="19:19">
       <c r="S113" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="114" spans="19:19">
       <c r="S114" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="115" spans="19:19">
       <c r="S115" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="116" spans="19:19">
       <c r="S116" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="117" spans="19:19">
       <c r="S117" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="118" spans="19:19">
       <c r="S118" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="119" spans="19:19">
       <c r="S119" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="120" spans="19:19">
       <c r="S120" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="121" spans="19:19">
       <c r="S121" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="122" spans="19:19">
       <c r="S122" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="123" spans="19:19">
       <c r="S123" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="124" spans="19:19">
       <c r="S124" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="125" spans="19:19">
       <c r="S125" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="126" spans="19:19">
       <c r="S126" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="127" spans="19:19">
       <c r="S127" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="128" spans="19:19">
       <c r="S128" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="129" spans="19:19">
       <c r="S129" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="130" spans="19:19">
       <c r="S130" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="131" spans="19:19">
       <c r="S131" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="132" spans="19:19">
       <c r="S132" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="133" spans="19:19">
       <c r="S133" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="134" spans="19:19">
       <c r="S134" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="135" spans="19:19">
       <c r="S135" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="136" spans="19:19">
       <c r="S136" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="137" spans="19:19">
       <c r="S137" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="138" spans="19:19">
       <c r="S138" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="139" spans="19:19">
       <c r="S139" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="140" spans="19:19">
       <c r="S140" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="141" spans="19:19">
       <c r="S141" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="142" spans="19:19">
       <c r="S142" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="143" spans="19:19">
       <c r="S143" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="144" spans="19:19">
       <c r="S144" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="145" spans="19:19">
       <c r="S145" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="146" spans="19:19">
       <c r="S146" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="147" spans="19:19">
       <c r="S147" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="148" spans="19:19">
       <c r="S148" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="149" spans="19:19">
       <c r="S149" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="150" spans="19:19">
       <c r="S150" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="151" spans="19:19">
       <c r="S151" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="152" spans="19:19">
       <c r="S152" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="153" spans="19:19">
       <c r="S153" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="154" spans="19:19">
       <c r="S154" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="155" spans="19:19">
       <c r="S155" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="156" spans="19:19">
       <c r="S156" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="157" spans="19:19">
       <c r="S157" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="158" spans="19:19">
       <c r="S158" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="159" spans="19:19">
       <c r="S159" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="160" spans="19:19">
       <c r="S160" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="161" spans="19:19">
       <c r="S161" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="162" spans="19:19">
       <c r="S162" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="163" spans="19:19">
       <c r="S163" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="164" spans="19:19">
       <c r="S164" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="165" spans="19:19">
       <c r="S165" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="166" spans="19:19">
       <c r="S166" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="167" spans="19:19">
       <c r="S167" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="168" spans="19:19">
       <c r="S168" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="169" spans="19:19">
       <c r="S169" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="170" spans="19:19">
       <c r="S170" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="171" spans="19:19">
       <c r="S171" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="172" spans="19:19">
       <c r="S172" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="173" spans="19:19">
       <c r="S173" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="174" spans="19:19">
       <c r="S174" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="175" spans="19:19">
       <c r="S175" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="176" spans="19:19">
       <c r="S176" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="177" spans="19:19">
       <c r="S177" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="178" spans="19:19">
       <c r="S178" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="179" spans="19:19">
       <c r="S179" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="180" spans="19:19">
       <c r="S180" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="181" spans="19:19">
       <c r="S181" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="182" spans="19:19">
       <c r="S182" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="183" spans="19:19">
       <c r="S183" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="184" spans="19:19">
       <c r="S184" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="185" spans="19:19">
       <c r="S185" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="186" spans="19:19">
       <c r="S186" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="187" spans="19:19">
       <c r="S187" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="188" spans="19:19">
       <c r="S188" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="189" spans="19:19">
       <c r="S189" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="190" spans="19:19">
       <c r="S190" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="191" spans="19:19">
       <c r="S191" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="192" spans="19:19">
       <c r="S192" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="193" spans="19:19">
       <c r="S193" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="194" spans="19:19">
       <c r="S194" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="195" spans="19:19">
       <c r="S195" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="196" spans="19:19">
       <c r="S196" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="197" spans="19:19">
       <c r="S197" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="198" spans="19:19">
       <c r="S198" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="199" spans="19:19">
       <c r="S199" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="200" spans="19:19">
       <c r="S200" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="201" spans="19:19">
       <c r="S201" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="202" spans="19:19">
       <c r="S202" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="203" spans="19:19">
       <c r="S203" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="204" spans="19:19">
       <c r="S204" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="205" spans="19:19">
       <c r="S205" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="206" spans="19:19">
       <c r="S206" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="207" spans="19:19">
       <c r="S207" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="208" spans="19:19">
       <c r="S208" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="209" spans="19:19">
       <c r="S209" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="210" spans="19:19">
       <c r="S210" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="211" spans="19:19">
       <c r="S211" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="212" spans="19:19">
       <c r="S212" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="213" spans="19:19">
       <c r="S213" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="214" spans="19:19">
       <c r="S214" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="215" spans="19:19">
       <c r="S215" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="216" spans="19:19">
       <c r="S216" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="217" spans="19:19">
       <c r="S217" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="218" spans="19:19">
       <c r="S218" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="219" spans="19:19">
       <c r="S219" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="220" spans="19:19">
       <c r="S220" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="221" spans="19:19">
       <c r="S221" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="222" spans="19:19">
       <c r="S222" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="223" spans="19:19">
       <c r="S223" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="224" spans="19:19">
       <c r="S224" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="225" spans="19:19">
       <c r="S225" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="226" spans="19:19">
       <c r="S226" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="227" spans="19:19">
       <c r="S227" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="228" spans="19:19">
       <c r="S228" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="229" spans="19:19">
       <c r="S229" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="230" spans="19:19">
       <c r="S230" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="231" spans="19:19">
       <c r="S231" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="232" spans="19:19">
       <c r="S232" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="233" spans="19:19">
       <c r="S233" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="234" spans="19:19">
       <c r="S234" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="235" spans="19:19">
       <c r="S235" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="236" spans="19:19">
       <c r="S236" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="237" spans="19:19">
       <c r="S237" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="238" spans="19:19">
       <c r="S238" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="239" spans="19:19">
       <c r="S239" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="240" spans="19:19">
       <c r="S240" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="241" spans="19:19">
       <c r="S241" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="242" spans="19:19">
       <c r="S242" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="243" spans="19:19">
       <c r="S243" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="244" spans="19:19">
       <c r="S244" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="245" spans="19:19">
       <c r="S245" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="246" spans="19:19">
       <c r="S246" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="247" spans="19:19">
       <c r="S247" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="248" spans="19:19">
       <c r="S248" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="249" spans="19:19">
       <c r="S249" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="250" spans="19:19">
       <c r="S250" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="251" spans="19:19">
       <c r="S251" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="252" spans="19:19">
       <c r="S252" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="253" spans="19:19">
       <c r="S253" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="254" spans="19:19">
       <c r="S254" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="255" spans="19:19">
       <c r="S255" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="256" spans="19:19">
       <c r="S256" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="257" spans="19:19">
       <c r="S257" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="258" spans="19:19">
       <c r="S258" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="259" spans="19:19">
       <c r="S259" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="260" spans="19:19">
       <c r="S260" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="261" spans="19:19">
       <c r="S261" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="262" spans="19:19">
       <c r="S262" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="263" spans="19:19">
       <c r="S263" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="264" spans="19:19">
       <c r="S264" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="265" spans="19:19">
       <c r="S265" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="266" spans="19:19">
       <c r="S266" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="267" spans="19:19">
       <c r="S267" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="268" spans="19:19">
       <c r="S268" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="269" spans="19:19">
       <c r="S269" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="270" spans="19:19">
       <c r="S270" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="271" spans="19:19">
       <c r="S271" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="272" spans="19:19">
       <c r="S272" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="273" spans="19:19">
       <c r="S273" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="274" spans="19:19">
       <c r="S274" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="275" spans="19:19">
       <c r="S275" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="276" spans="19:19">
       <c r="S276" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="277" spans="19:19">
       <c r="S277" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="278" spans="19:19">
       <c r="S278" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="279" spans="19:19">
       <c r="S279" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="280" spans="19:19">
       <c r="S280" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="281" spans="19:19">
       <c r="S281" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="282" spans="19:19">
       <c r="S282" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="283" spans="19:19">
       <c r="S283" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="284" spans="19:19">
       <c r="S284" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="285" spans="19:19">
       <c r="S285" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="286" spans="19:19">
       <c r="S286" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="287" spans="19:19">
       <c r="S287" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="288" spans="19:19">
       <c r="S288" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="289" spans="19:19">
       <c r="S289" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000041/metadata_template_ERC000041.xlsx
+++ b/templates/ERC000041/metadata_template_ERC000041.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$S$1:$S$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="605">
   <si>
     <t>alias</t>
   </si>
@@ -553,6 +553,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -2381,7 +2384,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2425,7 +2428,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2452,7 +2455,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3179,6 +3182,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3203,27 +3211,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3246,122 +3254,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3388,162 +3396,162 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -3566,1447 +3574,1447 @@
   <sheetData>
     <row r="1" spans="19:19">
       <c r="S1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="19:19">
       <c r="S2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="19:19">
       <c r="S3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="19:19">
       <c r="S4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="19:19">
       <c r="S5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="19:19">
       <c r="S6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="19:19">
       <c r="S7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="19:19">
       <c r="S8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="19:19">
       <c r="S9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="19:19">
       <c r="S10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="19:19">
       <c r="S11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="19:19">
       <c r="S12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="19:19">
       <c r="S13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="19:19">
       <c r="S14" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="19:19">
       <c r="S15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="19:19">
       <c r="S16" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="19:19">
       <c r="S17" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="19:19">
       <c r="S18" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="19:19">
       <c r="S19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="19:19">
       <c r="S20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="19:19">
       <c r="S21" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="19:19">
       <c r="S22" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="19:19">
       <c r="S23" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="19:19">
       <c r="S24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="19:19">
       <c r="S25" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="19:19">
       <c r="S26" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="19:19">
       <c r="S27" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="19:19">
       <c r="S28" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="19:19">
       <c r="S29" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="19:19">
       <c r="S30" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="19:19">
       <c r="S31" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="19:19">
       <c r="S32" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="19:19">
       <c r="S33" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="19:19">
       <c r="S34" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35" spans="19:19">
       <c r="S35" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" spans="19:19">
       <c r="S36" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37" spans="19:19">
       <c r="S37" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="19:19">
       <c r="S38" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="19:19">
       <c r="S39" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="19:19">
       <c r="S40" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" spans="19:19">
       <c r="S41" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="19:19">
       <c r="S42" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" spans="19:19">
       <c r="S43" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="19:19">
       <c r="S44" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="19:19">
       <c r="S45" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46" spans="19:19">
       <c r="S46" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47" spans="19:19">
       <c r="S47" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48" spans="19:19">
       <c r="S48" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="49" spans="19:19">
       <c r="S49" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50" spans="19:19">
       <c r="S50" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="51" spans="19:19">
       <c r="S51" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52" spans="19:19">
       <c r="S52" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="53" spans="19:19">
       <c r="S53" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54" spans="19:19">
       <c r="S54" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="55" spans="19:19">
       <c r="S55" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56" spans="19:19">
       <c r="S56" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="57" spans="19:19">
       <c r="S57" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" spans="19:19">
       <c r="S58" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="19:19">
       <c r="S59" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="60" spans="19:19">
       <c r="S60" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="61" spans="19:19">
       <c r="S61" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="62" spans="19:19">
       <c r="S62" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="63" spans="19:19">
       <c r="S63" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="64" spans="19:19">
       <c r="S64" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="65" spans="19:19">
       <c r="S65" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="66" spans="19:19">
       <c r="S66" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="67" spans="19:19">
       <c r="S67" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="68" spans="19:19">
       <c r="S68" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="69" spans="19:19">
       <c r="S69" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="70" spans="19:19">
       <c r="S70" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="71" spans="19:19">
       <c r="S71" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="72" spans="19:19">
       <c r="S72" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="73" spans="19:19">
       <c r="S73" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="74" spans="19:19">
       <c r="S74" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="75" spans="19:19">
       <c r="S75" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="76" spans="19:19">
       <c r="S76" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="77" spans="19:19">
       <c r="S77" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="78" spans="19:19">
       <c r="S78" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="79" spans="19:19">
       <c r="S79" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="80" spans="19:19">
       <c r="S80" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="81" spans="19:19">
       <c r="S81" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="82" spans="19:19">
       <c r="S82" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="83" spans="19:19">
       <c r="S83" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="84" spans="19:19">
       <c r="S84" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="85" spans="19:19">
       <c r="S85" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="86" spans="19:19">
       <c r="S86" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="87" spans="19:19">
       <c r="S87" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="88" spans="19:19">
       <c r="S88" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="89" spans="19:19">
       <c r="S89" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="90" spans="19:19">
       <c r="S90" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="91" spans="19:19">
       <c r="S91" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="92" spans="19:19">
       <c r="S92" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="93" spans="19:19">
       <c r="S93" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="94" spans="19:19">
       <c r="S94" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="95" spans="19:19">
       <c r="S95" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="96" spans="19:19">
       <c r="S96" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="97" spans="19:19">
       <c r="S97" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="98" spans="19:19">
       <c r="S98" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="99" spans="19:19">
       <c r="S99" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="100" spans="19:19">
       <c r="S100" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="101" spans="19:19">
       <c r="S101" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="102" spans="19:19">
       <c r="S102" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="103" spans="19:19">
       <c r="S103" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="104" spans="19:19">
       <c r="S104" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="105" spans="19:19">
       <c r="S105" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="106" spans="19:19">
       <c r="S106" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="107" spans="19:19">
       <c r="S107" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="108" spans="19:19">
       <c r="S108" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="109" spans="19:19">
       <c r="S109" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="110" spans="19:19">
       <c r="S110" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="111" spans="19:19">
       <c r="S111" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="112" spans="19:19">
       <c r="S112" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="113" spans="19:19">
       <c r="S113" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="114" spans="19:19">
       <c r="S114" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="115" spans="19:19">
       <c r="S115" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="116" spans="19:19">
       <c r="S116" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="117" spans="19:19">
       <c r="S117" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="118" spans="19:19">
       <c r="S118" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="119" spans="19:19">
       <c r="S119" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="120" spans="19:19">
       <c r="S120" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="121" spans="19:19">
       <c r="S121" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="122" spans="19:19">
       <c r="S122" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="123" spans="19:19">
       <c r="S123" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="124" spans="19:19">
       <c r="S124" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="125" spans="19:19">
       <c r="S125" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="126" spans="19:19">
       <c r="S126" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="127" spans="19:19">
       <c r="S127" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="128" spans="19:19">
       <c r="S128" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="129" spans="19:19">
       <c r="S129" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="130" spans="19:19">
       <c r="S130" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="131" spans="19:19">
       <c r="S131" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="132" spans="19:19">
       <c r="S132" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="133" spans="19:19">
       <c r="S133" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="134" spans="19:19">
       <c r="S134" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="135" spans="19:19">
       <c r="S135" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="136" spans="19:19">
       <c r="S136" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="137" spans="19:19">
       <c r="S137" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="138" spans="19:19">
       <c r="S138" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="139" spans="19:19">
       <c r="S139" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="140" spans="19:19">
       <c r="S140" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="141" spans="19:19">
       <c r="S141" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="142" spans="19:19">
       <c r="S142" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="143" spans="19:19">
       <c r="S143" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="144" spans="19:19">
       <c r="S144" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="145" spans="19:19">
       <c r="S145" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="146" spans="19:19">
       <c r="S146" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="147" spans="19:19">
       <c r="S147" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="148" spans="19:19">
       <c r="S148" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="149" spans="19:19">
       <c r="S149" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="150" spans="19:19">
       <c r="S150" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="151" spans="19:19">
       <c r="S151" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="152" spans="19:19">
       <c r="S152" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="153" spans="19:19">
       <c r="S153" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="154" spans="19:19">
       <c r="S154" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="155" spans="19:19">
       <c r="S155" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="156" spans="19:19">
       <c r="S156" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="157" spans="19:19">
       <c r="S157" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="158" spans="19:19">
       <c r="S158" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="159" spans="19:19">
       <c r="S159" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="160" spans="19:19">
       <c r="S160" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="161" spans="19:19">
       <c r="S161" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="162" spans="19:19">
       <c r="S162" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="163" spans="19:19">
       <c r="S163" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="164" spans="19:19">
       <c r="S164" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="165" spans="19:19">
       <c r="S165" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="166" spans="19:19">
       <c r="S166" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="167" spans="19:19">
       <c r="S167" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="168" spans="19:19">
       <c r="S168" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="169" spans="19:19">
       <c r="S169" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="170" spans="19:19">
       <c r="S170" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="171" spans="19:19">
       <c r="S171" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="172" spans="19:19">
       <c r="S172" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="173" spans="19:19">
       <c r="S173" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="174" spans="19:19">
       <c r="S174" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="175" spans="19:19">
       <c r="S175" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="176" spans="19:19">
       <c r="S176" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="177" spans="19:19">
       <c r="S177" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="178" spans="19:19">
       <c r="S178" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="179" spans="19:19">
       <c r="S179" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="180" spans="19:19">
       <c r="S180" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="181" spans="19:19">
       <c r="S181" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="182" spans="19:19">
       <c r="S182" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="183" spans="19:19">
       <c r="S183" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="184" spans="19:19">
       <c r="S184" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="185" spans="19:19">
       <c r="S185" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="186" spans="19:19">
       <c r="S186" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="187" spans="19:19">
       <c r="S187" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="188" spans="19:19">
       <c r="S188" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="189" spans="19:19">
       <c r="S189" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="190" spans="19:19">
       <c r="S190" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="191" spans="19:19">
       <c r="S191" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="192" spans="19:19">
       <c r="S192" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="193" spans="19:19">
       <c r="S193" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="194" spans="19:19">
       <c r="S194" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="195" spans="19:19">
       <c r="S195" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="196" spans="19:19">
       <c r="S196" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="197" spans="19:19">
       <c r="S197" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="198" spans="19:19">
       <c r="S198" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="199" spans="19:19">
       <c r="S199" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="200" spans="19:19">
       <c r="S200" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="201" spans="19:19">
       <c r="S201" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="202" spans="19:19">
       <c r="S202" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="203" spans="19:19">
       <c r="S203" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="204" spans="19:19">
       <c r="S204" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="205" spans="19:19">
       <c r="S205" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="206" spans="19:19">
       <c r="S206" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="207" spans="19:19">
       <c r="S207" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="208" spans="19:19">
       <c r="S208" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="209" spans="19:19">
       <c r="S209" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="210" spans="19:19">
       <c r="S210" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="211" spans="19:19">
       <c r="S211" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="212" spans="19:19">
       <c r="S212" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="213" spans="19:19">
       <c r="S213" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="214" spans="19:19">
       <c r="S214" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="215" spans="19:19">
       <c r="S215" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="216" spans="19:19">
       <c r="S216" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="217" spans="19:19">
       <c r="S217" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="218" spans="19:19">
       <c r="S218" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="219" spans="19:19">
       <c r="S219" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="220" spans="19:19">
       <c r="S220" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="221" spans="19:19">
       <c r="S221" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="222" spans="19:19">
       <c r="S222" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="223" spans="19:19">
       <c r="S223" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="224" spans="19:19">
       <c r="S224" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="225" spans="19:19">
       <c r="S225" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="226" spans="19:19">
       <c r="S226" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="227" spans="19:19">
       <c r="S227" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="228" spans="19:19">
       <c r="S228" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="229" spans="19:19">
       <c r="S229" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="230" spans="19:19">
       <c r="S230" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="231" spans="19:19">
       <c r="S231" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="232" spans="19:19">
       <c r="S232" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="233" spans="19:19">
       <c r="S233" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="234" spans="19:19">
       <c r="S234" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="235" spans="19:19">
       <c r="S235" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="236" spans="19:19">
       <c r="S236" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="237" spans="19:19">
       <c r="S237" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="238" spans="19:19">
       <c r="S238" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="239" spans="19:19">
       <c r="S239" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="240" spans="19:19">
       <c r="S240" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="241" spans="19:19">
       <c r="S241" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="242" spans="19:19">
       <c r="S242" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="243" spans="19:19">
       <c r="S243" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="244" spans="19:19">
       <c r="S244" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="245" spans="19:19">
       <c r="S245" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="246" spans="19:19">
       <c r="S246" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="247" spans="19:19">
       <c r="S247" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="248" spans="19:19">
       <c r="S248" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="249" spans="19:19">
       <c r="S249" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="250" spans="19:19">
       <c r="S250" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="251" spans="19:19">
       <c r="S251" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="252" spans="19:19">
       <c r="S252" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="253" spans="19:19">
       <c r="S253" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="254" spans="19:19">
       <c r="S254" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="255" spans="19:19">
       <c r="S255" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="256" spans="19:19">
       <c r="S256" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="257" spans="19:19">
       <c r="S257" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="258" spans="19:19">
       <c r="S258" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="259" spans="19:19">
       <c r="S259" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="260" spans="19:19">
       <c r="S260" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="261" spans="19:19">
       <c r="S261" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="262" spans="19:19">
       <c r="S262" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="263" spans="19:19">
       <c r="S263" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="264" spans="19:19">
       <c r="S264" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="265" spans="19:19">
       <c r="S265" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="266" spans="19:19">
       <c r="S266" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="267" spans="19:19">
       <c r="S267" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="268" spans="19:19">
       <c r="S268" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="269" spans="19:19">
       <c r="S269" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="270" spans="19:19">
       <c r="S270" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="271" spans="19:19">
       <c r="S271" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="272" spans="19:19">
       <c r="S272" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="273" spans="19:19">
       <c r="S273" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="274" spans="19:19">
       <c r="S274" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="275" spans="19:19">
       <c r="S275" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="276" spans="19:19">
       <c r="S276" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="277" spans="19:19">
       <c r="S277" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="278" spans="19:19">
       <c r="S278" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="279" spans="19:19">
       <c r="S279" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="280" spans="19:19">
       <c r="S280" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="281" spans="19:19">
       <c r="S281" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="282" spans="19:19">
       <c r="S282" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="283" spans="19:19">
       <c r="S283" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="284" spans="19:19">
       <c r="S284" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="285" spans="19:19">
       <c r="S285" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="286" spans="19:19">
       <c r="S286" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="287" spans="19:19">
       <c r="S287" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="288" spans="19:19">
       <c r="S288" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="289" spans="19:19">
       <c r="S289" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000041/metadata_template_ERC000041.xlsx
+++ b/templates/ERC000041/metadata_template_ERC000041.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$S$1:$S$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$S$1:$S$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="610">
   <si>
     <t>alias</t>
   </si>
@@ -843,49 +843,49 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
-    <t>sample transportation date</t>
+    <t>sample_transportation_date</t>
   </si>
   <si>
     <t>(Optional) Transportation/shipping date of the sample. format:yyyy-mm-dd</t>
   </si>
   <si>
-    <t>sample transportation temperature</t>
+    <t>sample_transportation_temperature</t>
   </si>
   <si>
     <t>(Optional) Temperature at which sample was transported, e.g. -20 or 4 degree celsius. (Units: °C)</t>
   </si>
   <si>
-    <t>sample transportation time</t>
+    <t>sample_transportation_time</t>
   </si>
   <si>
     <t>(Optional) Transportation time from sample site to storage</t>
   </si>
   <si>
-    <t>sample storage temperature</t>
+    <t>sample_storage_temperature</t>
   </si>
   <si>
     <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
-    <t>sample storage location</t>
+    <t>sample_storage_location</t>
   </si>
   <si>
     <t>(Optional) Location at which sample was stored, usually name of a specific freezer/room. indicate the location name.</t>
   </si>
   <si>
-    <t>instrument for DNA concentration measurement</t>
+    <t>instrument_for_dna_concentration_measurement</t>
   </si>
   <si>
     <t>(Optional) Name/type of instrument used to measure the dna concentration (ng/µl) prior to library preparation</t>
   </si>
   <si>
-    <t>read quality filter</t>
+    <t>read_quality_filter</t>
   </si>
   <si>
     <t>(Optional) Programme used to filter reads quality before conducting the analysis</t>
   </si>
   <si>
-    <t>DNA concentration</t>
+    <t>dna_concentration</t>
   </si>
   <si>
     <t>(Optional) Dna concentration used for sequencing in ng/µl (Units: ng/µl)</t>
@@ -897,31 +897,31 @@
     <t>(Optional) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>geographic location (region and locality)</t>
+    <t>geographic_location_region_and_locality</t>
   </si>
   <si>
     <t>(Recommended) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>sampling time point</t>
+    <t>amount_or_size_of_sample_collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
+  </si>
+  <si>
+    <t>sampling_time_point</t>
   </si>
   <si>
     <t>(Optional) Time point at which a sample or observation is made or taken from a biomaterial as measured from some reference point. indicate the timepoint written in iso 8601 format.</t>
   </si>
   <si>
-    <t>sample storage duration</t>
+    <t>sample_storage_duration</t>
   </si>
   <si>
     <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
@@ -1140,9 +1140,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1161,6 +1158,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1362,6 +1362,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1371,9 +1374,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1413,7 +1413,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1482,6 +1482,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1557,6 +1560,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1578,6 +1584,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1623,6 +1632,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1635,6 +1647,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1644,9 +1659,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1671,6 +1683,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1731,12 +1746,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1794,19 +1809,19 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>receipt date</t>
+    <t>receipt_date</t>
   </si>
   <si>
     <t>(Recommended) Date on which the sample was received. format:yyyy-mm-dd. please provide the highest precision possible. if the sample was received by the institution and not collected, the 'receipt date' must be provided instead. either the 'collection date' or 'receipt date' must be provided. if available, provide both dates.</t>
   </si>
   <si>
-    <t>links to additional analysis</t>
+    <t>links_to_additional_analysis</t>
   </si>
   <si>
     <t>(Recommended) Link to additional analysis results performed on the sample</t>
@@ -1824,19 +1839,19 @@
     <t>(Recommended) Name of sub-species of organism from which sample was obtained</t>
   </si>
   <si>
-    <t>Further Details</t>
+    <t>further_details</t>
   </si>
   <si>
     <t>(Recommended) Reference details related to a sample in form of an uri.</t>
   </si>
   <si>
-    <t>nucleic acid extraction</t>
+    <t>nucleic_acid_extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>library construction method</t>
+    <t>library_construction_method</t>
   </si>
   <si>
     <t>(Optional) Library construction method used for clone libraries</t>
@@ -3444,31 +3459,31 @@
         <v>296</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="150" customHeight="1">
@@ -3527,31 +3542,31 @@
         <v>297</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -3566,7 +3581,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="S1:S289"/>
+  <dimension ref="S1:S294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5017,6 +5032,31 @@
         <v>586</v>
       </c>
     </row>
+    <row r="290" spans="19:19">
+      <c r="S290" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="291" spans="19:19">
+      <c r="S291" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="292" spans="19:19">
+      <c r="S292" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="293" spans="19:19">
+      <c r="S293" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="294" spans="19:19">
+      <c r="S294" t="s">
+        <v>591</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000041/metadata_template_ERC000041.xlsx
+++ b/templates/ERC000041/metadata_template_ERC000041.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$S$1:$S$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$S$1:$S$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="605">
   <si>
     <t>alias</t>
   </si>
@@ -843,49 +843,49 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
-    <t>sample_transportation_date</t>
+    <t>sample transportation date</t>
   </si>
   <si>
     <t>(Optional) Transportation/shipping date of the sample. format:yyyy-mm-dd</t>
   </si>
   <si>
-    <t>sample_transportation_temperature</t>
+    <t>sample transportation temperature</t>
   </si>
   <si>
     <t>(Optional) Temperature at which sample was transported, e.g. -20 or 4 degree celsius. (Units: °C)</t>
   </si>
   <si>
-    <t>sample_transportation_time</t>
+    <t>sample transportation time</t>
   </si>
   <si>
     <t>(Optional) Transportation time from sample site to storage</t>
   </si>
   <si>
-    <t>sample_storage_temperature</t>
+    <t>sample storage temperature</t>
   </si>
   <si>
     <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
-    <t>sample_storage_location</t>
+    <t>sample storage location</t>
   </si>
   <si>
     <t>(Optional) Location at which sample was stored, usually name of a specific freezer/room. indicate the location name.</t>
   </si>
   <si>
-    <t>instrument_for_dna_concentration_measurement</t>
+    <t>instrument for DNA concentration measurement</t>
   </si>
   <si>
     <t>(Optional) Name/type of instrument used to measure the dna concentration (ng/µl) prior to library preparation</t>
   </si>
   <si>
-    <t>read_quality_filter</t>
+    <t>read quality filter</t>
   </si>
   <si>
     <t>(Optional) Programme used to filter reads quality before conducting the analysis</t>
   </si>
   <si>
-    <t>dna_concentration</t>
+    <t>DNA concentration</t>
   </si>
   <si>
     <t>(Optional) Dna concentration used for sequencing in ng/µl (Units: ng/µl)</t>
@@ -897,31 +897,31 @@
     <t>(Optional) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>geographic_location_region_and_locality</t>
+    <t>geographic location (region and locality)</t>
   </si>
   <si>
     <t>(Recommended) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>amount_or_size_of_sample_collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
-  </si>
-  <si>
-    <t>sampling_time_point</t>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>sampling time point</t>
   </si>
   <si>
     <t>(Optional) Time point at which a sample or observation is made or taken from a biomaterial as measured from some reference point. indicate the timepoint written in iso 8601 format.</t>
   </si>
   <si>
-    <t>sample_storage_duration</t>
+    <t>sample storage duration</t>
   </si>
   <si>
     <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
@@ -1140,6 +1140,9 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1158,9 +1161,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1362,9 +1362,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1374,6 +1371,9 @@
     <t>Macau</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1413,7 +1413,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Micronesia</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1482,9 +1482,6 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1560,9 +1557,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1584,9 +1578,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1632,9 +1623,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1647,9 +1635,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1659,6 +1644,9 @@
     <t>Svalbard</t>
   </si>
   <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1683,9 +1671,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1746,12 +1731,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
     <t>Wake Island</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1809,19 +1794,19 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>receipt_date</t>
+    <t>receipt date</t>
   </si>
   <si>
     <t>(Recommended) Date on which the sample was received. format:yyyy-mm-dd. please provide the highest precision possible. if the sample was received by the institution and not collected, the 'receipt date' must be provided instead. either the 'collection date' or 'receipt date' must be provided. if available, provide both dates.</t>
   </si>
   <si>
-    <t>links_to_additional_analysis</t>
+    <t>links to additional analysis</t>
   </si>
   <si>
     <t>(Recommended) Link to additional analysis results performed on the sample</t>
@@ -1839,19 +1824,19 @@
     <t>(Recommended) Name of sub-species of organism from which sample was obtained</t>
   </si>
   <si>
-    <t>further_details</t>
+    <t>Further Details</t>
   </si>
   <si>
     <t>(Recommended) Reference details related to a sample in form of an uri.</t>
   </si>
   <si>
-    <t>nucleic_acid_extraction</t>
+    <t>nucleic acid extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>library_construction_method</t>
+    <t>library construction method</t>
   </si>
   <si>
     <t>(Optional) Library construction method used for clone libraries</t>
@@ -3459,31 +3444,31 @@
         <v>296</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="150" customHeight="1">
@@ -3542,31 +3527,31 @@
         <v>297</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -3581,7 +3566,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="S1:S294"/>
+  <dimension ref="S1:S289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5032,31 +5017,6 @@
         <v>586</v>
       </c>
     </row>
-    <row r="290" spans="19:19">
-      <c r="S290" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="291" spans="19:19">
-      <c r="S291" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="292" spans="19:19">
-      <c r="S292" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="293" spans="19:19">
-      <c r="S293" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="294" spans="19:19">
-      <c r="S294" t="s">
-        <v>591</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000041/metadata_template_ERC000041.xlsx
+++ b/templates/ERC000041/metadata_template_ERC000041.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$S$1:$S$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$U$1:$U$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="609">
   <si>
     <t>alias</t>
   </si>
@@ -835,6 +835,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -3379,7 +3391,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3388,7 +3400,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3444,10 +3456,10 @@
         <v>296</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>587</v>
+        <v>298</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>589</v>
+        <v>300</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>591</v>
@@ -3470,8 +3482,14 @@
       <c r="AA1" s="1" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" ht="150" customHeight="1">
+      <c r="AB1" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -3527,10 +3545,10 @@
         <v>297</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>588</v>
+        <v>299</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>590</v>
+        <v>301</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>592</v>
@@ -3553,10 +3571,16 @@
       <c r="AA2" s="2" t="s">
         <v>604</v>
       </c>
+      <c r="AB2" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>608</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
   </dataValidations>
@@ -3566,1455 +3590,1455 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="S1:S289"/>
+  <dimension ref="U1:U289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="19:19">
-      <c r="S1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="2" spans="19:19">
-      <c r="S2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="3" spans="19:19">
-      <c r="S3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="19:19">
-      <c r="S4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="5" spans="19:19">
-      <c r="S5" t="s">
+    <row r="1" spans="21:21">
+      <c r="U1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="19:19">
-      <c r="S6" t="s">
+    <row r="2" spans="21:21">
+      <c r="U2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="7" spans="19:19">
-      <c r="S7" t="s">
+    <row r="3" spans="21:21">
+      <c r="U3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="19:19">
-      <c r="S8" t="s">
+    <row r="4" spans="21:21">
+      <c r="U4" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="19:19">
-      <c r="S9" t="s">
+    <row r="5" spans="21:21">
+      <c r="U5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="19:19">
-      <c r="S10" t="s">
+    <row r="6" spans="21:21">
+      <c r="U6" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="19:19">
-      <c r="S11" t="s">
+    <row r="7" spans="21:21">
+      <c r="U7" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="19:19">
-      <c r="S12" t="s">
+    <row r="8" spans="21:21">
+      <c r="U8" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="19:19">
-      <c r="S13" t="s">
+    <row r="9" spans="21:21">
+      <c r="U9" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="14" spans="19:19">
-      <c r="S14" t="s">
+    <row r="10" spans="21:21">
+      <c r="U10" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="15" spans="19:19">
-      <c r="S15" t="s">
+    <row r="11" spans="21:21">
+      <c r="U11" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="16" spans="19:19">
-      <c r="S16" t="s">
+    <row r="12" spans="21:21">
+      <c r="U12" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="17" spans="19:19">
-      <c r="S17" t="s">
+    <row r="13" spans="21:21">
+      <c r="U13" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="18" spans="19:19">
-      <c r="S18" t="s">
+    <row r="14" spans="21:21">
+      <c r="U14" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="19" spans="19:19">
-      <c r="S19" t="s">
+    <row r="15" spans="21:21">
+      <c r="U15" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="20" spans="19:19">
-      <c r="S20" t="s">
+    <row r="16" spans="21:21">
+      <c r="U16" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="21" spans="19:19">
-      <c r="S21" t="s">
+    <row r="17" spans="21:21">
+      <c r="U17" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="22" spans="19:19">
-      <c r="S22" t="s">
+    <row r="18" spans="21:21">
+      <c r="U18" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="19:19">
-      <c r="S23" t="s">
+    <row r="19" spans="21:21">
+      <c r="U19" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="19:19">
-      <c r="S24" t="s">
+    <row r="20" spans="21:21">
+      <c r="U20" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="25" spans="19:19">
-      <c r="S25" t="s">
+    <row r="21" spans="21:21">
+      <c r="U21" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="26" spans="19:19">
-      <c r="S26" t="s">
+    <row r="22" spans="21:21">
+      <c r="U22" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="27" spans="19:19">
-      <c r="S27" t="s">
+    <row r="23" spans="21:21">
+      <c r="U23" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="28" spans="19:19">
-      <c r="S28" t="s">
+    <row r="24" spans="21:21">
+      <c r="U24" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="29" spans="19:19">
-      <c r="S29" t="s">
+    <row r="25" spans="21:21">
+      <c r="U25" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="30" spans="19:19">
-      <c r="S30" t="s">
+    <row r="26" spans="21:21">
+      <c r="U26" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="31" spans="19:19">
-      <c r="S31" t="s">
+    <row r="27" spans="21:21">
+      <c r="U27" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="32" spans="19:19">
-      <c r="S32" t="s">
+    <row r="28" spans="21:21">
+      <c r="U28" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="33" spans="19:19">
-      <c r="S33" t="s">
+    <row r="29" spans="21:21">
+      <c r="U29" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="34" spans="19:19">
-      <c r="S34" t="s">
+    <row r="30" spans="21:21">
+      <c r="U30" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="35" spans="19:19">
-      <c r="S35" t="s">
+    <row r="31" spans="21:21">
+      <c r="U31" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="36" spans="19:19">
-      <c r="S36" t="s">
+    <row r="32" spans="21:21">
+      <c r="U32" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="37" spans="19:19">
-      <c r="S37" t="s">
+    <row r="33" spans="21:21">
+      <c r="U33" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="38" spans="19:19">
-      <c r="S38" t="s">
+    <row r="34" spans="21:21">
+      <c r="U34" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="39" spans="19:19">
-      <c r="S39" t="s">
+    <row r="35" spans="21:21">
+      <c r="U35" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="40" spans="19:19">
-      <c r="S40" t="s">
+    <row r="36" spans="21:21">
+      <c r="U36" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="41" spans="19:19">
-      <c r="S41" t="s">
+    <row r="37" spans="21:21">
+      <c r="U37" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="42" spans="19:19">
-      <c r="S42" t="s">
+    <row r="38" spans="21:21">
+      <c r="U38" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="43" spans="19:19">
-      <c r="S43" t="s">
+    <row r="39" spans="21:21">
+      <c r="U39" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="44" spans="19:19">
-      <c r="S44" t="s">
+    <row r="40" spans="21:21">
+      <c r="U40" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="45" spans="19:19">
-      <c r="S45" t="s">
+    <row r="41" spans="21:21">
+      <c r="U41" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="46" spans="19:19">
-      <c r="S46" t="s">
+    <row r="42" spans="21:21">
+      <c r="U42" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="47" spans="19:19">
-      <c r="S47" t="s">
+    <row r="43" spans="21:21">
+      <c r="U43" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="48" spans="19:19">
-      <c r="S48" t="s">
+    <row r="44" spans="21:21">
+      <c r="U44" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="49" spans="19:19">
-      <c r="S49" t="s">
+    <row r="45" spans="21:21">
+      <c r="U45" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="50" spans="19:19">
-      <c r="S50" t="s">
+    <row r="46" spans="21:21">
+      <c r="U46" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="51" spans="19:19">
-      <c r="S51" t="s">
+    <row r="47" spans="21:21">
+      <c r="U47" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="52" spans="19:19">
-      <c r="S52" t="s">
+    <row r="48" spans="21:21">
+      <c r="U48" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="53" spans="19:19">
-      <c r="S53" t="s">
+    <row r="49" spans="21:21">
+      <c r="U49" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="54" spans="19:19">
-      <c r="S54" t="s">
+    <row r="50" spans="21:21">
+      <c r="U50" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="55" spans="19:19">
-      <c r="S55" t="s">
+    <row r="51" spans="21:21">
+      <c r="U51" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="56" spans="19:19">
-      <c r="S56" t="s">
+    <row r="52" spans="21:21">
+      <c r="U52" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="57" spans="19:19">
-      <c r="S57" t="s">
+    <row r="53" spans="21:21">
+      <c r="U53" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="58" spans="19:19">
-      <c r="S58" t="s">
+    <row r="54" spans="21:21">
+      <c r="U54" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="59" spans="19:19">
-      <c r="S59" t="s">
+    <row r="55" spans="21:21">
+      <c r="U55" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="60" spans="19:19">
-      <c r="S60" t="s">
+    <row r="56" spans="21:21">
+      <c r="U56" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="61" spans="19:19">
-      <c r="S61" t="s">
+    <row r="57" spans="21:21">
+      <c r="U57" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="62" spans="19:19">
-      <c r="S62" t="s">
+    <row r="58" spans="21:21">
+      <c r="U58" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="63" spans="19:19">
-      <c r="S63" t="s">
+    <row r="59" spans="21:21">
+      <c r="U59" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="64" spans="19:19">
-      <c r="S64" t="s">
+    <row r="60" spans="21:21">
+      <c r="U60" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="65" spans="19:19">
-      <c r="S65" t="s">
+    <row r="61" spans="21:21">
+      <c r="U61" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="66" spans="19:19">
-      <c r="S66" t="s">
+    <row r="62" spans="21:21">
+      <c r="U62" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="67" spans="19:19">
-      <c r="S67" t="s">
+    <row r="63" spans="21:21">
+      <c r="U63" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="68" spans="19:19">
-      <c r="S68" t="s">
+    <row r="64" spans="21:21">
+      <c r="U64" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="69" spans="19:19">
-      <c r="S69" t="s">
+    <row r="65" spans="21:21">
+      <c r="U65" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="70" spans="19:19">
-      <c r="S70" t="s">
+    <row r="66" spans="21:21">
+      <c r="U66" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="71" spans="19:19">
-      <c r="S71" t="s">
+    <row r="67" spans="21:21">
+      <c r="U67" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="72" spans="19:19">
-      <c r="S72" t="s">
+    <row r="68" spans="21:21">
+      <c r="U68" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="73" spans="19:19">
-      <c r="S73" t="s">
+    <row r="69" spans="21:21">
+      <c r="U69" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="74" spans="19:19">
-      <c r="S74" t="s">
+    <row r="70" spans="21:21">
+      <c r="U70" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="75" spans="19:19">
-      <c r="S75" t="s">
+    <row r="71" spans="21:21">
+      <c r="U71" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="76" spans="19:19">
-      <c r="S76" t="s">
+    <row r="72" spans="21:21">
+      <c r="U72" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="77" spans="19:19">
-      <c r="S77" t="s">
+    <row r="73" spans="21:21">
+      <c r="U73" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="78" spans="19:19">
-      <c r="S78" t="s">
+    <row r="74" spans="21:21">
+      <c r="U74" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="79" spans="19:19">
-      <c r="S79" t="s">
+    <row r="75" spans="21:21">
+      <c r="U75" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="80" spans="19:19">
-      <c r="S80" t="s">
+    <row r="76" spans="21:21">
+      <c r="U76" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="81" spans="19:19">
-      <c r="S81" t="s">
+    <row r="77" spans="21:21">
+      <c r="U77" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="82" spans="19:19">
-      <c r="S82" t="s">
+    <row r="78" spans="21:21">
+      <c r="U78" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="83" spans="19:19">
-      <c r="S83" t="s">
+    <row r="79" spans="21:21">
+      <c r="U79" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="84" spans="19:19">
-      <c r="S84" t="s">
+    <row r="80" spans="21:21">
+      <c r="U80" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="85" spans="19:19">
-      <c r="S85" t="s">
+    <row r="81" spans="21:21">
+      <c r="U81" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="86" spans="19:19">
-      <c r="S86" t="s">
+    <row r="82" spans="21:21">
+      <c r="U82" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="87" spans="19:19">
-      <c r="S87" t="s">
+    <row r="83" spans="21:21">
+      <c r="U83" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="88" spans="19:19">
-      <c r="S88" t="s">
+    <row r="84" spans="21:21">
+      <c r="U84" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="89" spans="19:19">
-      <c r="S89" t="s">
+    <row r="85" spans="21:21">
+      <c r="U85" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="90" spans="19:19">
-      <c r="S90" t="s">
+    <row r="86" spans="21:21">
+      <c r="U86" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="91" spans="19:19">
-      <c r="S91" t="s">
+    <row r="87" spans="21:21">
+      <c r="U87" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="92" spans="19:19">
-      <c r="S92" t="s">
+    <row r="88" spans="21:21">
+      <c r="U88" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="93" spans="19:19">
-      <c r="S93" t="s">
+    <row r="89" spans="21:21">
+      <c r="U89" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="94" spans="19:19">
-      <c r="S94" t="s">
+    <row r="90" spans="21:21">
+      <c r="U90" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="95" spans="19:19">
-      <c r="S95" t="s">
+    <row r="91" spans="21:21">
+      <c r="U91" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="96" spans="19:19">
-      <c r="S96" t="s">
+    <row r="92" spans="21:21">
+      <c r="U92" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="97" spans="19:19">
-      <c r="S97" t="s">
+    <row r="93" spans="21:21">
+      <c r="U93" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="98" spans="19:19">
-      <c r="S98" t="s">
+    <row r="94" spans="21:21">
+      <c r="U94" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="99" spans="19:19">
-      <c r="S99" t="s">
+    <row r="95" spans="21:21">
+      <c r="U95" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="100" spans="19:19">
-      <c r="S100" t="s">
+    <row r="96" spans="21:21">
+      <c r="U96" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="101" spans="19:19">
-      <c r="S101" t="s">
+    <row r="97" spans="21:21">
+      <c r="U97" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="102" spans="19:19">
-      <c r="S102" t="s">
+    <row r="98" spans="21:21">
+      <c r="U98" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="103" spans="19:19">
-      <c r="S103" t="s">
+    <row r="99" spans="21:21">
+      <c r="U99" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="104" spans="19:19">
-      <c r="S104" t="s">
+    <row r="100" spans="21:21">
+      <c r="U100" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="105" spans="19:19">
-      <c r="S105" t="s">
+    <row r="101" spans="21:21">
+      <c r="U101" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="106" spans="19:19">
-      <c r="S106" t="s">
+    <row r="102" spans="21:21">
+      <c r="U102" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="107" spans="19:19">
-      <c r="S107" t="s">
+    <row r="103" spans="21:21">
+      <c r="U103" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="108" spans="19:19">
-      <c r="S108" t="s">
+    <row r="104" spans="21:21">
+      <c r="U104" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="109" spans="19:19">
-      <c r="S109" t="s">
+    <row r="105" spans="21:21">
+      <c r="U105" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="110" spans="19:19">
-      <c r="S110" t="s">
+    <row r="106" spans="21:21">
+      <c r="U106" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="111" spans="19:19">
-      <c r="S111" t="s">
+    <row r="107" spans="21:21">
+      <c r="U107" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="112" spans="19:19">
-      <c r="S112" t="s">
+    <row r="108" spans="21:21">
+      <c r="U108" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="113" spans="19:19">
-      <c r="S113" t="s">
+    <row r="109" spans="21:21">
+      <c r="U109" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="114" spans="19:19">
-      <c r="S114" t="s">
+    <row r="110" spans="21:21">
+      <c r="U110" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="115" spans="19:19">
-      <c r="S115" t="s">
+    <row r="111" spans="21:21">
+      <c r="U111" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="116" spans="19:19">
-      <c r="S116" t="s">
+    <row r="112" spans="21:21">
+      <c r="U112" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="117" spans="19:19">
-      <c r="S117" t="s">
+    <row r="113" spans="21:21">
+      <c r="U113" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="118" spans="19:19">
-      <c r="S118" t="s">
+    <row r="114" spans="21:21">
+      <c r="U114" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="119" spans="19:19">
-      <c r="S119" t="s">
+    <row r="115" spans="21:21">
+      <c r="U115" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="120" spans="19:19">
-      <c r="S120" t="s">
+    <row r="116" spans="21:21">
+      <c r="U116" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="121" spans="19:19">
-      <c r="S121" t="s">
+    <row r="117" spans="21:21">
+      <c r="U117" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="122" spans="19:19">
-      <c r="S122" t="s">
+    <row r="118" spans="21:21">
+      <c r="U118" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="123" spans="19:19">
-      <c r="S123" t="s">
+    <row r="119" spans="21:21">
+      <c r="U119" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="124" spans="19:19">
-      <c r="S124" t="s">
+    <row r="120" spans="21:21">
+      <c r="U120" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="125" spans="19:19">
-      <c r="S125" t="s">
+    <row r="121" spans="21:21">
+      <c r="U121" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="126" spans="19:19">
-      <c r="S126" t="s">
+    <row r="122" spans="21:21">
+      <c r="U122" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="127" spans="19:19">
-      <c r="S127" t="s">
+    <row r="123" spans="21:21">
+      <c r="U123" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="128" spans="19:19">
-      <c r="S128" t="s">
+    <row r="124" spans="21:21">
+      <c r="U124" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="129" spans="19:19">
-      <c r="S129" t="s">
+    <row r="125" spans="21:21">
+      <c r="U125" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="130" spans="19:19">
-      <c r="S130" t="s">
+    <row r="126" spans="21:21">
+      <c r="U126" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="131" spans="19:19">
-      <c r="S131" t="s">
+    <row r="127" spans="21:21">
+      <c r="U127" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="132" spans="19:19">
-      <c r="S132" t="s">
+    <row r="128" spans="21:21">
+      <c r="U128" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="133" spans="19:19">
-      <c r="S133" t="s">
+    <row r="129" spans="21:21">
+      <c r="U129" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="134" spans="19:19">
-      <c r="S134" t="s">
+    <row r="130" spans="21:21">
+      <c r="U130" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="135" spans="19:19">
-      <c r="S135" t="s">
+    <row r="131" spans="21:21">
+      <c r="U131" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="136" spans="19:19">
-      <c r="S136" t="s">
+    <row r="132" spans="21:21">
+      <c r="U132" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="137" spans="19:19">
-      <c r="S137" t="s">
+    <row r="133" spans="21:21">
+      <c r="U133" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="138" spans="19:19">
-      <c r="S138" t="s">
+    <row r="134" spans="21:21">
+      <c r="U134" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="139" spans="19:19">
-      <c r="S139" t="s">
+    <row r="135" spans="21:21">
+      <c r="U135" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="140" spans="19:19">
-      <c r="S140" t="s">
+    <row r="136" spans="21:21">
+      <c r="U136" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="141" spans="19:19">
-      <c r="S141" t="s">
+    <row r="137" spans="21:21">
+      <c r="U137" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="142" spans="19:19">
-      <c r="S142" t="s">
+    <row r="138" spans="21:21">
+      <c r="U138" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="143" spans="19:19">
-      <c r="S143" t="s">
+    <row r="139" spans="21:21">
+      <c r="U139" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="144" spans="19:19">
-      <c r="S144" t="s">
+    <row r="140" spans="21:21">
+      <c r="U140" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="145" spans="19:19">
-      <c r="S145" t="s">
+    <row r="141" spans="21:21">
+      <c r="U141" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="146" spans="19:19">
-      <c r="S146" t="s">
+    <row r="142" spans="21:21">
+      <c r="U142" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="147" spans="19:19">
-      <c r="S147" t="s">
+    <row r="143" spans="21:21">
+      <c r="U143" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="148" spans="19:19">
-      <c r="S148" t="s">
+    <row r="144" spans="21:21">
+      <c r="U144" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="149" spans="19:19">
-      <c r="S149" t="s">
+    <row r="145" spans="21:21">
+      <c r="U145" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="150" spans="19:19">
-      <c r="S150" t="s">
+    <row r="146" spans="21:21">
+      <c r="U146" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="151" spans="19:19">
-      <c r="S151" t="s">
+    <row r="147" spans="21:21">
+      <c r="U147" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="152" spans="19:19">
-      <c r="S152" t="s">
+    <row r="148" spans="21:21">
+      <c r="U148" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="153" spans="19:19">
-      <c r="S153" t="s">
+    <row r="149" spans="21:21">
+      <c r="U149" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="154" spans="19:19">
-      <c r="S154" t="s">
+    <row r="150" spans="21:21">
+      <c r="U150" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="155" spans="19:19">
-      <c r="S155" t="s">
+    <row r="151" spans="21:21">
+      <c r="U151" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="156" spans="19:19">
-      <c r="S156" t="s">
+    <row r="152" spans="21:21">
+      <c r="U152" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="157" spans="19:19">
-      <c r="S157" t="s">
+    <row r="153" spans="21:21">
+      <c r="U153" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="158" spans="19:19">
-      <c r="S158" t="s">
+    <row r="154" spans="21:21">
+      <c r="U154" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="159" spans="19:19">
-      <c r="S159" t="s">
+    <row r="155" spans="21:21">
+      <c r="U155" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="160" spans="19:19">
-      <c r="S160" t="s">
+    <row r="156" spans="21:21">
+      <c r="U156" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="161" spans="19:19">
-      <c r="S161" t="s">
+    <row r="157" spans="21:21">
+      <c r="U157" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="162" spans="19:19">
-      <c r="S162" t="s">
+    <row r="158" spans="21:21">
+      <c r="U158" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="163" spans="19:19">
-      <c r="S163" t="s">
+    <row r="159" spans="21:21">
+      <c r="U159" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="164" spans="19:19">
-      <c r="S164" t="s">
+    <row r="160" spans="21:21">
+      <c r="U160" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="165" spans="19:19">
-      <c r="S165" t="s">
+    <row r="161" spans="21:21">
+      <c r="U161" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="166" spans="19:19">
-      <c r="S166" t="s">
+    <row r="162" spans="21:21">
+      <c r="U162" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="167" spans="19:19">
-      <c r="S167" t="s">
+    <row r="163" spans="21:21">
+      <c r="U163" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="168" spans="19:19">
-      <c r="S168" t="s">
+    <row r="164" spans="21:21">
+      <c r="U164" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="169" spans="19:19">
-      <c r="S169" t="s">
+    <row r="165" spans="21:21">
+      <c r="U165" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="170" spans="19:19">
-      <c r="S170" t="s">
+    <row r="166" spans="21:21">
+      <c r="U166" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="171" spans="19:19">
-      <c r="S171" t="s">
+    <row r="167" spans="21:21">
+      <c r="U167" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="172" spans="19:19">
-      <c r="S172" t="s">
+    <row r="168" spans="21:21">
+      <c r="U168" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="173" spans="19:19">
-      <c r="S173" t="s">
+    <row r="169" spans="21:21">
+      <c r="U169" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="174" spans="19:19">
-      <c r="S174" t="s">
+    <row r="170" spans="21:21">
+      <c r="U170" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="175" spans="19:19">
-      <c r="S175" t="s">
+    <row r="171" spans="21:21">
+      <c r="U171" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="176" spans="19:19">
-      <c r="S176" t="s">
+    <row r="172" spans="21:21">
+      <c r="U172" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="177" spans="19:19">
-      <c r="S177" t="s">
+    <row r="173" spans="21:21">
+      <c r="U173" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="178" spans="19:19">
-      <c r="S178" t="s">
+    <row r="174" spans="21:21">
+      <c r="U174" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="179" spans="19:19">
-      <c r="S179" t="s">
+    <row r="175" spans="21:21">
+      <c r="U175" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="180" spans="19:19">
-      <c r="S180" t="s">
+    <row r="176" spans="21:21">
+      <c r="U176" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="181" spans="19:19">
-      <c r="S181" t="s">
+    <row r="177" spans="21:21">
+      <c r="U177" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="182" spans="19:19">
-      <c r="S182" t="s">
+    <row r="178" spans="21:21">
+      <c r="U178" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="183" spans="19:19">
-      <c r="S183" t="s">
+    <row r="179" spans="21:21">
+      <c r="U179" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="184" spans="19:19">
-      <c r="S184" t="s">
+    <row r="180" spans="21:21">
+      <c r="U180" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="185" spans="19:19">
-      <c r="S185" t="s">
+    <row r="181" spans="21:21">
+      <c r="U181" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="186" spans="19:19">
-      <c r="S186" t="s">
+    <row r="182" spans="21:21">
+      <c r="U182" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="187" spans="19:19">
-      <c r="S187" t="s">
+    <row r="183" spans="21:21">
+      <c r="U183" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="188" spans="19:19">
-      <c r="S188" t="s">
+    <row r="184" spans="21:21">
+      <c r="U184" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="189" spans="19:19">
-      <c r="S189" t="s">
+    <row r="185" spans="21:21">
+      <c r="U185" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="190" spans="19:19">
-      <c r="S190" t="s">
+    <row r="186" spans="21:21">
+      <c r="U186" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="191" spans="19:19">
-      <c r="S191" t="s">
+    <row r="187" spans="21:21">
+      <c r="U187" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="192" spans="19:19">
-      <c r="S192" t="s">
+    <row r="188" spans="21:21">
+      <c r="U188" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="193" spans="19:19">
-      <c r="S193" t="s">
+    <row r="189" spans="21:21">
+      <c r="U189" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="194" spans="19:19">
-      <c r="S194" t="s">
+    <row r="190" spans="21:21">
+      <c r="U190" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="195" spans="19:19">
-      <c r="S195" t="s">
+    <row r="191" spans="21:21">
+      <c r="U191" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="196" spans="19:19">
-      <c r="S196" t="s">
+    <row r="192" spans="21:21">
+      <c r="U192" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="197" spans="19:19">
-      <c r="S197" t="s">
+    <row r="193" spans="21:21">
+      <c r="U193" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="198" spans="19:19">
-      <c r="S198" t="s">
+    <row r="194" spans="21:21">
+      <c r="U194" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="199" spans="19:19">
-      <c r="S199" t="s">
+    <row r="195" spans="21:21">
+      <c r="U195" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="200" spans="19:19">
-      <c r="S200" t="s">
+    <row r="196" spans="21:21">
+      <c r="U196" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="201" spans="19:19">
-      <c r="S201" t="s">
+    <row r="197" spans="21:21">
+      <c r="U197" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="202" spans="19:19">
-      <c r="S202" t="s">
+    <row r="198" spans="21:21">
+      <c r="U198" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="203" spans="19:19">
-      <c r="S203" t="s">
+    <row r="199" spans="21:21">
+      <c r="U199" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="204" spans="19:19">
-      <c r="S204" t="s">
+    <row r="200" spans="21:21">
+      <c r="U200" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="205" spans="19:19">
-      <c r="S205" t="s">
+    <row r="201" spans="21:21">
+      <c r="U201" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="206" spans="19:19">
-      <c r="S206" t="s">
+    <row r="202" spans="21:21">
+      <c r="U202" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="207" spans="19:19">
-      <c r="S207" t="s">
+    <row r="203" spans="21:21">
+      <c r="U203" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="208" spans="19:19">
-      <c r="S208" t="s">
+    <row r="204" spans="21:21">
+      <c r="U204" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="209" spans="19:19">
-      <c r="S209" t="s">
+    <row r="205" spans="21:21">
+      <c r="U205" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="210" spans="19:19">
-      <c r="S210" t="s">
+    <row r="206" spans="21:21">
+      <c r="U206" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="211" spans="19:19">
-      <c r="S211" t="s">
+    <row r="207" spans="21:21">
+      <c r="U207" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="212" spans="19:19">
-      <c r="S212" t="s">
+    <row r="208" spans="21:21">
+      <c r="U208" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="213" spans="19:19">
-      <c r="S213" t="s">
+    <row r="209" spans="21:21">
+      <c r="U209" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="214" spans="19:19">
-      <c r="S214" t="s">
+    <row r="210" spans="21:21">
+      <c r="U210" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="215" spans="19:19">
-      <c r="S215" t="s">
+    <row r="211" spans="21:21">
+      <c r="U211" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="216" spans="19:19">
-      <c r="S216" t="s">
+    <row r="212" spans="21:21">
+      <c r="U212" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="217" spans="19:19">
-      <c r="S217" t="s">
+    <row r="213" spans="21:21">
+      <c r="U213" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="218" spans="19:19">
-      <c r="S218" t="s">
+    <row r="214" spans="21:21">
+      <c r="U214" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="219" spans="19:19">
-      <c r="S219" t="s">
+    <row r="215" spans="21:21">
+      <c r="U215" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="220" spans="19:19">
-      <c r="S220" t="s">
+    <row r="216" spans="21:21">
+      <c r="U216" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="221" spans="19:19">
-      <c r="S221" t="s">
+    <row r="217" spans="21:21">
+      <c r="U217" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="222" spans="19:19">
-      <c r="S222" t="s">
+    <row r="218" spans="21:21">
+      <c r="U218" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="223" spans="19:19">
-      <c r="S223" t="s">
+    <row r="219" spans="21:21">
+      <c r="U219" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="224" spans="19:19">
-      <c r="S224" t="s">
+    <row r="220" spans="21:21">
+      <c r="U220" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="225" spans="19:19">
-      <c r="S225" t="s">
+    <row r="221" spans="21:21">
+      <c r="U221" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="226" spans="19:19">
-      <c r="S226" t="s">
+    <row r="222" spans="21:21">
+      <c r="U222" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="227" spans="19:19">
-      <c r="S227" t="s">
+    <row r="223" spans="21:21">
+      <c r="U223" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="228" spans="19:19">
-      <c r="S228" t="s">
+    <row r="224" spans="21:21">
+      <c r="U224" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="229" spans="19:19">
-      <c r="S229" t="s">
+    <row r="225" spans="21:21">
+      <c r="U225" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="230" spans="19:19">
-      <c r="S230" t="s">
+    <row r="226" spans="21:21">
+      <c r="U226" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="231" spans="19:19">
-      <c r="S231" t="s">
+    <row r="227" spans="21:21">
+      <c r="U227" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="232" spans="19:19">
-      <c r="S232" t="s">
+    <row r="228" spans="21:21">
+      <c r="U228" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="233" spans="19:19">
-      <c r="S233" t="s">
+    <row r="229" spans="21:21">
+      <c r="U229" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="234" spans="19:19">
-      <c r="S234" t="s">
+    <row r="230" spans="21:21">
+      <c r="U230" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="235" spans="19:19">
-      <c r="S235" t="s">
+    <row r="231" spans="21:21">
+      <c r="U231" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="236" spans="19:19">
-      <c r="S236" t="s">
+    <row r="232" spans="21:21">
+      <c r="U232" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="237" spans="19:19">
-      <c r="S237" t="s">
+    <row r="233" spans="21:21">
+      <c r="U233" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="238" spans="19:19">
-      <c r="S238" t="s">
+    <row r="234" spans="21:21">
+      <c r="U234" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="239" spans="19:19">
-      <c r="S239" t="s">
+    <row r="235" spans="21:21">
+      <c r="U235" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="240" spans="19:19">
-      <c r="S240" t="s">
+    <row r="236" spans="21:21">
+      <c r="U236" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="241" spans="19:19">
-      <c r="S241" t="s">
+    <row r="237" spans="21:21">
+      <c r="U237" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="242" spans="19:19">
-      <c r="S242" t="s">
+    <row r="238" spans="21:21">
+      <c r="U238" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="243" spans="19:19">
-      <c r="S243" t="s">
+    <row r="239" spans="21:21">
+      <c r="U239" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="244" spans="19:19">
-      <c r="S244" t="s">
+    <row r="240" spans="21:21">
+      <c r="U240" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="245" spans="19:19">
-      <c r="S245" t="s">
+    <row r="241" spans="21:21">
+      <c r="U241" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="246" spans="19:19">
-      <c r="S246" t="s">
+    <row r="242" spans="21:21">
+      <c r="U242" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="247" spans="19:19">
-      <c r="S247" t="s">
+    <row r="243" spans="21:21">
+      <c r="U243" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="248" spans="19:19">
-      <c r="S248" t="s">
+    <row r="244" spans="21:21">
+      <c r="U244" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="249" spans="19:19">
-      <c r="S249" t="s">
+    <row r="245" spans="21:21">
+      <c r="U245" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="250" spans="19:19">
-      <c r="S250" t="s">
+    <row r="246" spans="21:21">
+      <c r="U246" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="251" spans="19:19">
-      <c r="S251" t="s">
+    <row r="247" spans="21:21">
+      <c r="U247" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="252" spans="19:19">
-      <c r="S252" t="s">
+    <row r="248" spans="21:21">
+      <c r="U248" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="253" spans="19:19">
-      <c r="S253" t="s">
+    <row r="249" spans="21:21">
+      <c r="U249" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="254" spans="19:19">
-      <c r="S254" t="s">
+    <row r="250" spans="21:21">
+      <c r="U250" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="255" spans="19:19">
-      <c r="S255" t="s">
+    <row r="251" spans="21:21">
+      <c r="U251" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="256" spans="19:19">
-      <c r="S256" t="s">
+    <row r="252" spans="21:21">
+      <c r="U252" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="257" spans="19:19">
-      <c r="S257" t="s">
+    <row r="253" spans="21:21">
+      <c r="U253" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="258" spans="19:19">
-      <c r="S258" t="s">
+    <row r="254" spans="21:21">
+      <c r="U254" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="259" spans="19:19">
-      <c r="S259" t="s">
+    <row r="255" spans="21:21">
+      <c r="U255" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="260" spans="19:19">
-      <c r="S260" t="s">
+    <row r="256" spans="21:21">
+      <c r="U256" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="261" spans="19:19">
-      <c r="S261" t="s">
+    <row r="257" spans="21:21">
+      <c r="U257" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="262" spans="19:19">
-      <c r="S262" t="s">
+    <row r="258" spans="21:21">
+      <c r="U258" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="263" spans="19:19">
-      <c r="S263" t="s">
+    <row r="259" spans="21:21">
+      <c r="U259" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="264" spans="19:19">
-      <c r="S264" t="s">
+    <row r="260" spans="21:21">
+      <c r="U260" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="265" spans="19:19">
-      <c r="S265" t="s">
+    <row r="261" spans="21:21">
+      <c r="U261" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="266" spans="19:19">
-      <c r="S266" t="s">
+    <row r="262" spans="21:21">
+      <c r="U262" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="267" spans="19:19">
-      <c r="S267" t="s">
+    <row r="263" spans="21:21">
+      <c r="U263" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="268" spans="19:19">
-      <c r="S268" t="s">
+    <row r="264" spans="21:21">
+      <c r="U264" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="269" spans="19:19">
-      <c r="S269" t="s">
+    <row r="265" spans="21:21">
+      <c r="U265" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="270" spans="19:19">
-      <c r="S270" t="s">
+    <row r="266" spans="21:21">
+      <c r="U266" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="271" spans="19:19">
-      <c r="S271" t="s">
+    <row r="267" spans="21:21">
+      <c r="U267" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="272" spans="19:19">
-      <c r="S272" t="s">
+    <row r="268" spans="21:21">
+      <c r="U268" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="273" spans="19:19">
-      <c r="S273" t="s">
+    <row r="269" spans="21:21">
+      <c r="U269" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="274" spans="19:19">
-      <c r="S274" t="s">
+    <row r="270" spans="21:21">
+      <c r="U270" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="275" spans="19:19">
-      <c r="S275" t="s">
+    <row r="271" spans="21:21">
+      <c r="U271" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="276" spans="19:19">
-      <c r="S276" t="s">
+    <row r="272" spans="21:21">
+      <c r="U272" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="277" spans="19:19">
-      <c r="S277" t="s">
+    <row r="273" spans="21:21">
+      <c r="U273" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="278" spans="19:19">
-      <c r="S278" t="s">
+    <row r="274" spans="21:21">
+      <c r="U274" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="279" spans="19:19">
-      <c r="S279" t="s">
+    <row r="275" spans="21:21">
+      <c r="U275" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="280" spans="19:19">
-      <c r="S280" t="s">
+    <row r="276" spans="21:21">
+      <c r="U276" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="281" spans="19:19">
-      <c r="S281" t="s">
+    <row r="277" spans="21:21">
+      <c r="U277" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="282" spans="19:19">
-      <c r="S282" t="s">
+    <row r="278" spans="21:21">
+      <c r="U278" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="283" spans="19:19">
-      <c r="S283" t="s">
+    <row r="279" spans="21:21">
+      <c r="U279" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="284" spans="19:19">
-      <c r="S284" t="s">
+    <row r="280" spans="21:21">
+      <c r="U280" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="285" spans="19:19">
-      <c r="S285" t="s">
+    <row r="281" spans="21:21">
+      <c r="U281" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="286" spans="19:19">
-      <c r="S286" t="s">
+    <row r="282" spans="21:21">
+      <c r="U282" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="287" spans="19:19">
-      <c r="S287" t="s">
+    <row r="283" spans="21:21">
+      <c r="U283" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="288" spans="19:19">
-      <c r="S288" t="s">
+    <row r="284" spans="21:21">
+      <c r="U284" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="289" spans="19:19">
-      <c r="S289" t="s">
+    <row r="285" spans="21:21">
+      <c r="U285" t="s">
         <v>586</v>
+      </c>
+    </row>
+    <row r="286" spans="21:21">
+      <c r="U286" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="287" spans="21:21">
+      <c r="U287" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="288" spans="21:21">
+      <c r="U288" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="289" spans="21:21">
+      <c r="U289" t="s">
+        <v>590</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000041/metadata_template_ERC000041.xlsx
+++ b/templates/ERC000041/metadata_template_ERC000041.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$U$1:$U$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$U$1:$U$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="614">
   <si>
     <t>alias</t>
   </si>
@@ -924,7 +924,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m2, m3, g, L, kg)</t>
   </si>
   <si>
     <t>sampling time point</t>
@@ -1152,9 +1152,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1173,6 +1170,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1374,6 +1374,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1383,9 +1386,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1425,7 +1425,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1494,6 +1494,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1569,6 +1572,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1590,6 +1596,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1635,6 +1644,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1647,6 +1659,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1656,9 +1671,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1683,6 +1695,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1743,10 +1758,10 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
-  </si>
-  <si>
-    <t>Wake Island</t>
   </si>
   <si>
     <t>Wallis and Futuna</t>
@@ -3462,31 +3477,31 @@
         <v>300</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="150" customHeight="1">
@@ -3551,31 +3566,31 @@
         <v>301</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -3590,7 +3605,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="U1:U289"/>
+  <dimension ref="U1:U294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5041,6 +5056,31 @@
         <v>590</v>
       </c>
     </row>
+    <row r="290" spans="21:21">
+      <c r="U290" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="291" spans="21:21">
+      <c r="U291" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="292" spans="21:21">
+      <c r="U292" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="293" spans="21:21">
+      <c r="U293" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="294" spans="21:21">
+      <c r="U294" t="s">
+        <v>595</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000041/metadata_template_ERC000041.xlsx
+++ b/templates/ERC000041/metadata_template_ERC000041.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$U$1:$U$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$U$1:$U$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="614">
   <si>
     <t>alias</t>
   </si>
@@ -924,7 +924,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
   </si>
   <si>
     <t>sampling time point</t>
@@ -1152,9 +1152,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1173,6 +1170,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1374,6 +1374,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1383,9 +1386,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1425,7 +1425,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1494,6 +1494,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1569,6 +1572,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1590,6 +1596,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1635,6 +1644,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1647,6 +1659,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1656,9 +1671,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1683,6 +1695,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1743,10 +1758,10 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
-  </si>
-  <si>
-    <t>Wake Island</t>
   </si>
   <si>
     <t>Wallis and Futuna</t>
@@ -3462,31 +3477,31 @@
         <v>300</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="150" customHeight="1">
@@ -3551,31 +3566,31 @@
         <v>301</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -3590,7 +3605,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="U1:U289"/>
+  <dimension ref="U1:U294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5041,6 +5056,31 @@
         <v>590</v>
       </c>
     </row>
+    <row r="290" spans="21:21">
+      <c r="U290" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="291" spans="21:21">
+      <c r="U291" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="292" spans="21:21">
+      <c r="U292" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="293" spans="21:21">
+      <c r="U293" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="294" spans="21:21">
+      <c r="U294" t="s">
+        <v>595</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
